--- a/dayrepo/snippets/static/excel/report.xlsx
+++ b/dayrepo/snippets/static/excel/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasak\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B6011-E9D1-4A41-88BA-994647043660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D048E13F-7A3B-447C-8ECB-98877CE1BC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">report_sheet!$A$1:$BJ$51</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
   <si>
     <t>登録番号</t>
     <rPh sb="0" eb="2">
@@ -280,9 +291,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>km</t>
-  </si>
-  <si>
     <t>差　　　引　　　計</t>
     <rPh sb="0" eb="1">
       <t>サ</t>
@@ -306,9 +314,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>㍑</t>
-  </si>
-  <si>
     <t>走  行  距  離  （始）</t>
     <rPh sb="0" eb="1">
       <t>ソウ</t>
@@ -365,10 +370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>㍑</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1143,25 +1144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">                                       　　　年　　　月　　　日（　　　曜日）  天候（  　　　）</t>
-    <rPh sb="42" eb="43">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヨウビ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>テンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 踏みしろ(エア・ブレーキ装着車不要)　きき具合</t>
     <rPh sb="1" eb="2">
       <t>フ</t>
@@ -1177,6 +1159,32 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>グアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XX：YY</t>
+  </si>
+  <si>
+    <t>XX：YY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Y 年　　　M 月　　D 日（　　W 曜日）  天候（  　w　　）</t>
+    <rPh sb="40" eb="41">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>テンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1185,7 +1193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1287,13 +1295,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐ明朝"/>
@@ -1360,7 +1361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1889,21 +1890,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1957,7 +1943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1996,71 +1982,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2068,7 +1991,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2086,7 +2009,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2115,54 +2038,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2176,197 +2060,304 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2379,12 +2370,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2418,27 +2403,45 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2448,246 +2451,202 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4845,7 +4804,7 @@
   <dimension ref="A1:BJ52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AB42" sqref="AB42:AD42"/>
+      <selection activeCell="AB43" sqref="AB43:AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4856,7 +4815,14 @@
     <col min="4" max="4" width="5.36328125" customWidth="1"/>
     <col min="5" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="4.6328125" customWidth="1"/>
-    <col min="8" max="55" width="1.7265625" customWidth="1"/>
+    <col min="8" max="8" width="2.90625" customWidth="1"/>
+    <col min="9" max="17" width="1.7265625" customWidth="1"/>
+    <col min="18" max="18" width="2.26953125" customWidth="1"/>
+    <col min="19" max="26" width="1.7265625" customWidth="1"/>
+    <col min="27" max="27" width="2.1796875" customWidth="1"/>
+    <col min="28" max="35" width="1.7265625" customWidth="1"/>
+    <col min="36" max="36" width="2.26953125" customWidth="1"/>
+    <col min="37" max="55" width="1.7265625" customWidth="1"/>
     <col min="56" max="56" width="5.6328125" customWidth="1"/>
     <col min="57" max="57" width="4.36328125" customWidth="1"/>
     <col min="58" max="58" width="1.90625" customWidth="1"/>
@@ -4864,1231 +4830,1231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
     </row>
     <row r="2" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="182" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="182"/>
-      <c r="Y2" s="182"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="182"/>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="182"/>
-      <c r="AD2" s="182"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="182"/>
-      <c r="AH2" s="182"/>
-      <c r="AI2" s="182"/>
-      <c r="AJ2" s="182"/>
-      <c r="AK2" s="182"/>
-      <c r="AL2" s="182"/>
-      <c r="AM2" s="182"/>
-      <c r="AN2" s="182"/>
-      <c r="AO2" s="182"/>
-      <c r="AP2" s="182"/>
-      <c r="AQ2" s="182"/>
-      <c r="AR2" s="182"/>
-      <c r="AS2" s="182"/>
-      <c r="AT2" s="182"/>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="182"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="182"/>
-      <c r="AZ2" s="182"/>
-      <c r="BA2" s="182"/>
-      <c r="BB2" s="182"/>
-      <c r="BC2" s="182"/>
-      <c r="BD2" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE2" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF2" s="128"/>
-      <c r="BG2" s="128"/>
-      <c r="BH2" s="128"/>
-      <c r="BI2" s="128"/>
-      <c r="BJ2" s="129"/>
+      <c r="A2" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="139"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="139"/>
+      <c r="AJ2" s="139"/>
+      <c r="AK2" s="139"/>
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="139"/>
+      <c r="AN2" s="139"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="139"/>
+      <c r="AR2" s="139"/>
+      <c r="AS2" s="139"/>
+      <c r="AT2" s="139"/>
+      <c r="AU2" s="139"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="139"/>
+      <c r="AX2" s="139"/>
+      <c r="AY2" s="139"/>
+      <c r="AZ2" s="139"/>
+      <c r="BA2" s="139"/>
+      <c r="BB2" s="139"/>
+      <c r="BC2" s="139"/>
+      <c r="BD2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE2" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="73"/>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="183"/>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="183"/>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="183"/>
-      <c r="AJ3" s="183"/>
-      <c r="AK3" s="183"/>
-      <c r="AL3" s="78" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="140"/>
+      <c r="AJ3" s="140"/>
+      <c r="AK3" s="140"/>
+      <c r="AL3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="82"/>
-      <c r="BC3" s="82"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="237"/>
-      <c r="BF3" s="238"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ3" s="43" t="s">
-        <v>62</v>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="198"/>
+      <c r="AS3" s="198"/>
+      <c r="AT3" s="198"/>
+      <c r="AU3" s="198"/>
+      <c r="AV3" s="198"/>
+      <c r="AW3" s="198"/>
+      <c r="AX3" s="198"/>
+      <c r="AY3" s="198"/>
+      <c r="AZ3" s="198"/>
+      <c r="BA3" s="198"/>
+      <c r="BB3" s="198"/>
+      <c r="BC3" s="198"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="100"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="21"/>
+      <c r="BI3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ3" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:62" s="1" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="183"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="183"/>
-      <c r="Q4" s="183"/>
-      <c r="R4" s="183"/>
-      <c r="S4" s="183"/>
-      <c r="T4" s="183"/>
-      <c r="U4" s="183"/>
-      <c r="V4" s="183"/>
-      <c r="W4" s="183"/>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="183"/>
-      <c r="Z4" s="183"/>
-      <c r="AA4" s="183"/>
-      <c r="AB4" s="183"/>
-      <c r="AC4" s="183"/>
-      <c r="AD4" s="183"/>
-      <c r="AE4" s="183"/>
-      <c r="AF4" s="183"/>
-      <c r="AG4" s="183"/>
-      <c r="AH4" s="183"/>
-      <c r="AI4" s="183"/>
-      <c r="AJ4" s="183"/>
-      <c r="AK4" s="183"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="79"/>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="79"/>
-      <c r="AY4" s="79"/>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="237"/>
-      <c r="BF4" s="238"/>
-      <c r="BG4" s="252"/>
-      <c r="BH4" s="252"/>
-      <c r="BI4" s="252"/>
-      <c r="BJ4" s="252"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="140"/>
+      <c r="AH4" s="140"/>
+      <c r="AI4" s="140"/>
+      <c r="AJ4" s="140"/>
+      <c r="AK4" s="140"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="45"/>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="45"/>
+      <c r="AY4" s="45"/>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="45"/>
+      <c r="BB4" s="45"/>
+      <c r="BC4" s="45"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="101"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
     </row>
     <row r="5" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140" t="s">
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140" t="s">
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
-      <c r="W5" s="140" t="s">
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="140"/>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="140"/>
-      <c r="AD5" s="140"/>
-      <c r="AE5" s="140" t="s">
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="144"/>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="AF5" s="140"/>
-      <c r="AG5" s="140"/>
-      <c r="AH5" s="140"/>
-      <c r="AI5" s="140"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="184" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL5" s="185"/>
-      <c r="AM5" s="185"/>
-      <c r="AN5" s="185"/>
-      <c r="AO5" s="185"/>
-      <c r="AP5" s="185"/>
-      <c r="AQ5" s="185"/>
-      <c r="AR5" s="185"/>
-      <c r="AS5" s="185"/>
-      <c r="AT5" s="185"/>
-      <c r="AU5" s="185"/>
-      <c r="AV5" s="185"/>
-      <c r="AW5" s="185"/>
-      <c r="AX5" s="185"/>
-      <c r="AY5" s="185"/>
-      <c r="AZ5" s="185"/>
-      <c r="BA5" s="185"/>
-      <c r="BB5" s="185"/>
-      <c r="BC5" s="185"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="239"/>
-      <c r="BF5" s="240"/>
-      <c r="BG5" s="253"/>
-      <c r="BH5" s="253"/>
-      <c r="BI5" s="253"/>
-      <c r="BJ5" s="253"/>
+      <c r="AF5" s="144"/>
+      <c r="AG5" s="144"/>
+      <c r="AH5" s="144"/>
+      <c r="AI5" s="144"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL5" s="142"/>
+      <c r="AM5" s="142"/>
+      <c r="AN5" s="142"/>
+      <c r="AO5" s="142"/>
+      <c r="AP5" s="142"/>
+      <c r="AQ5" s="142"/>
+      <c r="AR5" s="142"/>
+      <c r="AS5" s="142"/>
+      <c r="AT5" s="142"/>
+      <c r="AU5" s="142"/>
+      <c r="AV5" s="142"/>
+      <c r="AW5" s="142"/>
+      <c r="AX5" s="142"/>
+      <c r="AY5" s="142"/>
+      <c r="AZ5" s="142"/>
+      <c r="BA5" s="142"/>
+      <c r="BB5" s="142"/>
+      <c r="BC5" s="142"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="102"/>
+      <c r="BF5" s="103"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
     </row>
     <row r="6" spans="1:62" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="192"/>
-      <c r="R6" s="190"/>
-      <c r="S6" s="189" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="189"/>
-      <c r="U6" s="190"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="188"/>
-      <c r="Y6" s="188"/>
-      <c r="Z6" s="188"/>
-      <c r="AA6" s="188"/>
-      <c r="AB6" s="188"/>
-      <c r="AC6" s="188"/>
-      <c r="AD6" s="188"/>
-      <c r="AE6" s="192"/>
-      <c r="AF6" s="190"/>
-      <c r="AG6" s="189" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH6" s="189"/>
-      <c r="AI6" s="243"/>
-      <c r="AJ6" s="191"/>
-      <c r="AK6" s="184"/>
-      <c r="AL6" s="185"/>
-      <c r="AM6" s="185"/>
-      <c r="AN6" s="185"/>
-      <c r="AO6" s="185"/>
-      <c r="AP6" s="185"/>
-      <c r="AQ6" s="185"/>
-      <c r="AR6" s="185"/>
-      <c r="AS6" s="185"/>
-      <c r="AT6" s="185"/>
-      <c r="AU6" s="185"/>
-      <c r="AV6" s="185"/>
-      <c r="AW6" s="185"/>
-      <c r="AX6" s="185"/>
-      <c r="AY6" s="185"/>
-      <c r="AZ6" s="185"/>
-      <c r="BA6" s="185"/>
-      <c r="BB6" s="185"/>
-      <c r="BC6" s="185"/>
-      <c r="BD6" s="41"/>
-      <c r="BE6" s="241"/>
-      <c r="BF6" s="242"/>
-      <c r="BG6" s="254"/>
-      <c r="BH6" s="254"/>
-      <c r="BI6" s="254"/>
-      <c r="BJ6" s="254"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="213" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" s="212"/>
+      <c r="S6" s="212"/>
+      <c r="T6" s="212"/>
+      <c r="U6" s="212"/>
+      <c r="V6" s="214"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="213" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF6" s="212"/>
+      <c r="AG6" s="212"/>
+      <c r="AH6" s="212"/>
+      <c r="AI6" s="212"/>
+      <c r="AJ6" s="215"/>
+      <c r="AK6" s="141"/>
+      <c r="AL6" s="142"/>
+      <c r="AM6" s="142"/>
+      <c r="AN6" s="142"/>
+      <c r="AO6" s="142"/>
+      <c r="AP6" s="142"/>
+      <c r="AQ6" s="142"/>
+      <c r="AR6" s="142"/>
+      <c r="AS6" s="142"/>
+      <c r="AT6" s="142"/>
+      <c r="AU6" s="142"/>
+      <c r="AV6" s="142"/>
+      <c r="AW6" s="142"/>
+      <c r="AX6" s="142"/>
+      <c r="AY6" s="142"/>
+      <c r="AZ6" s="142"/>
+      <c r="BA6" s="142"/>
+      <c r="BB6" s="142"/>
+      <c r="BC6" s="142"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="50"/>
+      <c r="BH6" s="50"/>
+      <c r="BI6" s="50"/>
+      <c r="BJ6" s="50"/>
     </row>
     <row r="7" spans="1:62" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="168"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="146" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="141" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="141"/>
-      <c r="W7" s="141"/>
-      <c r="X7" s="141"/>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="141"/>
-      <c r="AA7" s="141"/>
-      <c r="AB7" s="141" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC7" s="141"/>
-      <c r="AD7" s="141"/>
-      <c r="AE7" s="141"/>
-      <c r="AF7" s="141"/>
-      <c r="AG7" s="141"/>
-      <c r="AH7" s="141"/>
-      <c r="AI7" s="141"/>
-      <c r="AJ7" s="244"/>
-      <c r="AK7" s="184"/>
-      <c r="AL7" s="185"/>
-      <c r="AM7" s="185"/>
-      <c r="AN7" s="185"/>
-      <c r="AO7" s="185"/>
-      <c r="AP7" s="185"/>
-      <c r="AQ7" s="185"/>
-      <c r="AR7" s="185"/>
-      <c r="AS7" s="185"/>
-      <c r="AT7" s="185"/>
-      <c r="AU7" s="185"/>
-      <c r="AV7" s="185"/>
-      <c r="AW7" s="185"/>
-      <c r="AX7" s="185"/>
-      <c r="AY7" s="185"/>
-      <c r="AZ7" s="185"/>
-      <c r="BA7" s="185"/>
-      <c r="BB7" s="185"/>
-      <c r="BC7" s="185"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="41"/>
-      <c r="BG7" s="41"/>
-      <c r="BH7" s="41"/>
-      <c r="BI7" s="41"/>
-      <c r="BJ7" s="41"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
+      <c r="AI7" s="106"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="141"/>
+      <c r="AL7" s="142"/>
+      <c r="AM7" s="142"/>
+      <c r="AN7" s="142"/>
+      <c r="AO7" s="142"/>
+      <c r="AP7" s="142"/>
+      <c r="AQ7" s="142"/>
+      <c r="AR7" s="142"/>
+      <c r="AS7" s="142"/>
+      <c r="AT7" s="142"/>
+      <c r="AU7" s="142"/>
+      <c r="AV7" s="142"/>
+      <c r="AW7" s="142"/>
+      <c r="AX7" s="142"/>
+      <c r="AY7" s="142"/>
+      <c r="AZ7" s="142"/>
+      <c r="BA7" s="142"/>
+      <c r="BB7" s="142"/>
+      <c r="BC7" s="142"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="20"/>
+      <c r="BF7" s="20"/>
+      <c r="BG7" s="20"/>
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="20"/>
+      <c r="BJ7" s="20"/>
     </row>
     <row r="8" spans="1:62" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="146" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="167"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="141"/>
-      <c r="AF8" s="141"/>
-      <c r="AG8" s="141"/>
-      <c r="AH8" s="141"/>
-      <c r="AI8" s="141"/>
-      <c r="AJ8" s="244"/>
-      <c r="AK8" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL8" s="84"/>
-      <c r="AM8" s="84"/>
-      <c r="AN8" s="81"/>
-      <c r="AO8" s="84"/>
-      <c r="AP8" s="84"/>
-      <c r="AQ8" s="84"/>
-      <c r="AR8" s="84"/>
-      <c r="AS8" s="84"/>
-      <c r="AT8" s="84"/>
-      <c r="AU8" s="84"/>
-      <c r="AV8" s="84"/>
-      <c r="AW8" s="84"/>
-      <c r="AX8" s="84"/>
-      <c r="AY8" s="84"/>
-      <c r="AZ8" s="84"/>
-      <c r="BA8" s="84"/>
-      <c r="BB8" s="84"/>
-      <c r="BC8" s="256" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD8" s="256"/>
-      <c r="BE8" s="256"/>
-      <c r="BF8" s="256"/>
-      <c r="BG8" s="256"/>
-      <c r="BH8" s="256"/>
-      <c r="BI8" s="256"/>
-      <c r="BJ8" s="256"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="149" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="106"/>
+      <c r="AJ8" s="107"/>
+      <c r="AK8" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL8" s="200"/>
+      <c r="AM8" s="200"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="200"/>
+      <c r="AP8" s="200"/>
+      <c r="AQ8" s="200"/>
+      <c r="AR8" s="200"/>
+      <c r="AS8" s="200"/>
+      <c r="AT8" s="200"/>
+      <c r="AU8" s="200"/>
+      <c r="AV8" s="200"/>
+      <c r="AW8" s="200"/>
+      <c r="AX8" s="200"/>
+      <c r="AY8" s="200"/>
+      <c r="AZ8" s="200"/>
+      <c r="BA8" s="200"/>
+      <c r="BB8" s="200"/>
+      <c r="BC8" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD8" s="55"/>
+      <c r="BE8" s="55"/>
+      <c r="BF8" s="55"/>
+      <c r="BG8" s="55"/>
+      <c r="BH8" s="55"/>
+      <c r="BI8" s="55"/>
+      <c r="BJ8" s="55"/>
     </row>
     <row r="9" spans="1:62" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="168"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="144" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144" t="s">
-        <v>93</v>
-      </c>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="144" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="144"/>
-      <c r="AF9" s="144"/>
-      <c r="AG9" s="144"/>
-      <c r="AH9" s="144"/>
-      <c r="AI9" s="144"/>
-      <c r="AJ9" s="197"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="84"/>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="81"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="84"/>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="84"/>
-      <c r="BC9" s="256"/>
-      <c r="BD9" s="256"/>
-      <c r="BE9" s="256"/>
-      <c r="BF9" s="256"/>
-      <c r="BG9" s="256"/>
-      <c r="BH9" s="256"/>
-      <c r="BI9" s="256"/>
-      <c r="BJ9" s="256"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="217"/>
+      <c r="M9" s="217"/>
+      <c r="N9" s="217"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="217"/>
+      <c r="Q9" s="217"/>
+      <c r="R9" s="218" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" s="216"/>
+      <c r="T9" s="217"/>
+      <c r="U9" s="217"/>
+      <c r="V9" s="217"/>
+      <c r="W9" s="217"/>
+      <c r="X9" s="217"/>
+      <c r="Y9" s="217"/>
+      <c r="Z9" s="217"/>
+      <c r="AA9" s="218" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB9" s="216"/>
+      <c r="AC9" s="217"/>
+      <c r="AD9" s="217"/>
+      <c r="AE9" s="217"/>
+      <c r="AF9" s="217"/>
+      <c r="AG9" s="217"/>
+      <c r="AH9" s="217"/>
+      <c r="AI9" s="217"/>
+      <c r="AJ9" s="225" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="199"/>
+      <c r="AL9" s="200"/>
+      <c r="AM9" s="200"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="200"/>
+      <c r="AP9" s="200"/>
+      <c r="AQ9" s="200"/>
+      <c r="AR9" s="200"/>
+      <c r="AS9" s="200"/>
+      <c r="AT9" s="200"/>
+      <c r="AU9" s="200"/>
+      <c r="AV9" s="200"/>
+      <c r="AW9" s="200"/>
+      <c r="AX9" s="200"/>
+      <c r="AY9" s="200"/>
+      <c r="AZ9" s="200"/>
+      <c r="BA9" s="200"/>
+      <c r="BB9" s="200"/>
+      <c r="BC9" s="55"/>
+      <c r="BD9" s="55"/>
+      <c r="BE9" s="55"/>
+      <c r="BF9" s="55"/>
+      <c r="BG9" s="55"/>
+      <c r="BH9" s="55"/>
+      <c r="BI9" s="55"/>
+      <c r="BJ9" s="55"/>
     </row>
     <row r="10" spans="1:62" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="168"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="144"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="144"/>
-      <c r="AH10" s="144"/>
-      <c r="AI10" s="144"/>
-      <c r="AJ10" s="197"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="81"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="256"/>
-      <c r="BD10" s="256"/>
-      <c r="BE10" s="256"/>
-      <c r="BF10" s="256"/>
-      <c r="BG10" s="256"/>
-      <c r="BH10" s="256"/>
-      <c r="BI10" s="256"/>
-      <c r="BJ10" s="256"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="220"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="220"/>
+      <c r="O10" s="220"/>
+      <c r="P10" s="220"/>
+      <c r="Q10" s="220"/>
+      <c r="R10" s="221"/>
+      <c r="S10" s="219"/>
+      <c r="T10" s="220"/>
+      <c r="U10" s="220"/>
+      <c r="V10" s="220"/>
+      <c r="W10" s="220"/>
+      <c r="X10" s="220"/>
+      <c r="Y10" s="220"/>
+      <c r="Z10" s="220"/>
+      <c r="AA10" s="221"/>
+      <c r="AB10" s="219"/>
+      <c r="AC10" s="220"/>
+      <c r="AD10" s="220"/>
+      <c r="AE10" s="220"/>
+      <c r="AF10" s="220"/>
+      <c r="AG10" s="220"/>
+      <c r="AH10" s="220"/>
+      <c r="AI10" s="220"/>
+      <c r="AJ10" s="226"/>
+      <c r="AK10" s="199"/>
+      <c r="AL10" s="200"/>
+      <c r="AM10" s="200"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="200"/>
+      <c r="AP10" s="200"/>
+      <c r="AQ10" s="200"/>
+      <c r="AR10" s="200"/>
+      <c r="AS10" s="200"/>
+      <c r="AT10" s="200"/>
+      <c r="AU10" s="200"/>
+      <c r="AV10" s="200"/>
+      <c r="AW10" s="200"/>
+      <c r="AX10" s="200"/>
+      <c r="AY10" s="200"/>
+      <c r="AZ10" s="200"/>
+      <c r="BA10" s="200"/>
+      <c r="BB10" s="200"/>
+      <c r="BC10" s="55"/>
+      <c r="BD10" s="55"/>
+      <c r="BE10" s="55"/>
+      <c r="BF10" s="55"/>
+      <c r="BG10" s="55"/>
+      <c r="BH10" s="55"/>
+      <c r="BI10" s="55"/>
+      <c r="BJ10" s="55"/>
     </row>
     <row r="11" spans="1:62" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="169"/>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
       <c r="D11" s="170"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="145"/>
-      <c r="U11" s="145"/>
-      <c r="V11" s="145"/>
-      <c r="W11" s="145"/>
-      <c r="X11" s="145"/>
-      <c r="Y11" s="145"/>
-      <c r="Z11" s="145"/>
-      <c r="AA11" s="145"/>
-      <c r="AB11" s="145"/>
-      <c r="AC11" s="145"/>
-      <c r="AD11" s="145"/>
-      <c r="AE11" s="145"/>
-      <c r="AF11" s="145"/>
-      <c r="AG11" s="145"/>
-      <c r="AH11" s="145"/>
-      <c r="AI11" s="145"/>
-      <c r="AJ11" s="198"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="80"/>
-      <c r="AO11" s="86"/>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="86"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="86"/>
-      <c r="AU11" s="86"/>
-      <c r="AV11" s="86"/>
-      <c r="AW11" s="86"/>
-      <c r="AX11" s="86"/>
-      <c r="AY11" s="86"/>
-      <c r="AZ11" s="86"/>
-      <c r="BA11" s="86"/>
-      <c r="BB11" s="86"/>
-      <c r="BC11" s="257"/>
-      <c r="BD11" s="257"/>
-      <c r="BE11" s="257"/>
-      <c r="BF11" s="257"/>
-      <c r="BG11" s="257"/>
-      <c r="BH11" s="257"/>
-      <c r="BI11" s="257"/>
-      <c r="BJ11" s="257"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="223"/>
+      <c r="O11" s="223"/>
+      <c r="P11" s="223"/>
+      <c r="Q11" s="223"/>
+      <c r="R11" s="224"/>
+      <c r="S11" s="222"/>
+      <c r="T11" s="223"/>
+      <c r="U11" s="223"/>
+      <c r="V11" s="223"/>
+      <c r="W11" s="223"/>
+      <c r="X11" s="223"/>
+      <c r="Y11" s="223"/>
+      <c r="Z11" s="223"/>
+      <c r="AA11" s="224"/>
+      <c r="AB11" s="222"/>
+      <c r="AC11" s="223"/>
+      <c r="AD11" s="223"/>
+      <c r="AE11" s="223"/>
+      <c r="AF11" s="223"/>
+      <c r="AG11" s="223"/>
+      <c r="AH11" s="223"/>
+      <c r="AI11" s="223"/>
+      <c r="AJ11" s="227"/>
+      <c r="AK11" s="201"/>
+      <c r="AL11" s="202"/>
+      <c r="AM11" s="202"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="202"/>
+      <c r="AP11" s="202"/>
+      <c r="AQ11" s="202"/>
+      <c r="AR11" s="202"/>
+      <c r="AS11" s="202"/>
+      <c r="AT11" s="202"/>
+      <c r="AU11" s="202"/>
+      <c r="AV11" s="202"/>
+      <c r="AW11" s="202"/>
+      <c r="AX11" s="202"/>
+      <c r="AY11" s="202"/>
+      <c r="AZ11" s="202"/>
+      <c r="BA11" s="202"/>
+      <c r="BB11" s="202"/>
+      <c r="BC11" s="56"/>
+      <c r="BD11" s="56"/>
+      <c r="BE11" s="56"/>
+      <c r="BF11" s="56"/>
+      <c r="BG11" s="56"/>
+      <c r="BH11" s="56"/>
+      <c r="BI11" s="56"/>
+      <c r="BJ11" s="56"/>
     </row>
     <row r="12" spans="1:62" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="155">
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="51">
         <v>1</v>
       </c>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51">
         <v>2</v>
       </c>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155">
+      <c r="L12" s="51"/>
+      <c r="M12" s="51">
         <v>3</v>
       </c>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155">
+      <c r="N12" s="51"/>
+      <c r="O12" s="51">
         <v>4</v>
       </c>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="155">
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51">
         <v>5</v>
       </c>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155">
+      <c r="R12" s="51"/>
+      <c r="S12" s="51">
         <v>6</v>
       </c>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155">
+      <c r="T12" s="51"/>
+      <c r="U12" s="51">
         <v>7</v>
       </c>
-      <c r="V12" s="155"/>
-      <c r="W12" s="155">
+      <c r="V12" s="51"/>
+      <c r="W12" s="51">
         <v>8</v>
       </c>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155">
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51">
         <v>9</v>
       </c>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155">
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51">
         <v>10</v>
       </c>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155">
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51">
         <v>11</v>
       </c>
-      <c r="AD12" s="155"/>
-      <c r="AE12" s="155">
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51">
         <v>12</v>
       </c>
-      <c r="AF12" s="155"/>
-      <c r="AG12" s="155">
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51">
         <v>13</v>
       </c>
-      <c r="AH12" s="155"/>
-      <c r="AI12" s="155">
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51">
         <v>14</v>
       </c>
-      <c r="AJ12" s="155"/>
-      <c r="AK12" s="155">
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51">
         <v>15</v>
       </c>
-      <c r="AL12" s="155"/>
-      <c r="AM12" s="155">
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51">
         <v>16</v>
       </c>
-      <c r="AN12" s="155"/>
-      <c r="AO12" s="155">
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51">
         <v>17</v>
       </c>
-      <c r="AP12" s="155"/>
-      <c r="AQ12" s="155">
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51">
         <v>18</v>
       </c>
-      <c r="AR12" s="155"/>
-      <c r="AS12" s="155">
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51">
         <v>19</v>
       </c>
-      <c r="AT12" s="155"/>
-      <c r="AU12" s="155">
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51">
         <v>20</v>
       </c>
-      <c r="AV12" s="155"/>
-      <c r="AW12" s="155">
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51">
         <v>21</v>
       </c>
-      <c r="AX12" s="155"/>
-      <c r="AY12" s="155">
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51">
         <v>22</v>
       </c>
-      <c r="AZ12" s="155"/>
-      <c r="BA12" s="155">
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51">
         <v>23</v>
       </c>
-      <c r="BB12" s="155"/>
-      <c r="BC12" s="142"/>
-      <c r="BD12" s="171" t="s">
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="94"/>
+      <c r="BD12" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="BE12" s="171"/>
-      <c r="BF12" s="171"/>
-      <c r="BG12" s="231" t="s">
+      <c r="BE12" s="98"/>
+      <c r="BF12" s="98"/>
+      <c r="BG12" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="BH12" s="232"/>
-      <c r="BI12" s="231" t="s">
+      <c r="BH12" s="92"/>
+      <c r="BI12" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BJ12" s="258"/>
+      <c r="BJ12" s="58"/>
     </row>
     <row r="13" spans="1:62" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="160"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156"/>
-      <c r="V13" s="156"/>
-      <c r="W13" s="156"/>
-      <c r="X13" s="156"/>
-      <c r="Y13" s="156"/>
-      <c r="Z13" s="156"/>
-      <c r="AA13" s="156"/>
-      <c r="AB13" s="156"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="156"/>
-      <c r="AH13" s="156"/>
-      <c r="AI13" s="156"/>
-      <c r="AJ13" s="156"/>
-      <c r="AK13" s="249"/>
-      <c r="AL13" s="249"/>
-      <c r="AM13" s="249"/>
-      <c r="AN13" s="249"/>
-      <c r="AO13" s="249"/>
-      <c r="AP13" s="249"/>
-      <c r="AQ13" s="249"/>
-      <c r="AR13" s="249"/>
-      <c r="AS13" s="249"/>
-      <c r="AT13" s="249"/>
-      <c r="AU13" s="249"/>
-      <c r="AV13" s="249"/>
-      <c r="AW13" s="249"/>
-      <c r="AX13" s="249"/>
-      <c r="AY13" s="249"/>
-      <c r="AZ13" s="249"/>
-      <c r="BA13" s="249"/>
-      <c r="BB13" s="249"/>
-      <c r="BC13" s="233"/>
-      <c r="BD13" s="196"/>
-      <c r="BE13" s="196"/>
-      <c r="BF13" s="196"/>
-      <c r="BG13" s="132"/>
-      <c r="BH13" s="97"/>
-      <c r="BI13" s="132"/>
-      <c r="BJ13" s="259"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="52"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="52"/>
+      <c r="AT13" s="52"/>
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="52"/>
+      <c r="AW13" s="52"/>
+      <c r="AX13" s="52"/>
+      <c r="AY13" s="52"/>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="52"/>
+      <c r="BB13" s="52"/>
+      <c r="BC13" s="95"/>
+      <c r="BD13" s="108"/>
+      <c r="BE13" s="108"/>
+      <c r="BF13" s="108"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="93"/>
+      <c r="BI13" s="59"/>
+      <c r="BJ13" s="60"/>
     </row>
     <row r="14" spans="1:62" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="200" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="201"/>
-      <c r="C14" s="207" t="s">
+      <c r="A14" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="114"/>
+      <c r="C14" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="208"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="126"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="126"/>
-      <c r="AF14" s="126"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="126"/>
-      <c r="AL14" s="126"/>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="126"/>
-      <c r="AO14" s="126"/>
-      <c r="AP14" s="126"/>
-      <c r="AQ14" s="126"/>
-      <c r="AR14" s="126"/>
-      <c r="AS14" s="126"/>
-      <c r="AT14" s="126"/>
-      <c r="AU14" s="126"/>
-      <c r="AV14" s="126"/>
-      <c r="AW14" s="126"/>
-      <c r="AX14" s="126"/>
-      <c r="AY14" s="126"/>
-      <c r="AZ14" s="126"/>
-      <c r="BA14" s="126"/>
-      <c r="BB14" s="126"/>
-      <c r="BC14" s="255"/>
-      <c r="BD14" s="196"/>
-      <c r="BE14" s="196"/>
-      <c r="BF14" s="196"/>
-      <c r="BG14" s="132"/>
-      <c r="BH14" s="97"/>
-      <c r="BI14" s="132"/>
-      <c r="BJ14" s="259"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="53"/>
+      <c r="BB14" s="53"/>
+      <c r="BC14" s="54"/>
+      <c r="BD14" s="108"/>
+      <c r="BE14" s="108"/>
+      <c r="BF14" s="108"/>
+      <c r="BG14" s="59"/>
+      <c r="BH14" s="93"/>
+      <c r="BI14" s="59"/>
+      <c r="BJ14" s="60"/>
     </row>
     <row r="15" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="202"/>
-      <c r="B15" s="203"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="211"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="250"/>
-      <c r="I15" s="250"/>
-      <c r="J15" s="250"/>
-      <c r="K15" s="250"/>
-      <c r="L15" s="250"/>
-      <c r="M15" s="250"/>
-      <c r="N15" s="250"/>
-      <c r="O15" s="250"/>
-      <c r="P15" s="250"/>
-      <c r="Q15" s="250"/>
-      <c r="R15" s="250"/>
-      <c r="S15" s="250"/>
-      <c r="T15" s="250"/>
-      <c r="U15" s="250"/>
-      <c r="V15" s="250"/>
-      <c r="W15" s="250"/>
-      <c r="X15" s="250"/>
-      <c r="Y15" s="250"/>
-      <c r="Z15" s="250"/>
-      <c r="AA15" s="250"/>
-      <c r="AB15" s="250"/>
-      <c r="AC15" s="250"/>
-      <c r="AD15" s="250"/>
-      <c r="AE15" s="250"/>
-      <c r="AF15" s="250"/>
-      <c r="AG15" s="250"/>
-      <c r="AH15" s="250"/>
-      <c r="AI15" s="250"/>
-      <c r="AJ15" s="250"/>
-      <c r="AK15" s="250"/>
-      <c r="AL15" s="250"/>
-      <c r="AM15" s="250"/>
-      <c r="AN15" s="250"/>
-      <c r="AO15" s="250"/>
-      <c r="AP15" s="250"/>
-      <c r="AQ15" s="250"/>
-      <c r="AR15" s="250"/>
-      <c r="AS15" s="250"/>
-      <c r="AT15" s="250"/>
-      <c r="AU15" s="250"/>
-      <c r="AV15" s="250"/>
-      <c r="AW15" s="250"/>
-      <c r="AX15" s="250"/>
-      <c r="AY15" s="250"/>
-      <c r="AZ15" s="250"/>
-      <c r="BA15" s="250"/>
-      <c r="BB15" s="250"/>
-      <c r="BC15" s="250"/>
-      <c r="BD15" s="196"/>
-      <c r="BE15" s="196"/>
-      <c r="BF15" s="196"/>
-      <c r="BG15" s="132"/>
-      <c r="BH15" s="97"/>
-      <c r="BI15" s="132"/>
-      <c r="BJ15" s="259"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="67"/>
+      <c r="AL15" s="67"/>
+      <c r="AM15" s="67"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="67"/>
+      <c r="AP15" s="67"/>
+      <c r="AQ15" s="67"/>
+      <c r="AR15" s="67"/>
+      <c r="AS15" s="67"/>
+      <c r="AT15" s="67"/>
+      <c r="AU15" s="67"/>
+      <c r="AV15" s="67"/>
+      <c r="AW15" s="67"/>
+      <c r="AX15" s="67"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="67"/>
+      <c r="BA15" s="67"/>
+      <c r="BB15" s="67"/>
+      <c r="BC15" s="67"/>
+      <c r="BD15" s="108"/>
+      <c r="BE15" s="108"/>
+      <c r="BF15" s="108"/>
+      <c r="BG15" s="59"/>
+      <c r="BH15" s="93"/>
+      <c r="BI15" s="59"/>
+      <c r="BJ15" s="60"/>
     </row>
     <row r="16" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="202"/>
-      <c r="B16" s="203"/>
-      <c r="C16" s="210"/>
-      <c r="D16" s="211"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="250"/>
-      <c r="I16" s="250"/>
-      <c r="J16" s="250"/>
-      <c r="K16" s="250"/>
-      <c r="L16" s="250"/>
-      <c r="M16" s="250"/>
-      <c r="N16" s="250"/>
-      <c r="O16" s="250"/>
-      <c r="P16" s="250"/>
-      <c r="Q16" s="250"/>
-      <c r="R16" s="250"/>
-      <c r="S16" s="250"/>
-      <c r="T16" s="250"/>
-      <c r="U16" s="250"/>
-      <c r="V16" s="250"/>
-      <c r="W16" s="250"/>
-      <c r="X16" s="250"/>
-      <c r="Y16" s="250"/>
-      <c r="Z16" s="250"/>
-      <c r="AA16" s="250"/>
-      <c r="AB16" s="250"/>
-      <c r="AC16" s="250"/>
-      <c r="AD16" s="250"/>
-      <c r="AE16" s="250"/>
-      <c r="AF16" s="250"/>
-      <c r="AG16" s="250"/>
-      <c r="AH16" s="250"/>
-      <c r="AI16" s="250"/>
-      <c r="AJ16" s="250"/>
-      <c r="AK16" s="250"/>
-      <c r="AL16" s="250"/>
-      <c r="AM16" s="250"/>
-      <c r="AN16" s="250"/>
-      <c r="AO16" s="250"/>
-      <c r="AP16" s="250"/>
-      <c r="AQ16" s="250"/>
-      <c r="AR16" s="250"/>
-      <c r="AS16" s="250"/>
-      <c r="AT16" s="250"/>
-      <c r="AU16" s="250"/>
-      <c r="AV16" s="250"/>
-      <c r="AW16" s="250"/>
-      <c r="AX16" s="250"/>
-      <c r="AY16" s="250"/>
-      <c r="AZ16" s="250"/>
-      <c r="BA16" s="250"/>
-      <c r="BB16" s="250"/>
-      <c r="BC16" s="250"/>
-      <c r="BD16" s="172" t="s">
+      <c r="A16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="67"/>
+      <c r="AJ16" s="67"/>
+      <c r="AK16" s="67"/>
+      <c r="AL16" s="67"/>
+      <c r="AM16" s="67"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="67"/>
+      <c r="AQ16" s="67"/>
+      <c r="AR16" s="67"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="67"/>
+      <c r="AU16" s="67"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="67"/>
+      <c r="AX16" s="67"/>
+      <c r="AY16" s="67"/>
+      <c r="AZ16" s="67"/>
+      <c r="BA16" s="67"/>
+      <c r="BB16" s="67"/>
+      <c r="BC16" s="67"/>
+      <c r="BD16" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="BE16" s="99" t="s">
+      <c r="BE16" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="BF16" s="132"/>
-      <c r="BG16" s="172" t="s">
+      <c r="BF16" s="59"/>
+      <c r="BG16" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="BH16" s="98" t="s">
+      <c r="BH16" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="BI16" s="172" t="s">
+      <c r="BI16" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="BJ16" s="216" t="s">
+      <c r="BJ16" s="211" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:62" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="202"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="130"/>
-      <c r="AB17" s="130"/>
-      <c r="AC17" s="130"/>
-      <c r="AD17" s="130"/>
-      <c r="AE17" s="130"/>
-      <c r="AF17" s="130"/>
-      <c r="AG17" s="130"/>
-      <c r="AH17" s="130"/>
-      <c r="AI17" s="130"/>
-      <c r="AJ17" s="130"/>
-      <c r="AK17" s="130"/>
-      <c r="AL17" s="130"/>
-      <c r="AM17" s="130"/>
-      <c r="AN17" s="130"/>
-      <c r="AO17" s="130"/>
-      <c r="AP17" s="130"/>
-      <c r="AQ17" s="130"/>
-      <c r="AR17" s="130"/>
-      <c r="AS17" s="130"/>
-      <c r="AT17" s="130"/>
-      <c r="AU17" s="130"/>
-      <c r="AV17" s="130"/>
-      <c r="AW17" s="130"/>
-      <c r="AX17" s="130"/>
-      <c r="AY17" s="130"/>
-      <c r="AZ17" s="130"/>
-      <c r="BA17" s="130"/>
-      <c r="BB17" s="130"/>
-      <c r="BC17" s="234"/>
-      <c r="BD17" s="172"/>
-      <c r="BE17" s="99"/>
-      <c r="BF17" s="132"/>
-      <c r="BG17" s="172"/>
-      <c r="BH17" s="98"/>
-      <c r="BI17" s="172"/>
-      <c r="BJ17" s="216"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="66"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="66"/>
+      <c r="AV17" s="66"/>
+      <c r="AW17" s="66"/>
+      <c r="AX17" s="66"/>
+      <c r="AY17" s="66"/>
+      <c r="AZ17" s="66"/>
+      <c r="BA17" s="66"/>
+      <c r="BB17" s="66"/>
+      <c r="BC17" s="96"/>
+      <c r="BD17" s="132"/>
+      <c r="BE17" s="88"/>
+      <c r="BF17" s="59"/>
+      <c r="BG17" s="132"/>
+      <c r="BH17" s="87"/>
+      <c r="BI17" s="132"/>
+      <c r="BJ17" s="211"/>
     </row>
     <row r="18" spans="1:62" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="202"/>
-      <c r="B18" s="203"/>
-      <c r="C18" s="179" t="s">
+      <c r="A18" s="115"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="196" t="s">
+      <c r="D18" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
@@ -6138,23 +6104,23 @@
       <c r="BB18" s="4"/>
       <c r="BC18" s="6"/>
       <c r="BD18" s="4"/>
-      <c r="BE18" s="174"/>
-      <c r="BF18" s="175"/>
-      <c r="BG18" s="178"/>
-      <c r="BH18" s="173"/>
+      <c r="BE18" s="91"/>
+      <c r="BF18" s="182"/>
+      <c r="BG18" s="90"/>
+      <c r="BH18" s="181"/>
       <c r="BI18" s="13"/>
       <c r="BJ18" s="11"/>
     </row>
     <row r="19" spans="1:62" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="202"/>
-      <c r="B19" s="203"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="196" t="s">
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
@@ -6204,23 +6170,23 @@
       <c r="BB19" s="4"/>
       <c r="BC19" s="6"/>
       <c r="BD19" s="4"/>
-      <c r="BE19" s="174"/>
-      <c r="BF19" s="175"/>
-      <c r="BG19" s="178"/>
-      <c r="BH19" s="173"/>
+      <c r="BE19" s="91"/>
+      <c r="BF19" s="182"/>
+      <c r="BG19" s="90"/>
+      <c r="BH19" s="181"/>
       <c r="BI19" s="14"/>
       <c r="BJ19" s="12"/>
     </row>
     <row r="20" spans="1:62" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="202"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="196" t="s">
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
@@ -6270,23 +6236,23 @@
       <c r="BB20" s="4"/>
       <c r="BC20" s="6"/>
       <c r="BD20" s="4"/>
-      <c r="BE20" s="174"/>
-      <c r="BF20" s="175"/>
-      <c r="BG20" s="176"/>
-      <c r="BH20" s="177"/>
+      <c r="BE20" s="91"/>
+      <c r="BF20" s="182"/>
+      <c r="BG20" s="183"/>
+      <c r="BH20" s="184"/>
       <c r="BI20" s="14"/>
       <c r="BJ20" s="12"/>
     </row>
     <row r="21" spans="1:62" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="204"/>
-      <c r="B21" s="205"/>
-      <c r="C21" s="206" t="s">
+      <c r="A21" s="117"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="206"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="206"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
       <c r="H21" s="16"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -6311,10 +6277,10 @@
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="181"/>
-      <c r="AG21" s="181"/>
-      <c r="AH21" s="181"/>
-      <c r="AI21" s="181"/>
+      <c r="AF21" s="138"/>
+      <c r="AG21" s="138"/>
+      <c r="AH21" s="138"/>
+      <c r="AI21" s="138"/>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
@@ -6335,2095 +6301,2095 @@
       <c r="BA21" s="15"/>
       <c r="BB21" s="15"/>
       <c r="BC21" s="8"/>
-      <c r="BD21" s="178"/>
-      <c r="BE21" s="235"/>
-      <c r="BF21" s="174"/>
-      <c r="BG21" s="178"/>
-      <c r="BH21" s="174"/>
+      <c r="BD21" s="90"/>
+      <c r="BE21" s="97"/>
+      <c r="BF21" s="91"/>
+      <c r="BG21" s="90"/>
+      <c r="BH21" s="91"/>
       <c r="BI21" s="14"/>
       <c r="BJ21" s="12"/>
     </row>
     <row r="22" spans="1:62" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="194" t="s">
+      <c r="A22" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="195"/>
-      <c r="C22" s="87" t="s">
+      <c r="B22" s="135"/>
+      <c r="C22" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="133"/>
+      <c r="R22" s="133"/>
+      <c r="S22" s="133"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="133"/>
+      <c r="V22" s="133"/>
+      <c r="W22" s="133"/>
+      <c r="X22" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="98"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="98"/>
+      <c r="AO22" s="98"/>
+      <c r="AP22" s="98"/>
+      <c r="AQ22" s="98"/>
+      <c r="AR22" s="98"/>
+      <c r="AS22" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="193" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="193"/>
-      <c r="L22" s="193"/>
-      <c r="M22" s="193"/>
-      <c r="N22" s="193"/>
-      <c r="O22" s="193" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" s="193"/>
-      <c r="Q22" s="193"/>
-      <c r="R22" s="193"/>
-      <c r="S22" s="193"/>
-      <c r="T22" s="193"/>
-      <c r="U22" s="193"/>
-      <c r="V22" s="193"/>
-      <c r="W22" s="193"/>
-      <c r="X22" s="171" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y22" s="171"/>
-      <c r="Z22" s="171"/>
-      <c r="AA22" s="171"/>
-      <c r="AB22" s="171"/>
-      <c r="AC22" s="171"/>
-      <c r="AD22" s="171"/>
-      <c r="AE22" s="171"/>
-      <c r="AF22" s="171"/>
-      <c r="AG22" s="171"/>
-      <c r="AH22" s="171"/>
-      <c r="AI22" s="171"/>
-      <c r="AJ22" s="171" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK22" s="171"/>
-      <c r="AL22" s="171"/>
-      <c r="AM22" s="171"/>
-      <c r="AN22" s="171"/>
-      <c r="AO22" s="171"/>
-      <c r="AP22" s="171"/>
-      <c r="AQ22" s="171"/>
-      <c r="AR22" s="171"/>
-      <c r="AS22" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT22" s="88"/>
-      <c r="AU22" s="88"/>
-      <c r="AV22" s="88"/>
-      <c r="AW22" s="88"/>
-      <c r="AX22" s="88"/>
-      <c r="AY22" s="88"/>
-      <c r="AZ22" s="88"/>
-      <c r="BA22" s="88"/>
-      <c r="BB22" s="88"/>
-      <c r="BC22" s="122"/>
-      <c r="BD22" s="87" t="s">
+      <c r="AT22" s="130"/>
+      <c r="AU22" s="130"/>
+      <c r="AV22" s="130"/>
+      <c r="AW22" s="130"/>
+      <c r="AX22" s="130"/>
+      <c r="AY22" s="130"/>
+      <c r="AZ22" s="130"/>
+      <c r="BA22" s="130"/>
+      <c r="BB22" s="130"/>
+      <c r="BC22" s="131"/>
+      <c r="BD22" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="BE22" s="88"/>
-      <c r="BF22" s="122"/>
-      <c r="BG22" s="171" t="s">
+      <c r="BE22" s="130"/>
+      <c r="BF22" s="131"/>
+      <c r="BG22" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="BH22" s="171"/>
-      <c r="BI22" s="171" t="s">
+      <c r="BH22" s="98"/>
+      <c r="BI22" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="BJ22" s="236"/>
+      <c r="BJ22" s="99"/>
     </row>
     <row r="23" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105">
+      <c r="A23" s="109">
         <v>1</v>
       </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="23"/>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="23"/>
-      <c r="AN23" s="23"/>
-      <c r="AO23" s="23"/>
-      <c r="AP23" s="23"/>
-      <c r="AQ23" s="23"/>
-      <c r="AR23" s="23"/>
-      <c r="AS23" s="21"/>
-      <c r="AT23" s="22"/>
-      <c r="AU23" s="22"/>
-      <c r="AV23" s="22"/>
-      <c r="AW23" s="27"/>
-      <c r="AX23" s="27"/>
-      <c r="AY23" s="27"/>
-      <c r="AZ23" s="27"/>
-      <c r="BA23" s="27"/>
-      <c r="BB23" s="27"/>
-      <c r="BC23" s="28"/>
-      <c r="BD23" s="29"/>
-      <c r="BE23" s="29"/>
-      <c r="BF23" s="28"/>
-      <c r="BG23" s="21"/>
-      <c r="BH23" s="20"/>
-      <c r="BI23" s="18"/>
-      <c r="BJ23" s="30"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="230"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="228"/>
+      <c r="P23" s="229"/>
+      <c r="Q23" s="229"/>
+      <c r="R23" s="229"/>
+      <c r="S23" s="229"/>
+      <c r="T23" s="229"/>
+      <c r="U23" s="229"/>
+      <c r="V23" s="229"/>
+      <c r="W23" s="230"/>
+      <c r="X23" s="228"/>
+      <c r="Y23" s="229"/>
+      <c r="Z23" s="229"/>
+      <c r="AA23" s="229"/>
+      <c r="AB23" s="229"/>
+      <c r="AC23" s="229"/>
+      <c r="AD23" s="229"/>
+      <c r="AE23" s="229"/>
+      <c r="AF23" s="229"/>
+      <c r="AG23" s="229"/>
+      <c r="AH23" s="229"/>
+      <c r="AI23" s="230"/>
+      <c r="AJ23" s="228"/>
+      <c r="AK23" s="229"/>
+      <c r="AL23" s="229"/>
+      <c r="AM23" s="229"/>
+      <c r="AN23" s="229"/>
+      <c r="AO23" s="229"/>
+      <c r="AP23" s="229"/>
+      <c r="AQ23" s="229"/>
+      <c r="AR23" s="230"/>
+      <c r="AS23" s="149"/>
+      <c r="AT23" s="164"/>
+      <c r="AU23" s="164"/>
+      <c r="AV23" s="164"/>
+      <c r="AW23" s="164"/>
+      <c r="AX23" s="164"/>
+      <c r="AY23" s="164"/>
+      <c r="AZ23" s="164"/>
+      <c r="BA23" s="164"/>
+      <c r="BB23" s="164"/>
+      <c r="BC23" s="165"/>
+      <c r="BD23" s="235"/>
+      <c r="BE23" s="234"/>
+      <c r="BF23" s="236"/>
+      <c r="BG23" s="149"/>
+      <c r="BH23" s="165"/>
+      <c r="BI23" s="228"/>
+      <c r="BJ23" s="240"/>
     </row>
     <row r="24" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="34"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="36"/>
-      <c r="AX24" s="36"/>
-      <c r="AY24" s="36"/>
-      <c r="AZ24" s="36"/>
-      <c r="BA24" s="36"/>
-      <c r="BB24" s="36"/>
-      <c r="BC24" s="37"/>
-      <c r="BD24" s="38"/>
-      <c r="BE24" s="38"/>
-      <c r="BF24" s="37"/>
-      <c r="BG24" s="34"/>
-      <c r="BH24" s="33"/>
-      <c r="BI24" s="31"/>
-      <c r="BJ24" s="39"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="233"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="167"/>
+      <c r="L24" s="167"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="168"/>
+      <c r="O24" s="231"/>
+      <c r="P24" s="232"/>
+      <c r="Q24" s="232"/>
+      <c r="R24" s="232"/>
+      <c r="S24" s="232"/>
+      <c r="T24" s="232"/>
+      <c r="U24" s="232"/>
+      <c r="V24" s="232"/>
+      <c r="W24" s="233"/>
+      <c r="X24" s="231"/>
+      <c r="Y24" s="232"/>
+      <c r="Z24" s="232"/>
+      <c r="AA24" s="232"/>
+      <c r="AB24" s="232"/>
+      <c r="AC24" s="232"/>
+      <c r="AD24" s="232"/>
+      <c r="AE24" s="232"/>
+      <c r="AF24" s="232"/>
+      <c r="AG24" s="232"/>
+      <c r="AH24" s="232"/>
+      <c r="AI24" s="233"/>
+      <c r="AJ24" s="231"/>
+      <c r="AK24" s="232"/>
+      <c r="AL24" s="232"/>
+      <c r="AM24" s="232"/>
+      <c r="AN24" s="232"/>
+      <c r="AO24" s="232"/>
+      <c r="AP24" s="232"/>
+      <c r="AQ24" s="232"/>
+      <c r="AR24" s="233"/>
+      <c r="AS24" s="166"/>
+      <c r="AT24" s="167"/>
+      <c r="AU24" s="167"/>
+      <c r="AV24" s="167"/>
+      <c r="AW24" s="167"/>
+      <c r="AX24" s="167"/>
+      <c r="AY24" s="167"/>
+      <c r="AZ24" s="167"/>
+      <c r="BA24" s="167"/>
+      <c r="BB24" s="167"/>
+      <c r="BC24" s="168"/>
+      <c r="BD24" s="237"/>
+      <c r="BE24" s="238"/>
+      <c r="BF24" s="239"/>
+      <c r="BG24" s="166"/>
+      <c r="BH24" s="168"/>
+      <c r="BI24" s="231"/>
+      <c r="BJ24" s="241"/>
     </row>
     <row r="25" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="105">
+      <c r="A25" s="109">
         <v>2</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="21"/>
-      <c r="AT25" s="22"/>
-      <c r="AU25" s="22"/>
-      <c r="AV25" s="22"/>
-      <c r="AW25" s="27"/>
-      <c r="AX25" s="27"/>
-      <c r="AY25" s="27"/>
-      <c r="AZ25" s="27"/>
-      <c r="BA25" s="27"/>
-      <c r="BB25" s="27"/>
-      <c r="BC25" s="28"/>
-      <c r="BD25" s="29"/>
-      <c r="BE25" s="29"/>
-      <c r="BF25" s="28"/>
-      <c r="BG25" s="21"/>
-      <c r="BH25" s="20"/>
-      <c r="BI25" s="18"/>
-      <c r="BJ25" s="30"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="228"/>
+      <c r="P25" s="229"/>
+      <c r="Q25" s="229"/>
+      <c r="R25" s="229"/>
+      <c r="S25" s="229"/>
+      <c r="T25" s="229"/>
+      <c r="U25" s="229"/>
+      <c r="V25" s="229"/>
+      <c r="W25" s="230"/>
+      <c r="X25" s="228"/>
+      <c r="Y25" s="229"/>
+      <c r="Z25" s="229"/>
+      <c r="AA25" s="229"/>
+      <c r="AB25" s="229"/>
+      <c r="AC25" s="229"/>
+      <c r="AD25" s="229"/>
+      <c r="AE25" s="229"/>
+      <c r="AF25" s="229"/>
+      <c r="AG25" s="229"/>
+      <c r="AH25" s="229"/>
+      <c r="AI25" s="230"/>
+      <c r="AJ25" s="228"/>
+      <c r="AK25" s="229"/>
+      <c r="AL25" s="229"/>
+      <c r="AM25" s="229"/>
+      <c r="AN25" s="229"/>
+      <c r="AO25" s="229"/>
+      <c r="AP25" s="229"/>
+      <c r="AQ25" s="229"/>
+      <c r="AR25" s="230"/>
+      <c r="AS25" s="149"/>
+      <c r="AT25" s="164"/>
+      <c r="AU25" s="164"/>
+      <c r="AV25" s="164"/>
+      <c r="AW25" s="164"/>
+      <c r="AX25" s="164"/>
+      <c r="AY25" s="164"/>
+      <c r="AZ25" s="164"/>
+      <c r="BA25" s="164"/>
+      <c r="BB25" s="164"/>
+      <c r="BC25" s="165"/>
+      <c r="BD25" s="235"/>
+      <c r="BE25" s="234"/>
+      <c r="BF25" s="236"/>
+      <c r="BG25" s="149"/>
+      <c r="BH25" s="165"/>
+      <c r="BI25" s="228"/>
+      <c r="BJ25" s="240"/>
     </row>
     <row r="26" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="107"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="35"/>
-      <c r="AP26" s="35"/>
-      <c r="AQ26" s="35"/>
-      <c r="AR26" s="35"/>
-      <c r="AS26" s="34"/>
-      <c r="AT26" s="35"/>
-      <c r="AU26" s="35"/>
-      <c r="AV26" s="35"/>
-      <c r="AW26" s="36"/>
-      <c r="AX26" s="36"/>
-      <c r="AY26" s="36"/>
-      <c r="AZ26" s="36"/>
-      <c r="BA26" s="36"/>
-      <c r="BB26" s="36"/>
-      <c r="BC26" s="37"/>
-      <c r="BD26" s="38"/>
-      <c r="BE26" s="38"/>
-      <c r="BF26" s="37"/>
-      <c r="BG26" s="34"/>
-      <c r="BH26" s="33"/>
-      <c r="BI26" s="31"/>
-      <c r="BJ26" s="39"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="233"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="168"/>
+      <c r="O26" s="231"/>
+      <c r="P26" s="232"/>
+      <c r="Q26" s="232"/>
+      <c r="R26" s="232"/>
+      <c r="S26" s="232"/>
+      <c r="T26" s="232"/>
+      <c r="U26" s="232"/>
+      <c r="V26" s="232"/>
+      <c r="W26" s="233"/>
+      <c r="X26" s="231"/>
+      <c r="Y26" s="232"/>
+      <c r="Z26" s="232"/>
+      <c r="AA26" s="232"/>
+      <c r="AB26" s="232"/>
+      <c r="AC26" s="232"/>
+      <c r="AD26" s="232"/>
+      <c r="AE26" s="232"/>
+      <c r="AF26" s="232"/>
+      <c r="AG26" s="232"/>
+      <c r="AH26" s="232"/>
+      <c r="AI26" s="233"/>
+      <c r="AJ26" s="231"/>
+      <c r="AK26" s="232"/>
+      <c r="AL26" s="232"/>
+      <c r="AM26" s="232"/>
+      <c r="AN26" s="232"/>
+      <c r="AO26" s="232"/>
+      <c r="AP26" s="232"/>
+      <c r="AQ26" s="232"/>
+      <c r="AR26" s="233"/>
+      <c r="AS26" s="166"/>
+      <c r="AT26" s="167"/>
+      <c r="AU26" s="167"/>
+      <c r="AV26" s="167"/>
+      <c r="AW26" s="167"/>
+      <c r="AX26" s="167"/>
+      <c r="AY26" s="167"/>
+      <c r="AZ26" s="167"/>
+      <c r="BA26" s="167"/>
+      <c r="BB26" s="167"/>
+      <c r="BC26" s="168"/>
+      <c r="BD26" s="237"/>
+      <c r="BE26" s="238"/>
+      <c r="BF26" s="239"/>
+      <c r="BG26" s="166"/>
+      <c r="BH26" s="168"/>
+      <c r="BI26" s="231"/>
+      <c r="BJ26" s="241"/>
     </row>
     <row r="27" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="105">
+      <c r="A27" s="109">
         <v>3</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="23"/>
-      <c r="AL27" s="23"/>
-      <c r="AM27" s="23"/>
-      <c r="AN27" s="23"/>
-      <c r="AO27" s="23"/>
-      <c r="AP27" s="23"/>
-      <c r="AQ27" s="23"/>
-      <c r="AR27" s="23"/>
-      <c r="AS27" s="21"/>
-      <c r="AT27" s="22"/>
-      <c r="AU27" s="22"/>
-      <c r="AV27" s="22"/>
-      <c r="AW27" s="27"/>
-      <c r="AX27" s="27"/>
-      <c r="AY27" s="27"/>
-      <c r="AZ27" s="27"/>
-      <c r="BA27" s="27"/>
-      <c r="BB27" s="27"/>
-      <c r="BC27" s="28"/>
-      <c r="BD27" s="29"/>
-      <c r="BE27" s="29"/>
-      <c r="BF27" s="28"/>
-      <c r="BG27" s="21"/>
-      <c r="BH27" s="20"/>
-      <c r="BI27" s="18"/>
-      <c r="BJ27" s="30"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="228"/>
+      <c r="D27" s="229"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="230"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="228"/>
+      <c r="P27" s="229"/>
+      <c r="Q27" s="229"/>
+      <c r="R27" s="229"/>
+      <c r="S27" s="229"/>
+      <c r="T27" s="229"/>
+      <c r="U27" s="229"/>
+      <c r="V27" s="229"/>
+      <c r="W27" s="230"/>
+      <c r="X27" s="228"/>
+      <c r="Y27" s="229"/>
+      <c r="Z27" s="229"/>
+      <c r="AA27" s="229"/>
+      <c r="AB27" s="229"/>
+      <c r="AC27" s="229"/>
+      <c r="AD27" s="229"/>
+      <c r="AE27" s="229"/>
+      <c r="AF27" s="229"/>
+      <c r="AG27" s="229"/>
+      <c r="AH27" s="229"/>
+      <c r="AI27" s="230"/>
+      <c r="AJ27" s="228"/>
+      <c r="AK27" s="229"/>
+      <c r="AL27" s="229"/>
+      <c r="AM27" s="229"/>
+      <c r="AN27" s="229"/>
+      <c r="AO27" s="229"/>
+      <c r="AP27" s="229"/>
+      <c r="AQ27" s="229"/>
+      <c r="AR27" s="230"/>
+      <c r="AS27" s="149"/>
+      <c r="AT27" s="164"/>
+      <c r="AU27" s="164"/>
+      <c r="AV27" s="164"/>
+      <c r="AW27" s="164"/>
+      <c r="AX27" s="164"/>
+      <c r="AY27" s="164"/>
+      <c r="AZ27" s="164"/>
+      <c r="BA27" s="164"/>
+      <c r="BB27" s="164"/>
+      <c r="BC27" s="165"/>
+      <c r="BD27" s="235"/>
+      <c r="BE27" s="234"/>
+      <c r="BF27" s="236"/>
+      <c r="BG27" s="149"/>
+      <c r="BH27" s="165"/>
+      <c r="BI27" s="228"/>
+      <c r="BJ27" s="240"/>
     </row>
     <row r="28" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="107"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="35"/>
-      <c r="AK28" s="35"/>
-      <c r="AL28" s="35"/>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="35"/>
-      <c r="AO28" s="35"/>
-      <c r="AP28" s="35"/>
-      <c r="AQ28" s="35"/>
-      <c r="AR28" s="35"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="35"/>
-      <c r="AU28" s="35"/>
-      <c r="AV28" s="35"/>
-      <c r="AW28" s="36"/>
-      <c r="AX28" s="36"/>
-      <c r="AY28" s="36"/>
-      <c r="AZ28" s="36"/>
-      <c r="BA28" s="36"/>
-      <c r="BB28" s="36"/>
-      <c r="BC28" s="37"/>
-      <c r="BD28" s="38"/>
-      <c r="BE28" s="38"/>
-      <c r="BF28" s="37"/>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="33"/>
-      <c r="BI28" s="31"/>
-      <c r="BJ28" s="39"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="233"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="168"/>
+      <c r="O28" s="231"/>
+      <c r="P28" s="232"/>
+      <c r="Q28" s="232"/>
+      <c r="R28" s="232"/>
+      <c r="S28" s="232"/>
+      <c r="T28" s="232"/>
+      <c r="U28" s="232"/>
+      <c r="V28" s="232"/>
+      <c r="W28" s="233"/>
+      <c r="X28" s="231"/>
+      <c r="Y28" s="232"/>
+      <c r="Z28" s="232"/>
+      <c r="AA28" s="232"/>
+      <c r="AB28" s="232"/>
+      <c r="AC28" s="232"/>
+      <c r="AD28" s="232"/>
+      <c r="AE28" s="232"/>
+      <c r="AF28" s="232"/>
+      <c r="AG28" s="232"/>
+      <c r="AH28" s="232"/>
+      <c r="AI28" s="233"/>
+      <c r="AJ28" s="231"/>
+      <c r="AK28" s="232"/>
+      <c r="AL28" s="232"/>
+      <c r="AM28" s="232"/>
+      <c r="AN28" s="232"/>
+      <c r="AO28" s="232"/>
+      <c r="AP28" s="232"/>
+      <c r="AQ28" s="232"/>
+      <c r="AR28" s="233"/>
+      <c r="AS28" s="166"/>
+      <c r="AT28" s="167"/>
+      <c r="AU28" s="167"/>
+      <c r="AV28" s="167"/>
+      <c r="AW28" s="167"/>
+      <c r="AX28" s="167"/>
+      <c r="AY28" s="167"/>
+      <c r="AZ28" s="167"/>
+      <c r="BA28" s="167"/>
+      <c r="BB28" s="167"/>
+      <c r="BC28" s="168"/>
+      <c r="BD28" s="237"/>
+      <c r="BE28" s="238"/>
+      <c r="BF28" s="239"/>
+      <c r="BG28" s="166"/>
+      <c r="BH28" s="168"/>
+      <c r="BI28" s="231"/>
+      <c r="BJ28" s="241"/>
     </row>
     <row r="29" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="105">
+      <c r="A29" s="109">
         <v>4</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="69"/>
-      <c r="AG29" s="69"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="67"/>
-      <c r="AJ29" s="69"/>
-      <c r="AK29" s="69"/>
-      <c r="AL29" s="69"/>
-      <c r="AM29" s="69"/>
-      <c r="AN29" s="69"/>
-      <c r="AO29" s="69"/>
-      <c r="AP29" s="69"/>
-      <c r="AQ29" s="69"/>
-      <c r="AR29" s="69"/>
-      <c r="AS29" s="68"/>
-      <c r="AT29" s="69"/>
-      <c r="AU29" s="69"/>
-      <c r="AV29" s="69"/>
-      <c r="AW29" s="70"/>
-      <c r="AX29" s="70"/>
-      <c r="AY29" s="70"/>
-      <c r="AZ29" s="70"/>
-      <c r="BA29" s="70"/>
-      <c r="BB29" s="70"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="72"/>
-      <c r="BE29" s="72"/>
-      <c r="BF29" s="71"/>
-      <c r="BG29" s="68"/>
-      <c r="BH29" s="67"/>
-      <c r="BI29" s="65"/>
-      <c r="BJ29" s="73"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="229"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="230"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="228"/>
+      <c r="P29" s="229"/>
+      <c r="Q29" s="229"/>
+      <c r="R29" s="229"/>
+      <c r="S29" s="229"/>
+      <c r="T29" s="229"/>
+      <c r="U29" s="229"/>
+      <c r="V29" s="229"/>
+      <c r="W29" s="230"/>
+      <c r="X29" s="228"/>
+      <c r="Y29" s="229"/>
+      <c r="Z29" s="229"/>
+      <c r="AA29" s="229"/>
+      <c r="AB29" s="229"/>
+      <c r="AC29" s="229"/>
+      <c r="AD29" s="229"/>
+      <c r="AE29" s="229"/>
+      <c r="AF29" s="229"/>
+      <c r="AG29" s="229"/>
+      <c r="AH29" s="229"/>
+      <c r="AI29" s="230"/>
+      <c r="AJ29" s="228"/>
+      <c r="AK29" s="229"/>
+      <c r="AL29" s="229"/>
+      <c r="AM29" s="229"/>
+      <c r="AN29" s="229"/>
+      <c r="AO29" s="229"/>
+      <c r="AP29" s="229"/>
+      <c r="AQ29" s="229"/>
+      <c r="AR29" s="230"/>
+      <c r="AS29" s="149"/>
+      <c r="AT29" s="164"/>
+      <c r="AU29" s="164"/>
+      <c r="AV29" s="164"/>
+      <c r="AW29" s="164"/>
+      <c r="AX29" s="164"/>
+      <c r="AY29" s="164"/>
+      <c r="AZ29" s="164"/>
+      <c r="BA29" s="164"/>
+      <c r="BB29" s="164"/>
+      <c r="BC29" s="165"/>
+      <c r="BD29" s="235"/>
+      <c r="BE29" s="234"/>
+      <c r="BF29" s="236"/>
+      <c r="BG29" s="149"/>
+      <c r="BH29" s="165"/>
+      <c r="BI29" s="228"/>
+      <c r="BJ29" s="240"/>
     </row>
     <row r="30" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="107"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="69"/>
-      <c r="AG30" s="69"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="69"/>
-      <c r="AK30" s="69"/>
-      <c r="AL30" s="69"/>
-      <c r="AM30" s="69"/>
-      <c r="AN30" s="69"/>
-      <c r="AO30" s="69"/>
-      <c r="AP30" s="69"/>
-      <c r="AQ30" s="69"/>
-      <c r="AR30" s="69"/>
-      <c r="AS30" s="68"/>
-      <c r="AT30" s="69"/>
-      <c r="AU30" s="69"/>
-      <c r="AV30" s="69"/>
-      <c r="AW30" s="70"/>
-      <c r="AX30" s="70"/>
-      <c r="AY30" s="70"/>
-      <c r="AZ30" s="70"/>
-      <c r="BA30" s="70"/>
-      <c r="BB30" s="70"/>
-      <c r="BC30" s="71"/>
-      <c r="BD30" s="72"/>
-      <c r="BE30" s="72"/>
-      <c r="BF30" s="71"/>
-      <c r="BG30" s="68"/>
-      <c r="BH30" s="67"/>
-      <c r="BI30" s="65"/>
-      <c r="BJ30" s="73"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="231"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="232"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="167"/>
+      <c r="L30" s="167"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="231"/>
+      <c r="P30" s="232"/>
+      <c r="Q30" s="232"/>
+      <c r="R30" s="232"/>
+      <c r="S30" s="232"/>
+      <c r="T30" s="232"/>
+      <c r="U30" s="232"/>
+      <c r="V30" s="232"/>
+      <c r="W30" s="233"/>
+      <c r="X30" s="231"/>
+      <c r="Y30" s="232"/>
+      <c r="Z30" s="232"/>
+      <c r="AA30" s="232"/>
+      <c r="AB30" s="232"/>
+      <c r="AC30" s="232"/>
+      <c r="AD30" s="232"/>
+      <c r="AE30" s="232"/>
+      <c r="AF30" s="232"/>
+      <c r="AG30" s="232"/>
+      <c r="AH30" s="232"/>
+      <c r="AI30" s="233"/>
+      <c r="AJ30" s="231"/>
+      <c r="AK30" s="232"/>
+      <c r="AL30" s="232"/>
+      <c r="AM30" s="232"/>
+      <c r="AN30" s="232"/>
+      <c r="AO30" s="232"/>
+      <c r="AP30" s="232"/>
+      <c r="AQ30" s="232"/>
+      <c r="AR30" s="233"/>
+      <c r="AS30" s="166"/>
+      <c r="AT30" s="167"/>
+      <c r="AU30" s="167"/>
+      <c r="AV30" s="167"/>
+      <c r="AW30" s="167"/>
+      <c r="AX30" s="167"/>
+      <c r="AY30" s="167"/>
+      <c r="AZ30" s="167"/>
+      <c r="BA30" s="167"/>
+      <c r="BB30" s="167"/>
+      <c r="BC30" s="168"/>
+      <c r="BD30" s="237"/>
+      <c r="BE30" s="238"/>
+      <c r="BF30" s="239"/>
+      <c r="BG30" s="166"/>
+      <c r="BH30" s="168"/>
+      <c r="BI30" s="231"/>
+      <c r="BJ30" s="241"/>
     </row>
     <row r="31" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="105">
+      <c r="A31" s="109">
         <v>5</v>
       </c>
-      <c r="B31" s="106"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="22"/>
-      <c r="AI31" s="20"/>
-      <c r="AJ31" s="22"/>
-      <c r="AK31" s="22"/>
-      <c r="AL31" s="22"/>
-      <c r="AM31" s="22"/>
-      <c r="AN31" s="22"/>
-      <c r="AO31" s="22"/>
-      <c r="AP31" s="22"/>
-      <c r="AQ31" s="22"/>
-      <c r="AR31" s="22"/>
-      <c r="AS31" s="21"/>
-      <c r="AT31" s="22"/>
-      <c r="AU31" s="22"/>
-      <c r="AV31" s="22"/>
-      <c r="AW31" s="22"/>
-      <c r="AX31" s="22"/>
-      <c r="AY31" s="22"/>
-      <c r="AZ31" s="22"/>
-      <c r="BA31" s="22"/>
-      <c r="BB31" s="22"/>
-      <c r="BC31" s="20"/>
-      <c r="BD31" s="22"/>
-      <c r="BE31" s="22"/>
-      <c r="BF31" s="20"/>
-      <c r="BG31" s="21"/>
-      <c r="BH31" s="20"/>
-      <c r="BI31" s="18"/>
-      <c r="BJ31" s="30"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="230"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="228"/>
+      <c r="P31" s="229"/>
+      <c r="Q31" s="229"/>
+      <c r="R31" s="229"/>
+      <c r="S31" s="229"/>
+      <c r="T31" s="229"/>
+      <c r="U31" s="229"/>
+      <c r="V31" s="229"/>
+      <c r="W31" s="230"/>
+      <c r="X31" s="228"/>
+      <c r="Y31" s="229"/>
+      <c r="Z31" s="229"/>
+      <c r="AA31" s="229"/>
+      <c r="AB31" s="229"/>
+      <c r="AC31" s="229"/>
+      <c r="AD31" s="229"/>
+      <c r="AE31" s="229"/>
+      <c r="AF31" s="229"/>
+      <c r="AG31" s="229"/>
+      <c r="AH31" s="229"/>
+      <c r="AI31" s="230"/>
+      <c r="AJ31" s="228"/>
+      <c r="AK31" s="229"/>
+      <c r="AL31" s="229"/>
+      <c r="AM31" s="229"/>
+      <c r="AN31" s="229"/>
+      <c r="AO31" s="229"/>
+      <c r="AP31" s="229"/>
+      <c r="AQ31" s="229"/>
+      <c r="AR31" s="230"/>
+      <c r="AS31" s="149"/>
+      <c r="AT31" s="164"/>
+      <c r="AU31" s="164"/>
+      <c r="AV31" s="164"/>
+      <c r="AW31" s="164"/>
+      <c r="AX31" s="164"/>
+      <c r="AY31" s="164"/>
+      <c r="AZ31" s="164"/>
+      <c r="BA31" s="164"/>
+      <c r="BB31" s="164"/>
+      <c r="BC31" s="165"/>
+      <c r="BD31" s="235"/>
+      <c r="BE31" s="234"/>
+      <c r="BF31" s="236"/>
+      <c r="BG31" s="149"/>
+      <c r="BH31" s="165"/>
+      <c r="BI31" s="228"/>
+      <c r="BJ31" s="240"/>
     </row>
     <row r="32" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="107"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="35"/>
-      <c r="AH32" s="35"/>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="35"/>
-      <c r="AL32" s="35"/>
-      <c r="AM32" s="35"/>
-      <c r="AN32" s="35"/>
-      <c r="AO32" s="35"/>
-      <c r="AP32" s="35"/>
-      <c r="AQ32" s="35"/>
-      <c r="AR32" s="35"/>
-      <c r="AS32" s="34"/>
-      <c r="AT32" s="35"/>
-      <c r="AU32" s="35"/>
-      <c r="AV32" s="35"/>
-      <c r="AW32" s="35"/>
-      <c r="AX32" s="35"/>
-      <c r="AY32" s="35"/>
-      <c r="AZ32" s="35"/>
-      <c r="BA32" s="35"/>
-      <c r="BB32" s="35"/>
-      <c r="BC32" s="33"/>
-      <c r="BD32" s="35"/>
-      <c r="BE32" s="35"/>
-      <c r="BF32" s="33"/>
-      <c r="BG32" s="34"/>
-      <c r="BH32" s="33"/>
-      <c r="BI32" s="31"/>
-      <c r="BJ32" s="39"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="231"/>
+      <c r="D32" s="232"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="233"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="167"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="168"/>
+      <c r="O32" s="231"/>
+      <c r="P32" s="232"/>
+      <c r="Q32" s="232"/>
+      <c r="R32" s="232"/>
+      <c r="S32" s="232"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
+      <c r="W32" s="233"/>
+      <c r="X32" s="231"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="232"/>
+      <c r="AB32" s="232"/>
+      <c r="AC32" s="232"/>
+      <c r="AD32" s="232"/>
+      <c r="AE32" s="232"/>
+      <c r="AF32" s="232"/>
+      <c r="AG32" s="232"/>
+      <c r="AH32" s="232"/>
+      <c r="AI32" s="233"/>
+      <c r="AJ32" s="231"/>
+      <c r="AK32" s="232"/>
+      <c r="AL32" s="232"/>
+      <c r="AM32" s="232"/>
+      <c r="AN32" s="232"/>
+      <c r="AO32" s="232"/>
+      <c r="AP32" s="232"/>
+      <c r="AQ32" s="232"/>
+      <c r="AR32" s="233"/>
+      <c r="AS32" s="166"/>
+      <c r="AT32" s="167"/>
+      <c r="AU32" s="167"/>
+      <c r="AV32" s="167"/>
+      <c r="AW32" s="167"/>
+      <c r="AX32" s="167"/>
+      <c r="AY32" s="167"/>
+      <c r="AZ32" s="167"/>
+      <c r="BA32" s="167"/>
+      <c r="BB32" s="167"/>
+      <c r="BC32" s="168"/>
+      <c r="BD32" s="237"/>
+      <c r="BE32" s="238"/>
+      <c r="BF32" s="239"/>
+      <c r="BG32" s="166"/>
+      <c r="BH32" s="168"/>
+      <c r="BI32" s="231"/>
+      <c r="BJ32" s="241"/>
     </row>
     <row r="33" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="105">
+      <c r="A33" s="109">
         <v>6</v>
       </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="22"/>
-      <c r="AH33" s="22"/>
-      <c r="AI33" s="20"/>
-      <c r="AJ33" s="22"/>
-      <c r="AK33" s="22"/>
-      <c r="AL33" s="22"/>
-      <c r="AM33" s="22"/>
-      <c r="AN33" s="22"/>
-      <c r="AO33" s="22"/>
-      <c r="AP33" s="22"/>
-      <c r="AQ33" s="22"/>
-      <c r="AR33" s="22"/>
-      <c r="AS33" s="21"/>
-      <c r="AT33" s="22"/>
-      <c r="AU33" s="22"/>
-      <c r="AV33" s="22"/>
-      <c r="AW33" s="22"/>
-      <c r="AX33" s="22"/>
-      <c r="AY33" s="22"/>
-      <c r="AZ33" s="22"/>
-      <c r="BA33" s="22"/>
-      <c r="BB33" s="22"/>
-      <c r="BC33" s="20"/>
-      <c r="BD33" s="22"/>
-      <c r="BE33" s="22"/>
-      <c r="BF33" s="20"/>
-      <c r="BG33" s="21"/>
-      <c r="BH33" s="20"/>
-      <c r="BI33" s="18"/>
-      <c r="BJ33" s="30"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="228"/>
+      <c r="D33" s="229"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="228"/>
+      <c r="P33" s="229"/>
+      <c r="Q33" s="229"/>
+      <c r="R33" s="229"/>
+      <c r="S33" s="229"/>
+      <c r="T33" s="229"/>
+      <c r="U33" s="229"/>
+      <c r="V33" s="229"/>
+      <c r="W33" s="230"/>
+      <c r="X33" s="228"/>
+      <c r="Y33" s="229"/>
+      <c r="Z33" s="229"/>
+      <c r="AA33" s="229"/>
+      <c r="AB33" s="229"/>
+      <c r="AC33" s="229"/>
+      <c r="AD33" s="229"/>
+      <c r="AE33" s="229"/>
+      <c r="AF33" s="229"/>
+      <c r="AG33" s="229"/>
+      <c r="AH33" s="229"/>
+      <c r="AI33" s="230"/>
+      <c r="AJ33" s="228"/>
+      <c r="AK33" s="229"/>
+      <c r="AL33" s="229"/>
+      <c r="AM33" s="229"/>
+      <c r="AN33" s="229"/>
+      <c r="AO33" s="229"/>
+      <c r="AP33" s="229"/>
+      <c r="AQ33" s="229"/>
+      <c r="AR33" s="230"/>
+      <c r="AS33" s="149"/>
+      <c r="AT33" s="164"/>
+      <c r="AU33" s="164"/>
+      <c r="AV33" s="164"/>
+      <c r="AW33" s="164"/>
+      <c r="AX33" s="164"/>
+      <c r="AY33" s="164"/>
+      <c r="AZ33" s="164"/>
+      <c r="BA33" s="164"/>
+      <c r="BB33" s="164"/>
+      <c r="BC33" s="165"/>
+      <c r="BD33" s="235"/>
+      <c r="BE33" s="234"/>
+      <c r="BF33" s="236"/>
+      <c r="BG33" s="149"/>
+      <c r="BH33" s="165"/>
+      <c r="BI33" s="228"/>
+      <c r="BJ33" s="240"/>
     </row>
     <row r="34" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="76"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="56"/>
-      <c r="AB34" s="56"/>
-      <c r="AC34" s="56"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="75"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
-      <c r="AQ34" s="56"/>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="76"/>
-      <c r="AT34" s="56"/>
-      <c r="AU34" s="56"/>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
-      <c r="BB34" s="56"/>
-      <c r="BC34" s="75"/>
-      <c r="BD34" s="56"/>
-      <c r="BE34" s="56"/>
-      <c r="BF34" s="75"/>
-      <c r="BG34" s="76"/>
-      <c r="BH34" s="75"/>
-      <c r="BI34" s="74"/>
-      <c r="BJ34" s="77"/>
+      <c r="A34" s="188"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="231"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="233"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="167"/>
+      <c r="L34" s="167"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="168"/>
+      <c r="O34" s="231"/>
+      <c r="P34" s="232"/>
+      <c r="Q34" s="232"/>
+      <c r="R34" s="232"/>
+      <c r="S34" s="232"/>
+      <c r="T34" s="232"/>
+      <c r="U34" s="232"/>
+      <c r="V34" s="232"/>
+      <c r="W34" s="233"/>
+      <c r="X34" s="231"/>
+      <c r="Y34" s="232"/>
+      <c r="Z34" s="232"/>
+      <c r="AA34" s="232"/>
+      <c r="AB34" s="232"/>
+      <c r="AC34" s="232"/>
+      <c r="AD34" s="232"/>
+      <c r="AE34" s="232"/>
+      <c r="AF34" s="232"/>
+      <c r="AG34" s="232"/>
+      <c r="AH34" s="232"/>
+      <c r="AI34" s="233"/>
+      <c r="AJ34" s="231"/>
+      <c r="AK34" s="232"/>
+      <c r="AL34" s="232"/>
+      <c r="AM34" s="232"/>
+      <c r="AN34" s="232"/>
+      <c r="AO34" s="232"/>
+      <c r="AP34" s="232"/>
+      <c r="AQ34" s="232"/>
+      <c r="AR34" s="233"/>
+      <c r="AS34" s="166"/>
+      <c r="AT34" s="167"/>
+      <c r="AU34" s="167"/>
+      <c r="AV34" s="167"/>
+      <c r="AW34" s="167"/>
+      <c r="AX34" s="167"/>
+      <c r="AY34" s="167"/>
+      <c r="AZ34" s="167"/>
+      <c r="BA34" s="167"/>
+      <c r="BB34" s="167"/>
+      <c r="BC34" s="168"/>
+      <c r="BD34" s="237"/>
+      <c r="BE34" s="238"/>
+      <c r="BF34" s="239"/>
+      <c r="BG34" s="166"/>
+      <c r="BH34" s="168"/>
+      <c r="BI34" s="231"/>
+      <c r="BJ34" s="241"/>
     </row>
     <row r="35" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="190" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="191"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="88"/>
-      <c r="Y35" s="100" t="s">
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="131"/>
+      <c r="Q35" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="130"/>
+      <c r="X35" s="130"/>
+      <c r="Y35" s="207" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z35" s="179"/>
+      <c r="AA35" s="179"/>
+      <c r="AB35" s="179"/>
+      <c r="AC35" s="179"/>
+      <c r="AD35" s="179"/>
+      <c r="AE35" s="179"/>
+      <c r="AF35" s="179"/>
+      <c r="AG35" s="179"/>
+      <c r="AH35" s="179"/>
+      <c r="AI35" s="179"/>
+      <c r="AJ35" s="179"/>
+      <c r="AK35" s="179"/>
+      <c r="AL35" s="179"/>
+      <c r="AM35" s="179"/>
+      <c r="AN35" s="179"/>
+      <c r="AO35" s="179"/>
+      <c r="AP35" s="179"/>
+      <c r="AQ35" s="179"/>
+      <c r="AR35" s="179"/>
+      <c r="AS35" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="Z35" s="101"/>
-      <c r="AA35" s="101"/>
-      <c r="AB35" s="101"/>
-      <c r="AC35" s="101"/>
-      <c r="AD35" s="101"/>
-      <c r="AE35" s="101"/>
-      <c r="AF35" s="101"/>
-      <c r="AG35" s="101"/>
-      <c r="AH35" s="101"/>
-      <c r="AI35" s="101"/>
-      <c r="AJ35" s="101"/>
-      <c r="AK35" s="101"/>
-      <c r="AL35" s="101"/>
-      <c r="AM35" s="101"/>
-      <c r="AN35" s="101"/>
-      <c r="AO35" s="101"/>
-      <c r="AP35" s="101"/>
-      <c r="AQ35" s="101"/>
-      <c r="AR35" s="101"/>
-      <c r="AS35" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT35" s="101"/>
-      <c r="AU35" s="101"/>
-      <c r="AV35" s="101"/>
-      <c r="AW35" s="101"/>
-      <c r="AX35" s="101"/>
-      <c r="AY35" s="101"/>
-      <c r="AZ35" s="101"/>
-      <c r="BA35" s="101"/>
-      <c r="BB35" s="101"/>
-      <c r="BC35" s="101"/>
-      <c r="BD35" s="101"/>
-      <c r="BE35" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF35" s="101"/>
-      <c r="BG35" s="101"/>
-      <c r="BH35" s="101"/>
-      <c r="BI35" s="101"/>
-      <c r="BJ35" s="199"/>
+      <c r="AT35" s="179"/>
+      <c r="AU35" s="179"/>
+      <c r="AV35" s="179"/>
+      <c r="AW35" s="179"/>
+      <c r="AX35" s="179"/>
+      <c r="AY35" s="179"/>
+      <c r="AZ35" s="179"/>
+      <c r="BA35" s="179"/>
+      <c r="BB35" s="179"/>
+      <c r="BC35" s="179"/>
+      <c r="BD35" s="179"/>
+      <c r="BE35" s="179" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF35" s="179"/>
+      <c r="BG35" s="179"/>
+      <c r="BH35" s="179"/>
+      <c r="BI35" s="179"/>
+      <c r="BJ35" s="185"/>
     </row>
     <row r="36" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="117"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="109"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z36" s="96"/>
-      <c r="AA36" s="96"/>
-      <c r="AB36" s="96"/>
-      <c r="AC36" s="96"/>
-      <c r="AD36" s="96"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="96"/>
-      <c r="AG36" s="96"/>
-      <c r="AH36" s="96"/>
-      <c r="AI36" s="96"/>
-      <c r="AJ36" s="96"/>
-      <c r="AK36" s="96"/>
-      <c r="AL36" s="96"/>
-      <c r="AM36" s="96"/>
-      <c r="AN36" s="96"/>
-      <c r="AO36" s="96"/>
-      <c r="AP36" s="96"/>
-      <c r="AQ36" s="96"/>
-      <c r="AR36" s="96"/>
-      <c r="AS36" s="96"/>
-      <c r="AT36" s="96"/>
-      <c r="AU36" s="96"/>
-      <c r="AV36" s="96"/>
-      <c r="AW36" s="96"/>
-      <c r="AX36" s="96"/>
-      <c r="AY36" s="96"/>
-      <c r="AZ36" s="96"/>
-      <c r="BA36" s="96"/>
-      <c r="BB36" s="96"/>
-      <c r="BC36" s="96"/>
-      <c r="BD36" s="96"/>
-      <c r="BE36" s="96"/>
-      <c r="BF36" s="96"/>
-      <c r="BG36" s="96"/>
-      <c r="BH36" s="96"/>
-      <c r="BI36" s="96"/>
-      <c r="BJ36" s="102"/>
+      <c r="A36" s="192"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="193"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="246"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="187"/>
+      <c r="N36" s="187"/>
+      <c r="O36" s="245"/>
+      <c r="P36" s="246"/>
+      <c r="Q36" s="186"/>
+      <c r="R36" s="187"/>
+      <c r="S36" s="187"/>
+      <c r="T36" s="187"/>
+      <c r="U36" s="187"/>
+      <c r="V36" s="187"/>
+      <c r="W36" s="187"/>
+      <c r="X36" s="187"/>
+      <c r="Y36" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z36" s="206"/>
+      <c r="AA36" s="206"/>
+      <c r="AB36" s="206"/>
+      <c r="AC36" s="206"/>
+      <c r="AD36" s="206"/>
+      <c r="AE36" s="206"/>
+      <c r="AF36" s="206"/>
+      <c r="AG36" s="206"/>
+      <c r="AH36" s="206"/>
+      <c r="AI36" s="206"/>
+      <c r="AJ36" s="206"/>
+      <c r="AK36" s="206"/>
+      <c r="AL36" s="206"/>
+      <c r="AM36" s="206"/>
+      <c r="AN36" s="206"/>
+      <c r="AO36" s="206"/>
+      <c r="AP36" s="206"/>
+      <c r="AQ36" s="206"/>
+      <c r="AR36" s="206"/>
+      <c r="AS36" s="242"/>
+      <c r="AT36" s="242"/>
+      <c r="AU36" s="206"/>
+      <c r="AV36" s="206"/>
+      <c r="AW36" s="206"/>
+      <c r="AX36" s="206"/>
+      <c r="AY36" s="206"/>
+      <c r="AZ36" s="206"/>
+      <c r="BA36" s="206"/>
+      <c r="BB36" s="206"/>
+      <c r="BC36" s="206"/>
+      <c r="BD36" s="206"/>
+      <c r="BE36" s="242"/>
+      <c r="BF36" s="206"/>
+      <c r="BG36" s="206"/>
+      <c r="BH36" s="206"/>
+      <c r="BI36" s="206"/>
+      <c r="BJ36" s="208"/>
     </row>
     <row r="37" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="119"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="R37" s="92"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="92"/>
-      <c r="U37" s="92"/>
-      <c r="V37" s="92"/>
-      <c r="W37" s="92"/>
-      <c r="X37" s="92"/>
-      <c r="Y37" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z37" s="94"/>
-      <c r="AA37" s="94"/>
-      <c r="AB37" s="94"/>
-      <c r="AC37" s="94"/>
-      <c r="AD37" s="94"/>
-      <c r="AE37" s="94"/>
-      <c r="AF37" s="94"/>
-      <c r="AG37" s="94"/>
-      <c r="AH37" s="94"/>
-      <c r="AI37" s="94"/>
-      <c r="AJ37" s="94"/>
-      <c r="AK37" s="94"/>
-      <c r="AL37" s="94"/>
-      <c r="AM37" s="94"/>
-      <c r="AN37" s="94"/>
-      <c r="AO37" s="94"/>
-      <c r="AP37" s="94"/>
-      <c r="AQ37" s="94"/>
-      <c r="AR37" s="94"/>
-      <c r="AS37" s="94"/>
-      <c r="AT37" s="94"/>
-      <c r="AU37" s="94"/>
-      <c r="AV37" s="94"/>
-      <c r="AW37" s="94"/>
-      <c r="AX37" s="94"/>
-      <c r="AY37" s="94"/>
-      <c r="AZ37" s="94"/>
-      <c r="BA37" s="94"/>
-      <c r="BB37" s="94"/>
-      <c r="BC37" s="94"/>
-      <c r="BD37" s="94"/>
-      <c r="BE37" s="94"/>
-      <c r="BF37" s="94"/>
-      <c r="BG37" s="94"/>
-      <c r="BH37" s="94"/>
-      <c r="BI37" s="94"/>
-      <c r="BJ37" s="103"/>
+      <c r="A37" s="194"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="247"/>
+      <c r="F37" s="248"/>
+      <c r="G37" s="248"/>
+      <c r="H37" s="244" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="247"/>
+      <c r="J37" s="248"/>
+      <c r="K37" s="248"/>
+      <c r="L37" s="248"/>
+      <c r="M37" s="248"/>
+      <c r="N37" s="248"/>
+      <c r="O37" s="249" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="250"/>
+      <c r="Q37" s="196" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" s="197"/>
+      <c r="S37" s="197"/>
+      <c r="T37" s="197"/>
+      <c r="U37" s="197"/>
+      <c r="V37" s="197"/>
+      <c r="W37" s="197"/>
+      <c r="X37" s="197"/>
+      <c r="Y37" s="203" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z37" s="204"/>
+      <c r="AA37" s="204"/>
+      <c r="AB37" s="204"/>
+      <c r="AC37" s="204"/>
+      <c r="AD37" s="204"/>
+      <c r="AE37" s="204"/>
+      <c r="AF37" s="204"/>
+      <c r="AG37" s="204"/>
+      <c r="AH37" s="204"/>
+      <c r="AI37" s="204"/>
+      <c r="AJ37" s="204"/>
+      <c r="AK37" s="204"/>
+      <c r="AL37" s="204"/>
+      <c r="AM37" s="204"/>
+      <c r="AN37" s="204"/>
+      <c r="AO37" s="204"/>
+      <c r="AP37" s="204"/>
+      <c r="AQ37" s="204"/>
+      <c r="AR37" s="204"/>
+      <c r="AS37" s="243"/>
+      <c r="AT37" s="243"/>
+      <c r="AU37" s="204"/>
+      <c r="AV37" s="204"/>
+      <c r="AW37" s="204"/>
+      <c r="AX37" s="204"/>
+      <c r="AY37" s="204"/>
+      <c r="AZ37" s="204"/>
+      <c r="BA37" s="204"/>
+      <c r="BB37" s="204"/>
+      <c r="BC37" s="204"/>
+      <c r="BD37" s="204"/>
+      <c r="BE37" s="243"/>
+      <c r="BF37" s="204"/>
+      <c r="BG37" s="204"/>
+      <c r="BH37" s="204"/>
+      <c r="BI37" s="204"/>
+      <c r="BJ37" s="209"/>
     </row>
     <row r="38" spans="1:62" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="63"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
-      <c r="AD38" s="63"/>
-      <c r="AE38" s="63"/>
-      <c r="AF38" s="63"/>
-      <c r="AG38" s="63"/>
-      <c r="AH38" s="63"/>
-      <c r="AI38" s="63"/>
-      <c r="AJ38" s="63"/>
-      <c r="AK38" s="63"/>
-      <c r="AL38" s="63"/>
-      <c r="AM38" s="63"/>
-      <c r="AN38" s="63"/>
-      <c r="AO38" s="63"/>
-      <c r="AP38" s="63"/>
-      <c r="AQ38" s="63"/>
-      <c r="AR38" s="63"/>
-      <c r="AS38" s="63"/>
-      <c r="AT38" s="63"/>
-      <c r="AU38" s="63"/>
-      <c r="AV38" s="63"/>
-      <c r="AW38" s="63"/>
-      <c r="AX38" s="63"/>
-      <c r="AY38" s="63"/>
-      <c r="AZ38" s="63"/>
-      <c r="BA38" s="63"/>
-      <c r="BB38" s="63"/>
-      <c r="BC38" s="63"/>
-      <c r="BD38" s="63"/>
-      <c r="BG38" s="60"/>
-      <c r="BH38" s="60"/>
-      <c r="BI38" s="60"/>
-      <c r="BJ38" s="60"/>
+      <c r="A38" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="42"/>
+      <c r="AM38" s="42"/>
+      <c r="AN38" s="42"/>
+      <c r="AO38" s="42"/>
+      <c r="AP38" s="42"/>
+      <c r="AQ38" s="42"/>
+      <c r="AR38" s="42"/>
+      <c r="AS38" s="42"/>
+      <c r="AT38" s="42"/>
+      <c r="AU38" s="42"/>
+      <c r="AV38" s="42"/>
+      <c r="AW38" s="42"/>
+      <c r="AX38" s="42"/>
+      <c r="AY38" s="42"/>
+      <c r="AZ38" s="42"/>
+      <c r="BA38" s="42"/>
+      <c r="BB38" s="42"/>
+      <c r="BC38" s="42"/>
+      <c r="BD38" s="42"/>
+      <c r="BG38" s="39"/>
+      <c r="BH38" s="39"/>
+      <c r="BI38" s="39"/>
+      <c r="BJ38" s="39"/>
     </row>
     <row r="39" spans="1:62" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="217" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="218"/>
-      <c r="C39" s="218"/>
-      <c r="D39" s="218"/>
-      <c r="E39" s="218"/>
-      <c r="F39" s="218"/>
-      <c r="G39" s="218"/>
-      <c r="H39" s="218"/>
-      <c r="I39" s="218"/>
-      <c r="J39" s="218"/>
-      <c r="K39" s="218"/>
-      <c r="L39" s="218"/>
-      <c r="M39" s="218"/>
-      <c r="N39" s="218"/>
-      <c r="O39" s="218"/>
-      <c r="P39" s="218"/>
-      <c r="Q39" s="218"/>
-      <c r="R39" s="218"/>
-      <c r="S39" s="218"/>
-      <c r="T39" s="218"/>
-      <c r="U39" s="218"/>
-      <c r="V39" s="218"/>
-      <c r="W39" s="218"/>
-      <c r="X39" s="218"/>
-      <c r="Y39" s="218"/>
-      <c r="Z39" s="218"/>
-      <c r="AA39" s="218"/>
-      <c r="AB39" s="218"/>
-      <c r="AC39" s="218"/>
-      <c r="AD39" s="218"/>
-      <c r="AE39" s="218"/>
-      <c r="AF39" s="218"/>
-      <c r="AG39" s="218"/>
-      <c r="AH39" s="218"/>
-      <c r="AI39" s="218"/>
-      <c r="AJ39" s="218"/>
-      <c r="AK39" s="218"/>
-      <c r="AL39" s="218"/>
-      <c r="AM39" s="218"/>
-      <c r="AN39" s="218"/>
-      <c r="AO39" s="218"/>
-      <c r="AP39" s="218"/>
-      <c r="AQ39" s="218"/>
-      <c r="AR39" s="218"/>
-      <c r="AS39" s="218"/>
-      <c r="AT39" s="218"/>
-      <c r="AU39" s="218"/>
-      <c r="AV39" s="218"/>
-      <c r="AW39" s="218"/>
-      <c r="AX39" s="218"/>
-      <c r="AY39" s="218"/>
-      <c r="AZ39" s="218"/>
-      <c r="BA39" s="218"/>
-      <c r="BB39" s="218"/>
-      <c r="BC39" s="218"/>
-      <c r="BD39" s="218"/>
-      <c r="BE39" s="218"/>
-      <c r="BF39" s="218"/>
-      <c r="BG39" s="218"/>
-      <c r="BH39" s="218"/>
-      <c r="BI39" s="218"/>
-      <c r="BJ39" s="219"/>
+      <c r="A39" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="75"/>
+      <c r="V39" s="75"/>
+      <c r="W39" s="75"/>
+      <c r="X39" s="75"/>
+      <c r="Y39" s="75"/>
+      <c r="Z39" s="75"/>
+      <c r="AA39" s="75"/>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="75"/>
+      <c r="AD39" s="75"/>
+      <c r="AE39" s="75"/>
+      <c r="AF39" s="75"/>
+      <c r="AG39" s="75"/>
+      <c r="AH39" s="75"/>
+      <c r="AI39" s="75"/>
+      <c r="AJ39" s="75"/>
+      <c r="AK39" s="75"/>
+      <c r="AL39" s="75"/>
+      <c r="AM39" s="75"/>
+      <c r="AN39" s="75"/>
+      <c r="AO39" s="75"/>
+      <c r="AP39" s="75"/>
+      <c r="AQ39" s="75"/>
+      <c r="AR39" s="75"/>
+      <c r="AS39" s="75"/>
+      <c r="AT39" s="75"/>
+      <c r="AU39" s="75"/>
+      <c r="AV39" s="75"/>
+      <c r="AW39" s="75"/>
+      <c r="AX39" s="75"/>
+      <c r="AY39" s="75"/>
+      <c r="AZ39" s="75"/>
+      <c r="BA39" s="75"/>
+      <c r="BB39" s="75"/>
+      <c r="BC39" s="75"/>
+      <c r="BD39" s="75"/>
+      <c r="BE39" s="75"/>
+      <c r="BF39" s="75"/>
+      <c r="BG39" s="75"/>
+      <c r="BH39" s="75"/>
+      <c r="BI39" s="75"/>
+      <c r="BJ39" s="76"/>
     </row>
     <row r="40" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="251" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="230"/>
-      <c r="C40" s="230"/>
-      <c r="D40" s="230"/>
-      <c r="E40" s="230"/>
-      <c r="F40" s="230"/>
-      <c r="G40" s="230"/>
-      <c r="H40" s="230"/>
-      <c r="I40" s="230"/>
-      <c r="J40" s="230"/>
-      <c r="K40" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
-      <c r="N40" s="98"/>
-      <c r="O40" s="98"/>
-      <c r="P40" s="98"/>
-      <c r="Q40" s="98"/>
-      <c r="R40" s="98"/>
-      <c r="S40" s="98"/>
-      <c r="T40" s="98"/>
-      <c r="U40" s="98"/>
-      <c r="V40" s="98"/>
-      <c r="W40" s="98"/>
-      <c r="X40" s="98"/>
-      <c r="Y40" s="98"/>
-      <c r="Z40" s="98"/>
-      <c r="AA40" s="99"/>
-      <c r="AB40" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC40" s="104"/>
-      <c r="AD40" s="104"/>
-      <c r="AE40" s="61"/>
-      <c r="AF40" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG40" s="131"/>
-      <c r="AH40" s="131"/>
-      <c r="AI40" s="131"/>
-      <c r="AJ40" s="131"/>
-      <c r="AK40" s="131"/>
-      <c r="AL40" s="131"/>
-      <c r="AM40" s="131"/>
-      <c r="AN40" s="131"/>
-      <c r="AO40" s="131"/>
-      <c r="AP40" s="131"/>
-      <c r="AQ40" s="131"/>
-      <c r="AR40" s="131"/>
-      <c r="AS40" s="131"/>
-      <c r="AT40" s="127" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU40" s="128"/>
-      <c r="AV40" s="128"/>
-      <c r="AW40" s="128"/>
-      <c r="AX40" s="128"/>
-      <c r="AY40" s="128"/>
-      <c r="AZ40" s="128"/>
-      <c r="BA40" s="128"/>
-      <c r="BB40" s="128"/>
-      <c r="BC40" s="128"/>
-      <c r="BD40" s="128"/>
-      <c r="BE40" s="128"/>
-      <c r="BF40" s="128"/>
-      <c r="BG40" s="128"/>
-      <c r="BH40" s="128"/>
-      <c r="BI40" s="129"/>
-      <c r="BJ40" s="64" t="s">
-        <v>52</v>
+      <c r="A40" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="87"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="87"/>
+      <c r="Y40" s="87"/>
+      <c r="Z40" s="87"/>
+      <c r="AA40" s="88"/>
+      <c r="AB40" s="210" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC40" s="210"/>
+      <c r="AD40" s="210"/>
+      <c r="AE40" s="40"/>
+      <c r="AF40" s="180" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG40" s="180"/>
+      <c r="AH40" s="180"/>
+      <c r="AI40" s="180"/>
+      <c r="AJ40" s="180"/>
+      <c r="AK40" s="180"/>
+      <c r="AL40" s="180"/>
+      <c r="AM40" s="180"/>
+      <c r="AN40" s="180"/>
+      <c r="AO40" s="180"/>
+      <c r="AP40" s="180"/>
+      <c r="AQ40" s="180"/>
+      <c r="AR40" s="180"/>
+      <c r="AS40" s="180"/>
+      <c r="AT40" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU40" s="72"/>
+      <c r="AV40" s="72"/>
+      <c r="AW40" s="72"/>
+      <c r="AX40" s="72"/>
+      <c r="AY40" s="72"/>
+      <c r="AZ40" s="72"/>
+      <c r="BA40" s="72"/>
+      <c r="BB40" s="72"/>
+      <c r="BC40" s="72"/>
+      <c r="BD40" s="72"/>
+      <c r="BE40" s="72"/>
+      <c r="BF40" s="72"/>
+      <c r="BG40" s="72"/>
+      <c r="BH40" s="72"/>
+      <c r="BI40" s="73"/>
+      <c r="BJ40" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="228" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="98"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="98"/>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="98"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
-      <c r="U41" s="98"/>
-      <c r="V41" s="98"/>
-      <c r="W41" s="98"/>
-      <c r="X41" s="98"/>
-      <c r="Y41" s="98"/>
-      <c r="Z41" s="98"/>
-      <c r="AA41" s="99"/>
-      <c r="AB41" s="221"/>
-      <c r="AC41" s="221"/>
-      <c r="AD41" s="221"/>
-      <c r="AE41" s="44"/>
-      <c r="AF41" s="125" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG41" s="125"/>
-      <c r="AH41" s="125"/>
-      <c r="AI41" s="125"/>
-      <c r="AJ41" s="125"/>
-      <c r="AK41" s="125"/>
-      <c r="AL41" s="125"/>
-      <c r="AM41" s="125"/>
-      <c r="AN41" s="125"/>
-      <c r="AO41" s="125"/>
-      <c r="AP41" s="125"/>
-      <c r="AQ41" s="125"/>
-      <c r="AR41" s="125"/>
-      <c r="AS41" s="125"/>
-      <c r="AT41" s="124" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU41" s="124"/>
-      <c r="AV41" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW41" s="46"/>
-      <c r="AX41" s="46"/>
-      <c r="AY41" s="46"/>
-      <c r="AZ41" s="46"/>
-      <c r="BA41" s="46"/>
-      <c r="BB41" s="46"/>
-      <c r="BC41" s="46"/>
-      <c r="BD41" s="47"/>
-      <c r="BE41" s="48"/>
-      <c r="BF41" s="48"/>
-      <c r="BG41" s="48"/>
-      <c r="BH41" s="48"/>
-      <c r="BI41" s="49"/>
-      <c r="BJ41" s="50"/>
+      <c r="A41" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="87"/>
+      <c r="V41" s="87"/>
+      <c r="W41" s="87"/>
+      <c r="X41" s="87"/>
+      <c r="Y41" s="87"/>
+      <c r="Z41" s="87"/>
+      <c r="AA41" s="88"/>
+      <c r="AB41" s="78"/>
+      <c r="AC41" s="78"/>
+      <c r="AD41" s="78"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG41" s="85"/>
+      <c r="AH41" s="85"/>
+      <c r="AI41" s="85"/>
+      <c r="AJ41" s="85"/>
+      <c r="AK41" s="85"/>
+      <c r="AL41" s="85"/>
+      <c r="AM41" s="85"/>
+      <c r="AN41" s="85"/>
+      <c r="AO41" s="85"/>
+      <c r="AP41" s="85"/>
+      <c r="AQ41" s="85"/>
+      <c r="AR41" s="85"/>
+      <c r="AS41" s="85"/>
+      <c r="AT41" s="178" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU41" s="178"/>
+      <c r="AV41" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW41" s="25"/>
+      <c r="AX41" s="25"/>
+      <c r="AY41" s="25"/>
+      <c r="AZ41" s="25"/>
+      <c r="BA41" s="25"/>
+      <c r="BB41" s="25"/>
+      <c r="BC41" s="25"/>
+      <c r="BD41" s="26"/>
+      <c r="BE41" s="27"/>
+      <c r="BF41" s="27"/>
+      <c r="BG41" s="27"/>
+      <c r="BH41" s="27"/>
+      <c r="BI41" s="28"/>
+      <c r="BJ41" s="29"/>
     </row>
     <row r="42" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="222" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="223"/>
-      <c r="C42" s="223"/>
-      <c r="D42" s="223"/>
-      <c r="E42" s="223"/>
-      <c r="F42" s="223"/>
-      <c r="G42" s="223"/>
-      <c r="H42" s="223"/>
-      <c r="I42" s="223"/>
-      <c r="J42" s="224"/>
-      <c r="K42" s="230"/>
-      <c r="L42" s="230"/>
-      <c r="M42" s="220" t="s">
-        <v>35</v>
-      </c>
-      <c r="N42" s="220"/>
-      <c r="O42" s="220"/>
-      <c r="P42" s="220"/>
-      <c r="Q42" s="220"/>
-      <c r="R42" s="220"/>
-      <c r="S42" s="220"/>
-      <c r="T42" s="220"/>
-      <c r="U42" s="220"/>
-      <c r="V42" s="220"/>
-      <c r="W42" s="220"/>
-      <c r="X42" s="220"/>
-      <c r="Y42" s="220"/>
-      <c r="Z42" s="220"/>
-      <c r="AA42" s="220"/>
-      <c r="AB42" s="132"/>
-      <c r="AC42" s="132"/>
-      <c r="AD42" s="132"/>
-      <c r="AE42" s="23"/>
-      <c r="AF42" s="246" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG42" s="247"/>
-      <c r="AH42" s="247"/>
-      <c r="AI42" s="247"/>
-      <c r="AJ42" s="247"/>
-      <c r="AK42" s="247"/>
-      <c r="AL42" s="247"/>
-      <c r="AM42" s="247"/>
-      <c r="AN42" s="247"/>
-      <c r="AO42" s="247"/>
-      <c r="AP42" s="247"/>
-      <c r="AQ42" s="247"/>
-      <c r="AR42" s="247"/>
-      <c r="AS42" s="248"/>
-      <c r="AT42" s="124" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU42" s="124"/>
-      <c r="AV42" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW42" s="46"/>
-      <c r="AX42" s="46"/>
-      <c r="AY42" s="46"/>
-      <c r="AZ42" s="46"/>
-      <c r="BA42" s="46"/>
-      <c r="BB42" s="46"/>
-      <c r="BC42" s="46"/>
-      <c r="BD42" s="47"/>
-      <c r="BE42" s="48"/>
-      <c r="BF42" s="48"/>
-      <c r="BG42" s="48"/>
-      <c r="BH42" s="48"/>
-      <c r="BI42" s="49"/>
-      <c r="BJ42" s="51"/>
+      <c r="A42" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="77"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="77"/>
+      <c r="V42" s="77"/>
+      <c r="W42" s="77"/>
+      <c r="X42" s="77"/>
+      <c r="Y42" s="77"/>
+      <c r="Z42" s="77"/>
+      <c r="AA42" s="77"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG42" s="63"/>
+      <c r="AH42" s="63"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="63"/>
+      <c r="AK42" s="63"/>
+      <c r="AL42" s="63"/>
+      <c r="AM42" s="63"/>
+      <c r="AN42" s="63"/>
+      <c r="AO42" s="63"/>
+      <c r="AP42" s="63"/>
+      <c r="AQ42" s="63"/>
+      <c r="AR42" s="63"/>
+      <c r="AS42" s="64"/>
+      <c r="AT42" s="178" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU42" s="178"/>
+      <c r="AV42" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW42" s="25"/>
+      <c r="AX42" s="25"/>
+      <c r="AY42" s="25"/>
+      <c r="AZ42" s="25"/>
+      <c r="BA42" s="25"/>
+      <c r="BB42" s="25"/>
+      <c r="BC42" s="25"/>
+      <c r="BD42" s="26"/>
+      <c r="BE42" s="27"/>
+      <c r="BF42" s="27"/>
+      <c r="BG42" s="27"/>
+      <c r="BH42" s="27"/>
+      <c r="BI42" s="28"/>
+      <c r="BJ42" s="30"/>
     </row>
     <row r="43" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="222"/>
-      <c r="B43" s="223"/>
-      <c r="C43" s="223"/>
-      <c r="D43" s="223"/>
-      <c r="E43" s="223"/>
-      <c r="F43" s="223"/>
-      <c r="G43" s="223"/>
-      <c r="H43" s="223"/>
-      <c r="I43" s="223"/>
-      <c r="J43" s="224"/>
-      <c r="K43" s="132" t="s">
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" s="59"/>
+      <c r="M43" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="65"/>
+      <c r="W43" s="65"/>
+      <c r="X43" s="65"/>
+      <c r="Y43" s="65"/>
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="65"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG43" s="63"/>
+      <c r="AH43" s="63"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="63"/>
+      <c r="AK43" s="63"/>
+      <c r="AL43" s="63"/>
+      <c r="AM43" s="63"/>
+      <c r="AN43" s="63"/>
+      <c r="AO43" s="63"/>
+      <c r="AP43" s="63"/>
+      <c r="AQ43" s="63"/>
+      <c r="AR43" s="63"/>
+      <c r="AS43" s="64"/>
+      <c r="AT43" s="178" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU43" s="178"/>
+      <c r="AV43" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L43" s="132"/>
-      <c r="M43" s="134" t="s">
-        <v>36</v>
-      </c>
-      <c r="N43" s="134"/>
-      <c r="O43" s="134"/>
-      <c r="P43" s="134"/>
-      <c r="Q43" s="134"/>
-      <c r="R43" s="134"/>
-      <c r="S43" s="134"/>
-      <c r="T43" s="134"/>
-      <c r="U43" s="134"/>
-      <c r="V43" s="134"/>
-      <c r="W43" s="134"/>
-      <c r="X43" s="134"/>
-      <c r="Y43" s="134"/>
-      <c r="Z43" s="134"/>
-      <c r="AA43" s="134"/>
-      <c r="AB43" s="132"/>
-      <c r="AC43" s="132"/>
-      <c r="AD43" s="132"/>
-      <c r="AE43" s="23"/>
-      <c r="AF43" s="246" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG43" s="247"/>
-      <c r="AH43" s="247"/>
-      <c r="AI43" s="247"/>
-      <c r="AJ43" s="247"/>
-      <c r="AK43" s="247"/>
-      <c r="AL43" s="247"/>
-      <c r="AM43" s="247"/>
-      <c r="AN43" s="247"/>
-      <c r="AO43" s="247"/>
-      <c r="AP43" s="247"/>
-      <c r="AQ43" s="247"/>
-      <c r="AR43" s="247"/>
-      <c r="AS43" s="248"/>
-      <c r="AT43" s="124" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU43" s="124"/>
-      <c r="AV43" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW43" s="46"/>
-      <c r="AX43" s="46"/>
-      <c r="AY43" s="46"/>
-      <c r="AZ43" s="46"/>
-      <c r="BA43" s="46"/>
-      <c r="BB43" s="46"/>
-      <c r="BC43" s="46"/>
-      <c r="BD43" s="47"/>
-      <c r="BE43" s="48"/>
-      <c r="BF43" s="48"/>
-      <c r="BG43" s="48"/>
-      <c r="BH43" s="48"/>
-      <c r="BI43" s="49"/>
-      <c r="BJ43" s="51"/>
+      <c r="AW43" s="25"/>
+      <c r="AX43" s="25"/>
+      <c r="AY43" s="25"/>
+      <c r="AZ43" s="25"/>
+      <c r="BA43" s="25"/>
+      <c r="BB43" s="25"/>
+      <c r="BC43" s="25"/>
+      <c r="BD43" s="26"/>
+      <c r="BE43" s="27"/>
+      <c r="BF43" s="27"/>
+      <c r="BG43" s="27"/>
+      <c r="BH43" s="27"/>
+      <c r="BI43" s="28"/>
+      <c r="BJ43" s="30"/>
     </row>
     <row r="44" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="225"/>
-      <c r="B44" s="226"/>
-      <c r="C44" s="226"/>
-      <c r="D44" s="226"/>
-      <c r="E44" s="226"/>
-      <c r="F44" s="226"/>
-      <c r="G44" s="226"/>
-      <c r="H44" s="226"/>
-      <c r="I44" s="226"/>
-      <c r="J44" s="227"/>
-      <c r="K44" s="132" t="s">
-        <v>73</v>
-      </c>
-      <c r="L44" s="132"/>
-      <c r="M44" s="229" t="s">
-        <v>37</v>
-      </c>
-      <c r="N44" s="229"/>
-      <c r="O44" s="229"/>
-      <c r="P44" s="229"/>
-      <c r="Q44" s="229"/>
-      <c r="R44" s="229"/>
-      <c r="S44" s="229"/>
-      <c r="T44" s="229"/>
-      <c r="U44" s="229"/>
-      <c r="V44" s="229"/>
-      <c r="W44" s="229"/>
-      <c r="X44" s="229"/>
-      <c r="Y44" s="229"/>
-      <c r="Z44" s="229"/>
-      <c r="AA44" s="229"/>
-      <c r="AB44" s="132"/>
-      <c r="AC44" s="132"/>
-      <c r="AD44" s="132"/>
-      <c r="AE44" s="23"/>
-      <c r="AF44" s="246" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG44" s="247"/>
-      <c r="AH44" s="247"/>
-      <c r="AI44" s="247"/>
-      <c r="AJ44" s="247"/>
-      <c r="AK44" s="247"/>
-      <c r="AL44" s="247"/>
-      <c r="AM44" s="247"/>
-      <c r="AN44" s="247"/>
-      <c r="AO44" s="247"/>
-      <c r="AP44" s="247"/>
-      <c r="AQ44" s="247"/>
-      <c r="AR44" s="247"/>
-      <c r="AS44" s="248"/>
-      <c r="AT44" s="124"/>
-      <c r="AU44" s="124"/>
-      <c r="AV44" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW44" s="46"/>
-      <c r="AX44" s="46"/>
-      <c r="AY44" s="46"/>
-      <c r="AZ44" s="46"/>
-      <c r="BA44" s="46"/>
-      <c r="BB44" s="46"/>
-      <c r="BC44" s="46"/>
-      <c r="BD44" s="47"/>
-      <c r="BE44" s="48"/>
-      <c r="BF44" s="48"/>
-      <c r="BG44" s="48"/>
-      <c r="BH44" s="48"/>
-      <c r="BI44" s="49"/>
-      <c r="BJ44" s="51"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="L44" s="59"/>
+      <c r="M44" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="89"/>
+      <c r="Z44" s="89"/>
+      <c r="AA44" s="89"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="59"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG44" s="63"/>
+      <c r="AH44" s="63"/>
+      <c r="AI44" s="63"/>
+      <c r="AJ44" s="63"/>
+      <c r="AK44" s="63"/>
+      <c r="AL44" s="63"/>
+      <c r="AM44" s="63"/>
+      <c r="AN44" s="63"/>
+      <c r="AO44" s="63"/>
+      <c r="AP44" s="63"/>
+      <c r="AQ44" s="63"/>
+      <c r="AR44" s="63"/>
+      <c r="AS44" s="64"/>
+      <c r="AT44" s="178"/>
+      <c r="AU44" s="178"/>
+      <c r="AV44" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW44" s="25"/>
+      <c r="AX44" s="25"/>
+      <c r="AY44" s="25"/>
+      <c r="AZ44" s="25"/>
+      <c r="BA44" s="25"/>
+      <c r="BB44" s="25"/>
+      <c r="BC44" s="25"/>
+      <c r="BD44" s="26"/>
+      <c r="BE44" s="27"/>
+      <c r="BF44" s="27"/>
+      <c r="BG44" s="27"/>
+      <c r="BH44" s="27"/>
+      <c r="BI44" s="28"/>
+      <c r="BJ44" s="30"/>
     </row>
     <row r="45" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="L45" s="132"/>
-      <c r="M45" s="134" t="s">
-        <v>38</v>
-      </c>
-      <c r="N45" s="134"/>
-      <c r="O45" s="134"/>
-      <c r="P45" s="134"/>
-      <c r="Q45" s="134"/>
-      <c r="R45" s="134"/>
-      <c r="S45" s="134"/>
-      <c r="T45" s="134"/>
-      <c r="U45" s="134"/>
-      <c r="V45" s="134"/>
-      <c r="W45" s="134"/>
-      <c r="X45" s="134"/>
-      <c r="Y45" s="134"/>
-      <c r="Z45" s="134"/>
-      <c r="AA45" s="134"/>
-      <c r="AB45" s="132"/>
-      <c r="AC45" s="132"/>
-      <c r="AD45" s="132"/>
-      <c r="AE45" s="23"/>
-      <c r="AF45" s="246" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG45" s="247"/>
-      <c r="AH45" s="247"/>
-      <c r="AI45" s="247"/>
-      <c r="AJ45" s="247"/>
-      <c r="AK45" s="247"/>
-      <c r="AL45" s="247"/>
-      <c r="AM45" s="247"/>
-      <c r="AN45" s="247"/>
-      <c r="AO45" s="247"/>
-      <c r="AP45" s="247"/>
-      <c r="AQ45" s="247"/>
-      <c r="AR45" s="247"/>
-      <c r="AS45" s="248"/>
-      <c r="AT45" s="124"/>
-      <c r="AU45" s="124"/>
-      <c r="AV45" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW45" s="46"/>
-      <c r="AX45" s="46"/>
-      <c r="AY45" s="46"/>
-      <c r="AZ45" s="46"/>
-      <c r="BA45" s="46"/>
-      <c r="BB45" s="46"/>
-      <c r="BC45" s="46"/>
-      <c r="BD45" s="47"/>
-      <c r="BE45" s="48"/>
-      <c r="BF45" s="48"/>
-      <c r="BG45" s="48"/>
-      <c r="BH45" s="48"/>
-      <c r="BI45" s="49"/>
-      <c r="BJ45" s="51"/>
+      <c r="A45" s="171" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="59"/>
+      <c r="M45" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="65"/>
+      <c r="AB45" s="59"/>
+      <c r="AC45" s="59"/>
+      <c r="AD45" s="59"/>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="63"/>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="63"/>
+      <c r="AK45" s="63"/>
+      <c r="AL45" s="63"/>
+      <c r="AM45" s="63"/>
+      <c r="AN45" s="63"/>
+      <c r="AO45" s="63"/>
+      <c r="AP45" s="63"/>
+      <c r="AQ45" s="63"/>
+      <c r="AR45" s="63"/>
+      <c r="AS45" s="64"/>
+      <c r="AT45" s="178"/>
+      <c r="AU45" s="178"/>
+      <c r="AV45" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW45" s="25"/>
+      <c r="AX45" s="25"/>
+      <c r="AY45" s="25"/>
+      <c r="AZ45" s="25"/>
+      <c r="BA45" s="25"/>
+      <c r="BB45" s="25"/>
+      <c r="BC45" s="25"/>
+      <c r="BD45" s="26"/>
+      <c r="BE45" s="27"/>
+      <c r="BF45" s="27"/>
+      <c r="BG45" s="27"/>
+      <c r="BH45" s="27"/>
+      <c r="BI45" s="28"/>
+      <c r="BJ45" s="30"/>
     </row>
     <row r="46" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="133" t="s">
+      <c r="A46" s="171" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="65"/>
+      <c r="U46" s="65"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="65"/>
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="65"/>
+      <c r="AA46" s="65"/>
+      <c r="AB46" s="59"/>
+      <c r="AC46" s="59"/>
+      <c r="AD46" s="59"/>
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG46" s="85"/>
+      <c r="AH46" s="85"/>
+      <c r="AI46" s="85"/>
+      <c r="AJ46" s="85"/>
+      <c r="AK46" s="85"/>
+      <c r="AL46" s="85"/>
+      <c r="AM46" s="85"/>
+      <c r="AN46" s="85"/>
+      <c r="AO46" s="85"/>
+      <c r="AP46" s="85"/>
+      <c r="AQ46" s="85"/>
+      <c r="AR46" s="85"/>
+      <c r="AS46" s="85"/>
+      <c r="AT46" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU46" s="177"/>
+      <c r="AV46" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="134" t="s">
-        <v>39</v>
-      </c>
-      <c r="N46" s="134"/>
-      <c r="O46" s="134"/>
-      <c r="P46" s="134"/>
-      <c r="Q46" s="134"/>
-      <c r="R46" s="134"/>
-      <c r="S46" s="134"/>
-      <c r="T46" s="134"/>
-      <c r="U46" s="134"/>
-      <c r="V46" s="134"/>
-      <c r="W46" s="134"/>
-      <c r="X46" s="134"/>
-      <c r="Y46" s="134"/>
-      <c r="Z46" s="134"/>
-      <c r="AA46" s="134"/>
-      <c r="AB46" s="132"/>
-      <c r="AC46" s="132"/>
-      <c r="AD46" s="132"/>
-      <c r="AE46" s="23"/>
-      <c r="AF46" s="125" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG46" s="125"/>
-      <c r="AH46" s="125"/>
-      <c r="AI46" s="125"/>
-      <c r="AJ46" s="125"/>
-      <c r="AK46" s="125"/>
-      <c r="AL46" s="125"/>
-      <c r="AM46" s="125"/>
-      <c r="AN46" s="125"/>
-      <c r="AO46" s="125"/>
-      <c r="AP46" s="125"/>
-      <c r="AQ46" s="125"/>
-      <c r="AR46" s="125"/>
-      <c r="AS46" s="125"/>
-      <c r="AT46" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU46" s="123"/>
-      <c r="AV46" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW46" s="46"/>
-      <c r="AX46" s="46"/>
-      <c r="AY46" s="46"/>
-      <c r="AZ46" s="46"/>
-      <c r="BA46" s="46"/>
-      <c r="BB46" s="46"/>
-      <c r="BC46" s="46"/>
-      <c r="BD46" s="47"/>
-      <c r="BE46" s="48"/>
-      <c r="BF46" s="48"/>
-      <c r="BG46" s="48"/>
-      <c r="BH46" s="48"/>
-      <c r="BI46" s="49"/>
-      <c r="BJ46" s="52"/>
+      <c r="AW46" s="25"/>
+      <c r="AX46" s="25"/>
+      <c r="AY46" s="25"/>
+      <c r="AZ46" s="25"/>
+      <c r="BA46" s="25"/>
+      <c r="BB46" s="25"/>
+      <c r="BC46" s="25"/>
+      <c r="BD46" s="26"/>
+      <c r="BE46" s="27"/>
+      <c r="BF46" s="27"/>
+      <c r="BG46" s="27"/>
+      <c r="BH46" s="27"/>
+      <c r="BI46" s="28"/>
+      <c r="BJ46" s="31"/>
     </row>
     <row r="47" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="133" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="134"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="132" t="s">
-        <v>54</v>
-      </c>
-      <c r="L47" s="132"/>
-      <c r="M47" s="134" t="s">
-        <v>58</v>
-      </c>
-      <c r="N47" s="134"/>
-      <c r="O47" s="134"/>
-      <c r="P47" s="134"/>
-      <c r="Q47" s="134"/>
-      <c r="R47" s="134"/>
-      <c r="S47" s="134"/>
-      <c r="T47" s="134"/>
-      <c r="U47" s="134"/>
-      <c r="V47" s="134"/>
-      <c r="W47" s="134"/>
-      <c r="X47" s="134"/>
-      <c r="Y47" s="134"/>
-      <c r="Z47" s="134"/>
-      <c r="AA47" s="134"/>
-      <c r="AB47" s="132"/>
-      <c r="AC47" s="132"/>
-      <c r="AD47" s="132"/>
-      <c r="AE47" s="23"/>
-      <c r="AF47" s="125"/>
-      <c r="AG47" s="125"/>
-      <c r="AH47" s="125"/>
-      <c r="AI47" s="125"/>
-      <c r="AJ47" s="125"/>
-      <c r="AK47" s="125"/>
-      <c r="AL47" s="125"/>
-      <c r="AM47" s="125"/>
-      <c r="AN47" s="125"/>
-      <c r="AO47" s="125"/>
-      <c r="AP47" s="125"/>
-      <c r="AQ47" s="125"/>
-      <c r="AR47" s="125"/>
-      <c r="AS47" s="125"/>
-      <c r="AT47" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU47" s="123"/>
-      <c r="AV47" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW47" s="46"/>
-      <c r="AX47" s="46"/>
-      <c r="AY47" s="46"/>
-      <c r="AZ47" s="46"/>
-      <c r="BA47" s="46"/>
-      <c r="BB47" s="46"/>
-      <c r="BC47" s="46"/>
-      <c r="BD47" s="47"/>
-      <c r="BE47" s="48"/>
-      <c r="BF47" s="48"/>
-      <c r="BG47" s="48"/>
-      <c r="BH47" s="48"/>
-      <c r="BI47" s="49"/>
-      <c r="BJ47" s="53"/>
+      <c r="A47" s="171" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="L47" s="59"/>
+      <c r="M47" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="65"/>
+      <c r="S47" s="65"/>
+      <c r="T47" s="65"/>
+      <c r="U47" s="65"/>
+      <c r="V47" s="65"/>
+      <c r="W47" s="65"/>
+      <c r="X47" s="65"/>
+      <c r="Y47" s="65"/>
+      <c r="Z47" s="65"/>
+      <c r="AA47" s="65"/>
+      <c r="AB47" s="59"/>
+      <c r="AC47" s="59"/>
+      <c r="AD47" s="59"/>
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="85"/>
+      <c r="AG47" s="85"/>
+      <c r="AH47" s="85"/>
+      <c r="AI47" s="85"/>
+      <c r="AJ47" s="85"/>
+      <c r="AK47" s="85"/>
+      <c r="AL47" s="85"/>
+      <c r="AM47" s="85"/>
+      <c r="AN47" s="85"/>
+      <c r="AO47" s="85"/>
+      <c r="AP47" s="85"/>
+      <c r="AQ47" s="85"/>
+      <c r="AR47" s="85"/>
+      <c r="AS47" s="85"/>
+      <c r="AT47" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU47" s="177"/>
+      <c r="AV47" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW47" s="25"/>
+      <c r="AX47" s="25"/>
+      <c r="AY47" s="25"/>
+      <c r="AZ47" s="25"/>
+      <c r="BA47" s="25"/>
+      <c r="BB47" s="25"/>
+      <c r="BC47" s="25"/>
+      <c r="BD47" s="26"/>
+      <c r="BE47" s="27"/>
+      <c r="BF47" s="27"/>
+      <c r="BG47" s="27"/>
+      <c r="BH47" s="27"/>
+      <c r="BI47" s="28"/>
+      <c r="BJ47" s="32"/>
     </row>
     <row r="48" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="133" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="134"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="134"/>
-      <c r="I48" s="134"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="L48" s="132"/>
-      <c r="M48" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="N48" s="134"/>
-      <c r="O48" s="134"/>
-      <c r="P48" s="134"/>
-      <c r="Q48" s="134"/>
-      <c r="R48" s="134"/>
-      <c r="S48" s="134"/>
-      <c r="T48" s="134"/>
-      <c r="U48" s="134"/>
-      <c r="V48" s="134"/>
-      <c r="W48" s="134"/>
-      <c r="X48" s="134"/>
-      <c r="Y48" s="134"/>
-      <c r="Z48" s="134"/>
-      <c r="AA48" s="134"/>
-      <c r="AB48" s="132"/>
-      <c r="AC48" s="132"/>
-      <c r="AD48" s="132"/>
-      <c r="AE48" s="245" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF48" s="245"/>
-      <c r="AG48" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH48" s="41"/>
-      <c r="AI48" s="41"/>
-      <c r="AJ48" s="41"/>
-      <c r="AK48" s="41"/>
-      <c r="AL48" s="41"/>
-      <c r="AM48" s="41"/>
-      <c r="AN48" s="41"/>
-      <c r="AO48" s="41"/>
-      <c r="AP48" s="41"/>
-      <c r="AQ48" s="41"/>
-      <c r="AR48" s="41"/>
-      <c r="AS48" s="41"/>
-      <c r="AT48" s="41"/>
-      <c r="AU48" s="41"/>
-      <c r="AV48" s="41"/>
-      <c r="AW48" s="41"/>
-      <c r="AX48" s="41"/>
-      <c r="AY48" s="41"/>
-      <c r="AZ48" s="41"/>
-      <c r="BA48" s="41"/>
-      <c r="BB48" s="41"/>
-      <c r="BC48" s="41"/>
-      <c r="BD48" s="41"/>
-      <c r="BE48" s="41"/>
-      <c r="BF48" s="41"/>
-      <c r="BG48" s="41"/>
-      <c r="BH48" s="41"/>
-      <c r="BI48" s="40"/>
-      <c r="BJ48" s="54"/>
+      <c r="A48" s="171" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" s="59"/>
+      <c r="M48" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="65"/>
+      <c r="U48" s="65"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="65"/>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="65"/>
+      <c r="Z48" s="65"/>
+      <c r="AA48" s="65"/>
+      <c r="AB48" s="59"/>
+      <c r="AC48" s="59"/>
+      <c r="AD48" s="59"/>
+      <c r="AE48" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF48" s="61"/>
+      <c r="AG48" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="20"/>
+      <c r="AN48" s="20"/>
+      <c r="AO48" s="20"/>
+      <c r="AP48" s="20"/>
+      <c r="AQ48" s="20"/>
+      <c r="AR48" s="20"/>
+      <c r="AS48" s="20"/>
+      <c r="AT48" s="20"/>
+      <c r="AU48" s="20"/>
+      <c r="AV48" s="20"/>
+      <c r="AW48" s="20"/>
+      <c r="AX48" s="20"/>
+      <c r="AY48" s="20"/>
+      <c r="AZ48" s="20"/>
+      <c r="BA48" s="20"/>
+      <c r="BB48" s="20"/>
+      <c r="BC48" s="20"/>
+      <c r="BD48" s="20"/>
+      <c r="BE48" s="20"/>
+      <c r="BF48" s="20"/>
+      <c r="BG48" s="20"/>
+      <c r="BH48" s="20"/>
+      <c r="BI48" s="19"/>
+      <c r="BJ48" s="33"/>
     </row>
     <row r="49" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="133" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="L49" s="132"/>
-      <c r="M49" s="134" t="s">
-        <v>85</v>
-      </c>
-      <c r="N49" s="134"/>
-      <c r="O49" s="134"/>
-      <c r="P49" s="134"/>
-      <c r="Q49" s="134"/>
-      <c r="R49" s="134"/>
-      <c r="S49" s="134"/>
-      <c r="T49" s="134"/>
-      <c r="U49" s="134"/>
-      <c r="V49" s="134"/>
-      <c r="W49" s="134"/>
-      <c r="X49" s="134"/>
-      <c r="Y49" s="134"/>
-      <c r="Z49" s="134"/>
-      <c r="AA49" s="134"/>
-      <c r="AB49" s="132"/>
-      <c r="AC49" s="132"/>
-      <c r="AD49" s="132"/>
-      <c r="AE49" s="245"/>
-      <c r="AF49" s="245"/>
-      <c r="AG49" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="41"/>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="41"/>
-      <c r="AN49" s="41"/>
-      <c r="AO49" s="41"/>
-      <c r="AP49" s="41"/>
-      <c r="AQ49" s="41"/>
-      <c r="AR49" s="41"/>
-      <c r="AS49" s="41"/>
-      <c r="AT49" s="41"/>
-      <c r="AU49" s="41"/>
-      <c r="AV49" s="41"/>
-      <c r="AW49" s="41"/>
-      <c r="AX49" s="41"/>
-      <c r="AY49" s="41"/>
-      <c r="AZ49" s="41"/>
-      <c r="BA49" s="41"/>
-      <c r="BB49" s="41"/>
-      <c r="BC49" s="41"/>
-      <c r="BD49" s="41"/>
-      <c r="BE49" s="41"/>
-      <c r="BF49" s="41"/>
-      <c r="BG49" s="40"/>
-      <c r="BH49" s="41"/>
-      <c r="BI49" s="40"/>
-      <c r="BJ49" s="54"/>
+      <c r="A49" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="L49" s="59"/>
+      <c r="M49" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
+      <c r="T49" s="65"/>
+      <c r="U49" s="65"/>
+      <c r="V49" s="65"/>
+      <c r="W49" s="65"/>
+      <c r="X49" s="65"/>
+      <c r="Y49" s="65"/>
+      <c r="Z49" s="65"/>
+      <c r="AA49" s="65"/>
+      <c r="AB49" s="59"/>
+      <c r="AC49" s="59"/>
+      <c r="AD49" s="59"/>
+      <c r="AE49" s="61"/>
+      <c r="AF49" s="61"/>
+      <c r="AG49" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH49" s="20"/>
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="20"/>
+      <c r="AM49" s="20"/>
+      <c r="AN49" s="20"/>
+      <c r="AO49" s="20"/>
+      <c r="AP49" s="20"/>
+      <c r="AQ49" s="20"/>
+      <c r="AR49" s="20"/>
+      <c r="AS49" s="20"/>
+      <c r="AT49" s="20"/>
+      <c r="AU49" s="20"/>
+      <c r="AV49" s="20"/>
+      <c r="AW49" s="20"/>
+      <c r="AX49" s="20"/>
+      <c r="AY49" s="20"/>
+      <c r="AZ49" s="20"/>
+      <c r="BA49" s="20"/>
+      <c r="BB49" s="20"/>
+      <c r="BC49" s="20"/>
+      <c r="BD49" s="20"/>
+      <c r="BE49" s="20"/>
+      <c r="BF49" s="20"/>
+      <c r="BG49" s="19"/>
+      <c r="BH49" s="20"/>
+      <c r="BI49" s="19"/>
+      <c r="BJ49" s="33"/>
     </row>
     <row r="50" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="133" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="134"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="132" t="s">
+      <c r="A50" s="171" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="L50" s="59"/>
+      <c r="M50" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="L50" s="132"/>
-      <c r="M50" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="N50" s="135"/>
-      <c r="O50" s="135"/>
-      <c r="P50" s="135"/>
-      <c r="Q50" s="135"/>
-      <c r="R50" s="135"/>
-      <c r="S50" s="135"/>
-      <c r="T50" s="135"/>
-      <c r="U50" s="135"/>
-      <c r="V50" s="135"/>
-      <c r="W50" s="135"/>
-      <c r="X50" s="135"/>
-      <c r="Y50" s="135"/>
-      <c r="Z50" s="135"/>
-      <c r="AA50" s="135"/>
-      <c r="AB50" s="132"/>
-      <c r="AC50" s="132"/>
-      <c r="AD50" s="132"/>
-      <c r="AE50" s="41"/>
-      <c r="AF50" s="59"/>
-      <c r="AG50" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH50" s="41"/>
-      <c r="AI50" s="41"/>
-      <c r="AJ50" s="41"/>
-      <c r="AK50" s="41"/>
-      <c r="AL50" s="41"/>
-      <c r="AM50" s="41"/>
-      <c r="AN50" s="41"/>
-      <c r="AO50" s="41"/>
-      <c r="AP50" s="41"/>
-      <c r="AQ50" s="41"/>
-      <c r="AR50" s="41"/>
-      <c r="AS50" s="41"/>
-      <c r="AT50" s="41"/>
-      <c r="AU50" s="41"/>
-      <c r="AV50" s="41"/>
-      <c r="AW50" s="41"/>
-      <c r="AX50" s="41"/>
-      <c r="AY50" s="41"/>
-      <c r="AZ50" s="41"/>
-      <c r="BA50" s="40"/>
-      <c r="BB50" s="41"/>
-      <c r="BC50" s="41"/>
-      <c r="BD50" s="41"/>
-      <c r="BE50" s="41"/>
-      <c r="BF50" s="41"/>
-      <c r="BG50" s="41"/>
-      <c r="BH50" s="41"/>
-      <c r="BI50" s="40"/>
-      <c r="BJ50" s="54"/>
+      <c r="N50" s="172"/>
+      <c r="O50" s="172"/>
+      <c r="P50" s="172"/>
+      <c r="Q50" s="172"/>
+      <c r="R50" s="172"/>
+      <c r="S50" s="172"/>
+      <c r="T50" s="172"/>
+      <c r="U50" s="172"/>
+      <c r="V50" s="172"/>
+      <c r="W50" s="172"/>
+      <c r="X50" s="172"/>
+      <c r="Y50" s="172"/>
+      <c r="Z50" s="172"/>
+      <c r="AA50" s="172"/>
+      <c r="AB50" s="59"/>
+      <c r="AC50" s="59"/>
+      <c r="AD50" s="59"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="20"/>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="20"/>
+      <c r="AM50" s="20"/>
+      <c r="AN50" s="20"/>
+      <c r="AO50" s="20"/>
+      <c r="AP50" s="20"/>
+      <c r="AQ50" s="20"/>
+      <c r="AR50" s="20"/>
+      <c r="AS50" s="20"/>
+      <c r="AT50" s="20"/>
+      <c r="AU50" s="20"/>
+      <c r="AV50" s="20"/>
+      <c r="AW50" s="20"/>
+      <c r="AX50" s="20"/>
+      <c r="AY50" s="20"/>
+      <c r="AZ50" s="20"/>
+      <c r="BA50" s="19"/>
+      <c r="BB50" s="20"/>
+      <c r="BC50" s="20"/>
+      <c r="BD50" s="20"/>
+      <c r="BE50" s="20"/>
+      <c r="BF50" s="20"/>
+      <c r="BG50" s="20"/>
+      <c r="BH50" s="20"/>
+      <c r="BI50" s="19"/>
+      <c r="BJ50" s="33"/>
     </row>
     <row r="51" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="138"/>
-      <c r="L51" s="138"/>
-      <c r="M51" s="139" t="s">
-        <v>89</v>
-      </c>
-      <c r="N51" s="139"/>
-      <c r="O51" s="139"/>
-      <c r="P51" s="139"/>
-      <c r="Q51" s="139"/>
-      <c r="R51" s="139"/>
-      <c r="S51" s="139"/>
-      <c r="T51" s="139"/>
-      <c r="U51" s="139"/>
-      <c r="V51" s="139"/>
-      <c r="W51" s="139"/>
-      <c r="X51" s="139"/>
-      <c r="Y51" s="139"/>
-      <c r="Z51" s="139"/>
-      <c r="AA51" s="139"/>
-      <c r="AB51" s="138"/>
-      <c r="AC51" s="138"/>
-      <c r="AD51" s="138"/>
-      <c r="AE51" s="55"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="57"/>
-      <c r="AH51" s="55"/>
-      <c r="AI51" s="55"/>
-      <c r="AJ51" s="55"/>
-      <c r="AK51" s="55"/>
-      <c r="AL51" s="55"/>
-      <c r="AM51" s="55"/>
-      <c r="AN51" s="55"/>
-      <c r="AO51" s="55"/>
-      <c r="AP51" s="55"/>
-      <c r="AQ51" s="55"/>
-      <c r="AR51" s="55"/>
-      <c r="AS51" s="55"/>
-      <c r="AT51" s="55"/>
-      <c r="AU51" s="55"/>
-      <c r="AV51" s="55"/>
-      <c r="AW51" s="55"/>
-      <c r="AX51" s="55"/>
-      <c r="AY51" s="55"/>
-      <c r="AZ51" s="55"/>
-      <c r="BA51" s="55"/>
-      <c r="BB51" s="55"/>
-      <c r="BC51" s="55"/>
-      <c r="BD51" s="55"/>
-      <c r="BE51" s="55"/>
-      <c r="BF51" s="55"/>
-      <c r="BG51" s="57"/>
-      <c r="BH51" s="55"/>
-      <c r="BI51" s="57"/>
-      <c r="BJ51" s="58"/>
+      <c r="A51" s="173" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="174"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
+      <c r="E51" s="174"/>
+      <c r="F51" s="174"/>
+      <c r="G51" s="174"/>
+      <c r="H51" s="174"/>
+      <c r="I51" s="174"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="175"/>
+      <c r="L51" s="175"/>
+      <c r="M51" s="176" t="s">
+        <v>86</v>
+      </c>
+      <c r="N51" s="176"/>
+      <c r="O51" s="176"/>
+      <c r="P51" s="176"/>
+      <c r="Q51" s="176"/>
+      <c r="R51" s="176"/>
+      <c r="S51" s="176"/>
+      <c r="T51" s="176"/>
+      <c r="U51" s="176"/>
+      <c r="V51" s="176"/>
+      <c r="W51" s="176"/>
+      <c r="X51" s="176"/>
+      <c r="Y51" s="176"/>
+      <c r="Z51" s="176"/>
+      <c r="AA51" s="176"/>
+      <c r="AB51" s="175"/>
+      <c r="AC51" s="175"/>
+      <c r="AD51" s="175"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="35"/>
+      <c r="AG51" s="36"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
+      <c r="AK51" s="34"/>
+      <c r="AL51" s="34"/>
+      <c r="AM51" s="34"/>
+      <c r="AN51" s="34"/>
+      <c r="AO51" s="34"/>
+      <c r="AP51" s="34"/>
+      <c r="AQ51" s="34"/>
+      <c r="AR51" s="34"/>
+      <c r="AS51" s="34"/>
+      <c r="AT51" s="34"/>
+      <c r="AU51" s="34"/>
+      <c r="AV51" s="34"/>
+      <c r="AW51" s="34"/>
+      <c r="AX51" s="34"/>
+      <c r="AY51" s="34"/>
+      <c r="AZ51" s="34"/>
+      <c r="BA51" s="34"/>
+      <c r="BB51" s="34"/>
+      <c r="BC51" s="34"/>
+      <c r="BD51" s="34"/>
+      <c r="BE51" s="34"/>
+      <c r="BF51" s="34"/>
+      <c r="BG51" s="36"/>
+      <c r="BH51" s="34"/>
+      <c r="BI51" s="36"/>
+      <c r="BJ51" s="37"/>
     </row>
     <row r="52" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
@@ -8486,17 +8452,260 @@
       <c r="BH52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="231">
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="BG4:BG6"/>
-    <mergeCell ref="BH4:BH6"/>
-    <mergeCell ref="BI4:BI6"/>
-    <mergeCell ref="BJ4:BJ6"/>
-    <mergeCell ref="BA12:BB13"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BC8:BJ11"/>
-    <mergeCell ref="BI12:BJ15"/>
-    <mergeCell ref="AY12:AZ13"/>
+  <mergeCells count="286">
+    <mergeCell ref="AC37:AR37"/>
+    <mergeCell ref="AU36:BD37"/>
+    <mergeCell ref="BF36:BJ37"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="I36:N37"/>
+    <mergeCell ref="BG29:BH30"/>
+    <mergeCell ref="BG31:BH32"/>
+    <mergeCell ref="BG33:BH34"/>
+    <mergeCell ref="BI25:BJ26"/>
+    <mergeCell ref="BI27:BJ28"/>
+    <mergeCell ref="BI29:BJ30"/>
+    <mergeCell ref="BI31:BJ32"/>
+    <mergeCell ref="BI33:BJ34"/>
+    <mergeCell ref="AC36:AR36"/>
+    <mergeCell ref="BG23:BH24"/>
+    <mergeCell ref="BI23:BJ24"/>
+    <mergeCell ref="X25:AI26"/>
+    <mergeCell ref="X27:AI28"/>
+    <mergeCell ref="X29:AI30"/>
+    <mergeCell ref="X31:AI32"/>
+    <mergeCell ref="X33:AI34"/>
+    <mergeCell ref="AJ25:AR26"/>
+    <mergeCell ref="AJ27:AR28"/>
+    <mergeCell ref="AJ29:AR30"/>
+    <mergeCell ref="AJ31:AR32"/>
+    <mergeCell ref="AJ33:AR34"/>
+    <mergeCell ref="AS25:BC26"/>
+    <mergeCell ref="AS27:BC28"/>
+    <mergeCell ref="AS29:BC30"/>
+    <mergeCell ref="AS31:BC32"/>
+    <mergeCell ref="AS33:BC34"/>
+    <mergeCell ref="BD25:BF26"/>
+    <mergeCell ref="BD27:BF28"/>
+    <mergeCell ref="BD29:BF30"/>
+    <mergeCell ref="BD31:BF32"/>
+    <mergeCell ref="BD33:BF34"/>
+    <mergeCell ref="BG25:BH26"/>
+    <mergeCell ref="BG27:BH28"/>
+    <mergeCell ref="O25:W26"/>
+    <mergeCell ref="O27:W28"/>
+    <mergeCell ref="O29:W30"/>
+    <mergeCell ref="O31:W32"/>
+    <mergeCell ref="O33:W34"/>
+    <mergeCell ref="X23:AI24"/>
+    <mergeCell ref="AJ23:AR24"/>
+    <mergeCell ref="AS23:BC24"/>
+    <mergeCell ref="BD23:BF24"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="C27:F28"/>
+    <mergeCell ref="C29:F30"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="G23:N24"/>
+    <mergeCell ref="G25:N26"/>
+    <mergeCell ref="G27:N28"/>
+    <mergeCell ref="G29:N30"/>
+    <mergeCell ref="G31:N32"/>
+    <mergeCell ref="G33:N34"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="AE6:AJ6"/>
+    <mergeCell ref="I9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="S9:Z11"/>
+    <mergeCell ref="AA9:AA11"/>
+    <mergeCell ref="AB9:AI11"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="O23:W24"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="AK8:AM11"/>
+    <mergeCell ref="AO8:BB11"/>
+    <mergeCell ref="Q35:X35"/>
+    <mergeCell ref="Q36:X36"/>
+    <mergeCell ref="Q37:X37"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="K40:AA40"/>
+    <mergeCell ref="Y35:AR35"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="AC12:AD13"/>
+    <mergeCell ref="AE12:AF13"/>
+    <mergeCell ref="AG12:AH13"/>
+    <mergeCell ref="AI12:AJ13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="BJ16:BJ17"/>
+    <mergeCell ref="BI16:BI17"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:P35"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="AF46:AS47"/>
+    <mergeCell ref="AZ14:BA14"/>
+    <mergeCell ref="AX14:AY14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AS35:BD35"/>
+    <mergeCell ref="AT40:BI40"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AF40:AS40"/>
+    <mergeCell ref="BH18:BH19"/>
+    <mergeCell ref="BE20:BF20"/>
+    <mergeCell ref="BE18:BF18"/>
+    <mergeCell ref="BE19:BF19"/>
+    <mergeCell ref="BG20:BH20"/>
+    <mergeCell ref="BG18:BG19"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="BE35:BJ35"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AT42:AU42"/>
+    <mergeCell ref="AT43:AU43"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:AA50"/>
+    <mergeCell ref="AB50:AD50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:AA51"/>
+    <mergeCell ref="AB51:AD51"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:AA49"/>
+    <mergeCell ref="AB49:AD49"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="AB47:AD47"/>
+    <mergeCell ref="M47:AA47"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="M46:AA46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="E8:H11"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="A12:G13"/>
+    <mergeCell ref="I7:R8"/>
+    <mergeCell ref="A8:D11"/>
+    <mergeCell ref="BG22:BH22"/>
+    <mergeCell ref="X22:AI22"/>
+    <mergeCell ref="BH16:BH17"/>
+    <mergeCell ref="BE16:BF17"/>
+    <mergeCell ref="BG16:BG17"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="A3:AK4"/>
+    <mergeCell ref="AK5:BC7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="AE5:AJ5"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="S7:AA8"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="I6:P6"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="A14:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="BD22:BF22"/>
+    <mergeCell ref="AS22:BC22"/>
+    <mergeCell ref="AJ22:AR22"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="O22:W22"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="BE2:BJ2"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:AA45"/>
+    <mergeCell ref="A39:BJ39"/>
+    <mergeCell ref="M42:AA42"/>
+    <mergeCell ref="M43:AA43"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="A42:J44"/>
+    <mergeCell ref="AF41:AS41"/>
+    <mergeCell ref="A41:AA41"/>
+    <mergeCell ref="M44:AA44"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="AZ17:BA17"/>
+    <mergeCell ref="BG21:BH21"/>
+    <mergeCell ref="BG12:BH15"/>
+    <mergeCell ref="BC12:BC13"/>
+    <mergeCell ref="BB17:BC17"/>
+    <mergeCell ref="BD21:BF21"/>
+    <mergeCell ref="BI22:BJ22"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BE4:BF6"/>
+    <mergeCell ref="AB7:AJ8"/>
+    <mergeCell ref="BD12:BF15"/>
     <mergeCell ref="AE49:AF49"/>
     <mergeCell ref="AF42:AS42"/>
     <mergeCell ref="AF43:AS43"/>
@@ -8521,203 +8730,15 @@
     <mergeCell ref="AU12:AV13"/>
     <mergeCell ref="AK12:AL13"/>
     <mergeCell ref="AQ12:AR13"/>
-    <mergeCell ref="BE2:BJ2"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:AA45"/>
-    <mergeCell ref="A39:BJ39"/>
-    <mergeCell ref="M42:AA42"/>
-    <mergeCell ref="M43:AA43"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="A42:J44"/>
-    <mergeCell ref="AF41:AS41"/>
-    <mergeCell ref="A41:AA41"/>
-    <mergeCell ref="M44:AA44"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="AZ17:BA17"/>
-    <mergeCell ref="BG21:BH21"/>
-    <mergeCell ref="BG12:BH15"/>
-    <mergeCell ref="BC12:BC13"/>
-    <mergeCell ref="BB17:BC17"/>
-    <mergeCell ref="BD21:BF21"/>
-    <mergeCell ref="BI22:BJ22"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BE4:BF6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AB7:AJ8"/>
-    <mergeCell ref="BD12:BF15"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="A14:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="BD22:BF22"/>
-    <mergeCell ref="AS22:BC22"/>
-    <mergeCell ref="AJ22:AR22"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="O22:W22"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="A3:AK4"/>
-    <mergeCell ref="AK5:BC7"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="AE5:AJ5"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="S7:AA8"/>
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="I6:P6"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="S9:AA11"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I9:R11"/>
-    <mergeCell ref="E8:H11"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="A12:G13"/>
-    <mergeCell ref="I7:R8"/>
-    <mergeCell ref="A8:D11"/>
-    <mergeCell ref="BG22:BH22"/>
-    <mergeCell ref="X22:AI22"/>
-    <mergeCell ref="BH16:BH17"/>
-    <mergeCell ref="BE16:BF17"/>
-    <mergeCell ref="BG16:BG17"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="AB46:AD46"/>
-    <mergeCell ref="AB47:AD47"/>
-    <mergeCell ref="M47:AA47"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="M46:AA46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:AA50"/>
-    <mergeCell ref="AB50:AD50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:AA51"/>
-    <mergeCell ref="AB51:AD51"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:AA49"/>
-    <mergeCell ref="AB49:AD49"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AT42:AU42"/>
-    <mergeCell ref="AT43:AU43"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="AF46:AS47"/>
-    <mergeCell ref="AZ14:BA14"/>
-    <mergeCell ref="AX14:AY14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AS35:BD35"/>
-    <mergeCell ref="AT40:BI40"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AF40:AS40"/>
-    <mergeCell ref="BH18:BH19"/>
-    <mergeCell ref="BE20:BF20"/>
-    <mergeCell ref="BE18:BF18"/>
-    <mergeCell ref="BE19:BF19"/>
-    <mergeCell ref="BG20:BH20"/>
-    <mergeCell ref="BG18:BG19"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="BE35:BJ35"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="I36:P36"/>
-    <mergeCell ref="I37:P37"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I35:P35"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="AK8:AM11"/>
-    <mergeCell ref="AO8:BB11"/>
-    <mergeCell ref="Q35:X35"/>
-    <mergeCell ref="Q36:X36"/>
-    <mergeCell ref="Q37:X37"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="K40:AA40"/>
-    <mergeCell ref="Y35:AR35"/>
-    <mergeCell ref="AC36:BJ37"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="I5:P5"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="AB9:AJ11"/>
-    <mergeCell ref="AC12:AD13"/>
-    <mergeCell ref="AE12:AF13"/>
-    <mergeCell ref="AG12:AH13"/>
-    <mergeCell ref="AI12:AJ13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="BJ16:BJ17"/>
-    <mergeCell ref="BI16:BI17"/>
-    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="BG4:BG6"/>
+    <mergeCell ref="BH4:BH6"/>
+    <mergeCell ref="BI4:BI6"/>
+    <mergeCell ref="BJ4:BJ6"/>
+    <mergeCell ref="BA12:BB13"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BC8:BJ11"/>
+    <mergeCell ref="BI12:BJ15"/>
+    <mergeCell ref="AY12:AZ13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="3.937007874015748E-2" top="0" bottom="0" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/dayrepo/snippets/static/excel/report.xlsx
+++ b/dayrepo/snippets/static/excel/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasak\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C5DFB-A778-4D08-A807-BA0E33B296FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7051B9EF-20DF-43E9-A7FF-88A3817A57D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1183,7 +1183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1307,12 +1307,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1328,7 +1322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2027,11 +2021,24 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2047,22 +2054,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2147,308 +2142,445 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2476,10 +2608,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2488,306 +2620,175 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4617,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N2" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AB42" sqref="AB42:AD42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4644,1225 +4645,1225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="39"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
     </row>
     <row r="2" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="164"/>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="164"/>
-      <c r="AJ2" s="164"/>
-      <c r="AK2" s="164"/>
-      <c r="AL2" s="164"/>
-      <c r="AM2" s="164"/>
-      <c r="AN2" s="164"/>
-      <c r="AO2" s="164"/>
-      <c r="AP2" s="164"/>
-      <c r="AQ2" s="164"/>
-      <c r="AR2" s="164"/>
-      <c r="AS2" s="164"/>
-      <c r="AT2" s="164"/>
-      <c r="AU2" s="164"/>
-      <c r="AV2" s="164"/>
-      <c r="AW2" s="164"/>
-      <c r="AX2" s="164"/>
-      <c r="AY2" s="164"/>
-      <c r="AZ2" s="164"/>
-      <c r="BA2" s="164"/>
-      <c r="BB2" s="164"/>
-      <c r="BC2" s="164"/>
-      <c r="BD2" s="15" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="167"/>
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="167"/>
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="167"/>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="167"/>
+      <c r="AJ2" s="167"/>
+      <c r="AK2" s="167"/>
+      <c r="AL2" s="167"/>
+      <c r="AM2" s="167"/>
+      <c r="AN2" s="167"/>
+      <c r="AO2" s="167"/>
+      <c r="AP2" s="167"/>
+      <c r="AQ2" s="167"/>
+      <c r="AR2" s="167"/>
+      <c r="AS2" s="167"/>
+      <c r="AT2" s="167"/>
+      <c r="AU2" s="167"/>
+      <c r="AV2" s="167"/>
+      <c r="AW2" s="167"/>
+      <c r="AX2" s="167"/>
+      <c r="AY2" s="167"/>
+      <c r="AZ2" s="167"/>
+      <c r="BA2" s="167"/>
+      <c r="BB2" s="167"/>
+      <c r="BC2" s="167"/>
+      <c r="BD2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="BE2" s="105" t="s">
+      <c r="BE2" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="BF2" s="106"/>
-      <c r="BG2" s="106"/>
-      <c r="BH2" s="106"/>
-      <c r="BI2" s="106"/>
-      <c r="BJ2" s="107"/>
+      <c r="BF2" s="128"/>
+      <c r="BG2" s="128"/>
+      <c r="BH2" s="128"/>
+      <c r="BI2" s="128"/>
+      <c r="BJ2" s="129"/>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="165"/>
-      <c r="AF3" s="165"/>
-      <c r="AG3" s="165"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="165"/>
-      <c r="AJ3" s="165"/>
-      <c r="AK3" s="165"/>
-      <c r="AL3" s="31" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
+      <c r="AL3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="85"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
-      <c r="BA3" s="85"/>
-      <c r="BB3" s="85"/>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="201"/>
-      <c r="BF3" s="202"/>
-      <c r="BG3" s="16"/>
-      <c r="BH3" s="16"/>
-      <c r="BI3" s="17" t="s">
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="241"/>
+      <c r="AS3" s="241"/>
+      <c r="AT3" s="241"/>
+      <c r="AU3" s="241"/>
+      <c r="AV3" s="241"/>
+      <c r="AW3" s="241"/>
+      <c r="AX3" s="241"/>
+      <c r="AY3" s="241"/>
+      <c r="AZ3" s="241"/>
+      <c r="BA3" s="241"/>
+      <c r="BB3" s="241"/>
+      <c r="BC3" s="241"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="157"/>
+      <c r="BF3" s="158"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BJ3" s="17" t="s">
+      <c r="BJ3" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:62" s="1" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="165"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="165"/>
-      <c r="Z4" s="165"/>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="165"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="165"/>
-      <c r="AG4" s="165"/>
-      <c r="AH4" s="165"/>
-      <c r="AI4" s="165"/>
-      <c r="AJ4" s="165"/>
-      <c r="AK4" s="165"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="15"/>
-      <c r="BE4" s="201"/>
-      <c r="BF4" s="202"/>
-      <c r="BG4" s="208"/>
-      <c r="BH4" s="208"/>
-      <c r="BI4" s="208"/>
-      <c r="BJ4" s="208"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="168"/>
+      <c r="AA4" s="168"/>
+      <c r="AB4" s="168"/>
+      <c r="AC4" s="168"/>
+      <c r="AD4" s="168"/>
+      <c r="AE4" s="168"/>
+      <c r="AF4" s="168"/>
+      <c r="AG4" s="168"/>
+      <c r="AH4" s="168"/>
+      <c r="AI4" s="168"/>
+      <c r="AJ4" s="168"/>
+      <c r="AK4" s="168"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="158"/>
+      <c r="BG4" s="61"/>
+      <c r="BH4" s="61"/>
+      <c r="BI4" s="61"/>
+      <c r="BJ4" s="61"/>
     </row>
     <row r="5" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101" t="s">
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101" t="s">
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101" t="s">
+      <c r="J5" s="172"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101" t="s">
+      <c r="R5" s="172"/>
+      <c r="S5" s="172"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="101"/>
-      <c r="AD5" s="101"/>
-      <c r="AE5" s="101" t="s">
+      <c r="X5" s="172"/>
+      <c r="Y5" s="172"/>
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="172"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="172"/>
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="AF5" s="101"/>
-      <c r="AG5" s="101"/>
-      <c r="AH5" s="101"/>
-      <c r="AI5" s="101"/>
-      <c r="AJ5" s="169"/>
-      <c r="AK5" s="166" t="s">
+      <c r="AF5" s="172"/>
+      <c r="AG5" s="172"/>
+      <c r="AH5" s="172"/>
+      <c r="AI5" s="172"/>
+      <c r="AJ5" s="173"/>
+      <c r="AK5" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="167"/>
-      <c r="AN5" s="167"/>
-      <c r="AO5" s="167"/>
-      <c r="AP5" s="167"/>
-      <c r="AQ5" s="167"/>
-      <c r="AR5" s="167"/>
-      <c r="AS5" s="167"/>
-      <c r="AT5" s="167"/>
-      <c r="AU5" s="167"/>
-      <c r="AV5" s="167"/>
-      <c r="AW5" s="167"/>
-      <c r="AX5" s="167"/>
-      <c r="AY5" s="167"/>
-      <c r="AZ5" s="167"/>
-      <c r="BA5" s="167"/>
-      <c r="BB5" s="167"/>
-      <c r="BC5" s="167"/>
-      <c r="BD5" s="15"/>
-      <c r="BE5" s="203"/>
-      <c r="BF5" s="204"/>
-      <c r="BG5" s="209"/>
-      <c r="BH5" s="209"/>
-      <c r="BI5" s="209"/>
-      <c r="BJ5" s="209"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="170"/>
+      <c r="AN5" s="170"/>
+      <c r="AO5" s="170"/>
+      <c r="AP5" s="170"/>
+      <c r="AQ5" s="170"/>
+      <c r="AR5" s="170"/>
+      <c r="AS5" s="170"/>
+      <c r="AT5" s="170"/>
+      <c r="AU5" s="170"/>
+      <c r="AV5" s="170"/>
+      <c r="AW5" s="170"/>
+      <c r="AX5" s="170"/>
+      <c r="AY5" s="170"/>
+      <c r="AZ5" s="170"/>
+      <c r="BA5" s="170"/>
+      <c r="BB5" s="170"/>
+      <c r="BC5" s="170"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="159"/>
+      <c r="BF5" s="160"/>
+      <c r="BG5" s="62"/>
+      <c r="BH5" s="62"/>
+      <c r="BI5" s="62"/>
+      <c r="BJ5" s="62"/>
     </row>
     <row r="6" spans="1:62" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161" t="s">
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="171" t="s">
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="R6" s="172"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="172"/>
-      <c r="U6" s="172"/>
-      <c r="V6" s="173"/>
-      <c r="W6" s="170"/>
-      <c r="X6" s="170"/>
-      <c r="Y6" s="170"/>
-      <c r="Z6" s="170"/>
-      <c r="AA6" s="170"/>
-      <c r="AB6" s="170"/>
-      <c r="AC6" s="170"/>
-      <c r="AD6" s="170"/>
-      <c r="AE6" s="171" t="s">
+      <c r="R6" s="177"/>
+      <c r="S6" s="177"/>
+      <c r="T6" s="177"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="178"/>
+      <c r="W6" s="175"/>
+      <c r="X6" s="175"/>
+      <c r="Y6" s="175"/>
+      <c r="Z6" s="175"/>
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="175"/>
+      <c r="AE6" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="AF6" s="172"/>
-      <c r="AG6" s="172"/>
-      <c r="AH6" s="172"/>
-      <c r="AI6" s="172"/>
-      <c r="AJ6" s="174"/>
-      <c r="AK6" s="166"/>
-      <c r="AL6" s="167"/>
-      <c r="AM6" s="167"/>
-      <c r="AN6" s="167"/>
-      <c r="AO6" s="167"/>
-      <c r="AP6" s="167"/>
-      <c r="AQ6" s="167"/>
-      <c r="AR6" s="167"/>
-      <c r="AS6" s="167"/>
-      <c r="AT6" s="167"/>
-      <c r="AU6" s="167"/>
-      <c r="AV6" s="167"/>
-      <c r="AW6" s="167"/>
-      <c r="AX6" s="167"/>
-      <c r="AY6" s="167"/>
-      <c r="AZ6" s="167"/>
-      <c r="BA6" s="167"/>
-      <c r="BB6" s="167"/>
-      <c r="BC6" s="167"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="205"/>
-      <c r="BF6" s="206"/>
-      <c r="BG6" s="210"/>
-      <c r="BH6" s="210"/>
-      <c r="BI6" s="210"/>
-      <c r="BJ6" s="210"/>
+      <c r="AF6" s="177"/>
+      <c r="AG6" s="177"/>
+      <c r="AH6" s="177"/>
+      <c r="AI6" s="177"/>
+      <c r="AJ6" s="179"/>
+      <c r="AK6" s="169"/>
+      <c r="AL6" s="170"/>
+      <c r="AM6" s="170"/>
+      <c r="AN6" s="170"/>
+      <c r="AO6" s="170"/>
+      <c r="AP6" s="170"/>
+      <c r="AQ6" s="170"/>
+      <c r="AR6" s="170"/>
+      <c r="AS6" s="170"/>
+      <c r="AT6" s="170"/>
+      <c r="AU6" s="170"/>
+      <c r="AV6" s="170"/>
+      <c r="AW6" s="170"/>
+      <c r="AX6" s="170"/>
+      <c r="AY6" s="170"/>
+      <c r="AZ6" s="170"/>
+      <c r="BA6" s="170"/>
+      <c r="BB6" s="170"/>
+      <c r="BC6" s="170"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="161"/>
+      <c r="BF6" s="162"/>
+      <c r="BG6" s="63"/>
+      <c r="BH6" s="63"/>
+      <c r="BI6" s="63"/>
+      <c r="BJ6" s="63"/>
     </row>
     <row r="7" spans="1:62" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="160"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="45" t="s">
+      <c r="A7" s="174"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="161" t="s">
+      <c r="J7" s="203"/>
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161" t="s">
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="163"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="163"/>
+      <c r="Y7" s="163"/>
+      <c r="Z7" s="163"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="161"/>
-      <c r="AF7" s="161"/>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="161"/>
-      <c r="AJ7" s="207"/>
-      <c r="AK7" s="166"/>
-      <c r="AL7" s="167"/>
-      <c r="AM7" s="167"/>
-      <c r="AN7" s="167"/>
-      <c r="AO7" s="167"/>
-      <c r="AP7" s="167"/>
-      <c r="AQ7" s="167"/>
-      <c r="AR7" s="167"/>
-      <c r="AS7" s="167"/>
-      <c r="AT7" s="167"/>
-      <c r="AU7" s="167"/>
-      <c r="AV7" s="167"/>
-      <c r="AW7" s="167"/>
-      <c r="AX7" s="167"/>
-      <c r="AY7" s="167"/>
-      <c r="AZ7" s="167"/>
-      <c r="BA7" s="167"/>
-      <c r="BB7" s="167"/>
-      <c r="BC7" s="167"/>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
-      <c r="BF7" s="15"/>
-      <c r="BG7" s="15"/>
-      <c r="BH7" s="15"/>
-      <c r="BI7" s="15"/>
-      <c r="BJ7" s="15"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="163"/>
+      <c r="AJ7" s="164"/>
+      <c r="AK7" s="169"/>
+      <c r="AL7" s="170"/>
+      <c r="AM7" s="170"/>
+      <c r="AN7" s="170"/>
+      <c r="AO7" s="170"/>
+      <c r="AP7" s="170"/>
+      <c r="AQ7" s="170"/>
+      <c r="AR7" s="170"/>
+      <c r="AS7" s="170"/>
+      <c r="AT7" s="170"/>
+      <c r="AU7" s="170"/>
+      <c r="AV7" s="170"/>
+      <c r="AW7" s="170"/>
+      <c r="AX7" s="170"/>
+      <c r="AY7" s="170"/>
+      <c r="AZ7" s="170"/>
+      <c r="BA7" s="170"/>
+      <c r="BB7" s="170"/>
+      <c r="BC7" s="170"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
+      <c r="BF7" s="11"/>
+      <c r="BG7" s="11"/>
+      <c r="BH7" s="11"/>
+      <c r="BI7" s="11"/>
+      <c r="BJ7" s="11"/>
     </row>
     <row r="8" spans="1:62" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="45" t="s">
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="161"/>
-      <c r="T8" s="161"/>
-      <c r="U8" s="161"/>
-      <c r="V8" s="161"/>
-      <c r="W8" s="161"/>
-      <c r="X8" s="161"/>
-      <c r="Y8" s="161"/>
-      <c r="Z8" s="161"/>
-      <c r="AA8" s="161"/>
-      <c r="AB8" s="161"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="161"/>
-      <c r="AE8" s="161"/>
-      <c r="AF8" s="161"/>
-      <c r="AG8" s="161"/>
-      <c r="AH8" s="161"/>
-      <c r="AI8" s="161"/>
-      <c r="AJ8" s="207"/>
-      <c r="AK8" s="86" t="s">
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="204"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="163"/>
+      <c r="U8" s="163"/>
+      <c r="V8" s="163"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="163"/>
+      <c r="Y8" s="163"/>
+      <c r="Z8" s="163"/>
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="163"/>
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="163"/>
+      <c r="AJ8" s="164"/>
+      <c r="AK8" s="242" t="s">
         <v>26</v>
       </c>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="87"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="87"/>
-      <c r="AT8" s="87"/>
-      <c r="AU8" s="87"/>
-      <c r="AV8" s="87"/>
-      <c r="AW8" s="87"/>
-      <c r="AX8" s="87"/>
-      <c r="AY8" s="87"/>
-      <c r="AZ8" s="87"/>
-      <c r="BA8" s="87"/>
-      <c r="BB8" s="87"/>
-      <c r="BC8" s="231" t="s">
+      <c r="AL8" s="243"/>
+      <c r="AM8" s="243"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="243"/>
+      <c r="AP8" s="243"/>
+      <c r="AQ8" s="243"/>
+      <c r="AR8" s="243"/>
+      <c r="AS8" s="243"/>
+      <c r="AT8" s="243"/>
+      <c r="AU8" s="243"/>
+      <c r="AV8" s="243"/>
+      <c r="AW8" s="243"/>
+      <c r="AX8" s="243"/>
+      <c r="AY8" s="243"/>
+      <c r="AZ8" s="243"/>
+      <c r="BA8" s="243"/>
+      <c r="BB8" s="243"/>
+      <c r="BC8" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="BD8" s="231"/>
-      <c r="BE8" s="231"/>
-      <c r="BF8" s="231"/>
-      <c r="BG8" s="231"/>
-      <c r="BH8" s="231"/>
-      <c r="BI8" s="231"/>
-      <c r="BJ8" s="231"/>
+      <c r="BD8" s="70"/>
+      <c r="BE8" s="70"/>
+      <c r="BF8" s="70"/>
+      <c r="BG8" s="70"/>
+      <c r="BH8" s="70"/>
+      <c r="BI8" s="70"/>
+      <c r="BJ8" s="70"/>
     </row>
     <row r="9" spans="1:62" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="160"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="143" t="s">
+      <c r="A9" s="174"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="S9" s="137"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="138"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="138"/>
-      <c r="Z9" s="138"/>
-      <c r="AA9" s="143" t="s">
+      <c r="S9" s="180"/>
+      <c r="T9" s="181"/>
+      <c r="U9" s="181"/>
+      <c r="V9" s="181"/>
+      <c r="W9" s="181"/>
+      <c r="X9" s="181"/>
+      <c r="Y9" s="181"/>
+      <c r="Z9" s="181"/>
+      <c r="AA9" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="AB9" s="137"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="138"/>
-      <c r="AE9" s="138"/>
-      <c r="AF9" s="138"/>
-      <c r="AG9" s="138"/>
-      <c r="AH9" s="138"/>
-      <c r="AI9" s="138"/>
-      <c r="AJ9" s="72" t="s">
+      <c r="AB9" s="180"/>
+      <c r="AC9" s="181"/>
+      <c r="AD9" s="181"/>
+      <c r="AE9" s="181"/>
+      <c r="AF9" s="181"/>
+      <c r="AG9" s="181"/>
+      <c r="AH9" s="181"/>
+      <c r="AI9" s="181"/>
+      <c r="AJ9" s="254" t="s">
         <v>89</v>
       </c>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="87"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="87"/>
-      <c r="AZ9" s="87"/>
-      <c r="BA9" s="87"/>
-      <c r="BB9" s="87"/>
-      <c r="BC9" s="231"/>
-      <c r="BD9" s="231"/>
-      <c r="BE9" s="231"/>
-      <c r="BF9" s="231"/>
-      <c r="BG9" s="231"/>
-      <c r="BH9" s="231"/>
-      <c r="BI9" s="231"/>
-      <c r="BJ9" s="231"/>
+      <c r="AK9" s="242"/>
+      <c r="AL9" s="243"/>
+      <c r="AM9" s="243"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="243"/>
+      <c r="AP9" s="243"/>
+      <c r="AQ9" s="243"/>
+      <c r="AR9" s="243"/>
+      <c r="AS9" s="243"/>
+      <c r="AT9" s="243"/>
+      <c r="AU9" s="243"/>
+      <c r="AV9" s="243"/>
+      <c r="AW9" s="243"/>
+      <c r="AX9" s="243"/>
+      <c r="AY9" s="243"/>
+      <c r="AZ9" s="243"/>
+      <c r="BA9" s="243"/>
+      <c r="BB9" s="243"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="70"/>
+      <c r="BF9" s="70"/>
+      <c r="BG9" s="70"/>
+      <c r="BH9" s="70"/>
+      <c r="BI9" s="70"/>
+      <c r="BJ9" s="70"/>
     </row>
     <row r="10" spans="1:62" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="160"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="140"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="139"/>
-      <c r="T10" s="140"/>
-      <c r="U10" s="140"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="140"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="140"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="140"/>
-      <c r="AD10" s="140"/>
-      <c r="AE10" s="140"/>
-      <c r="AF10" s="140"/>
-      <c r="AG10" s="140"/>
-      <c r="AH10" s="140"/>
-      <c r="AI10" s="140"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="86"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="87"/>
-      <c r="BA10" s="87"/>
-      <c r="BB10" s="87"/>
-      <c r="BC10" s="231"/>
-      <c r="BD10" s="231"/>
-      <c r="BE10" s="231"/>
-      <c r="BF10" s="231"/>
-      <c r="BG10" s="231"/>
-      <c r="BH10" s="231"/>
-      <c r="BI10" s="231"/>
-      <c r="BJ10" s="231"/>
+      <c r="A10" s="174"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="182"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="182"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="255"/>
+      <c r="AK10" s="242"/>
+      <c r="AL10" s="243"/>
+      <c r="AM10" s="243"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="243"/>
+      <c r="AP10" s="243"/>
+      <c r="AQ10" s="243"/>
+      <c r="AR10" s="243"/>
+      <c r="AS10" s="243"/>
+      <c r="AT10" s="243"/>
+      <c r="AU10" s="243"/>
+      <c r="AV10" s="243"/>
+      <c r="AW10" s="243"/>
+      <c r="AX10" s="243"/>
+      <c r="AY10" s="243"/>
+      <c r="AZ10" s="243"/>
+      <c r="BA10" s="243"/>
+      <c r="BB10" s="243"/>
+      <c r="BC10" s="70"/>
+      <c r="BD10" s="70"/>
+      <c r="BE10" s="70"/>
+      <c r="BF10" s="70"/>
+      <c r="BG10" s="70"/>
+      <c r="BH10" s="70"/>
+      <c r="BI10" s="70"/>
+      <c r="BJ10" s="70"/>
     </row>
     <row r="11" spans="1:62" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="162"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="142"/>
-      <c r="X11" s="142"/>
-      <c r="Y11" s="142"/>
-      <c r="Z11" s="142"/>
-      <c r="AA11" s="145"/>
-      <c r="AB11" s="141"/>
-      <c r="AC11" s="142"/>
-      <c r="AD11" s="142"/>
-      <c r="AE11" s="142"/>
-      <c r="AF11" s="142"/>
-      <c r="AG11" s="142"/>
-      <c r="AH11" s="142"/>
-      <c r="AI11" s="142"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="88"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="89"/>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="89"/>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="89"/>
-      <c r="BC11" s="232"/>
-      <c r="BD11" s="232"/>
-      <c r="BE11" s="232"/>
-      <c r="BF11" s="232"/>
-      <c r="BG11" s="232"/>
-      <c r="BH11" s="232"/>
-      <c r="BI11" s="232"/>
-      <c r="BJ11" s="232"/>
+      <c r="A11" s="205"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="184"/>
+      <c r="P11" s="184"/>
+      <c r="Q11" s="184"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="183"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="184"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="184"/>
+      <c r="Y11" s="184"/>
+      <c r="Z11" s="184"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="183"/>
+      <c r="AC11" s="184"/>
+      <c r="AD11" s="184"/>
+      <c r="AE11" s="184"/>
+      <c r="AF11" s="184"/>
+      <c r="AG11" s="184"/>
+      <c r="AH11" s="184"/>
+      <c r="AI11" s="184"/>
+      <c r="AJ11" s="256"/>
+      <c r="AK11" s="244"/>
+      <c r="AL11" s="245"/>
+      <c r="AM11" s="245"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="245"/>
+      <c r="AP11" s="245"/>
+      <c r="AQ11" s="245"/>
+      <c r="AR11" s="245"/>
+      <c r="AS11" s="245"/>
+      <c r="AT11" s="245"/>
+      <c r="AU11" s="245"/>
+      <c r="AV11" s="245"/>
+      <c r="AW11" s="245"/>
+      <c r="AX11" s="245"/>
+      <c r="AY11" s="245"/>
+      <c r="AZ11" s="245"/>
+      <c r="BA11" s="245"/>
+      <c r="BB11" s="245"/>
+      <c r="BC11" s="71"/>
+      <c r="BD11" s="71"/>
+      <c r="BE11" s="71"/>
+      <c r="BF11" s="71"/>
+      <c r="BG11" s="71"/>
+      <c r="BH11" s="71"/>
+      <c r="BI11" s="71"/>
+      <c r="BJ11" s="71"/>
     </row>
     <row r="12" spans="1:62" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="155"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="80">
+      <c r="B12" s="198"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="66">
         <v>1</v>
       </c>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80">
+      <c r="J12" s="66"/>
+      <c r="K12" s="66">
         <v>2</v>
       </c>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80">
+      <c r="L12" s="66"/>
+      <c r="M12" s="66">
         <v>3</v>
       </c>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80">
+      <c r="N12" s="66"/>
+      <c r="O12" s="66">
         <v>4</v>
       </c>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80">
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66">
         <v>5</v>
       </c>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80">
+      <c r="R12" s="66"/>
+      <c r="S12" s="66">
         <v>6</v>
       </c>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80">
+      <c r="T12" s="66"/>
+      <c r="U12" s="66">
         <v>7</v>
       </c>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80">
+      <c r="V12" s="66"/>
+      <c r="W12" s="66">
         <v>8</v>
       </c>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80">
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66">
         <v>9</v>
       </c>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80">
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66">
         <v>10</v>
       </c>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80">
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66">
         <v>11</v>
       </c>
-      <c r="AD12" s="80"/>
-      <c r="AE12" s="80">
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66">
         <v>12</v>
       </c>
-      <c r="AF12" s="80"/>
-      <c r="AG12" s="80">
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66">
         <v>13</v>
       </c>
-      <c r="AH12" s="80"/>
-      <c r="AI12" s="80">
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66">
         <v>14</v>
       </c>
-      <c r="AJ12" s="80"/>
-      <c r="AK12" s="80">
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66">
         <v>15</v>
       </c>
-      <c r="AL12" s="80"/>
-      <c r="AM12" s="80">
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66">
         <v>16</v>
       </c>
-      <c r="AN12" s="80"/>
-      <c r="AO12" s="80">
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66">
         <v>17</v>
       </c>
-      <c r="AP12" s="80"/>
-      <c r="AQ12" s="80">
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66">
         <v>18</v>
       </c>
-      <c r="AR12" s="80"/>
-      <c r="AS12" s="80">
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66">
         <v>19</v>
       </c>
-      <c r="AT12" s="80"/>
-      <c r="AU12" s="80">
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66">
         <v>20</v>
       </c>
-      <c r="AV12" s="80"/>
-      <c r="AW12" s="80">
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66">
         <v>21</v>
       </c>
-      <c r="AX12" s="80"/>
-      <c r="AY12" s="80">
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="66">
         <v>22</v>
       </c>
-      <c r="AZ12" s="80"/>
-      <c r="BA12" s="80">
+      <c r="AZ12" s="66"/>
+      <c r="BA12" s="66">
         <v>23</v>
       </c>
-      <c r="BB12" s="80"/>
-      <c r="BC12" s="194"/>
-      <c r="BD12" s="82" t="s">
+      <c r="BB12" s="66"/>
+      <c r="BC12" s="125"/>
+      <c r="BD12" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="BE12" s="82"/>
-      <c r="BF12" s="82"/>
-      <c r="BG12" s="192" t="s">
+      <c r="BE12" s="83"/>
+      <c r="BF12" s="83"/>
+      <c r="BG12" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="BH12" s="193"/>
-      <c r="BI12" s="192" t="s">
+      <c r="BH12" s="149"/>
+      <c r="BI12" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="BJ12" s="233"/>
+      <c r="BJ12" s="73"/>
     </row>
     <row r="13" spans="1:62" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="157"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="229"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="212"/>
-      <c r="AL13" s="212"/>
-      <c r="AM13" s="212"/>
-      <c r="AN13" s="212"/>
-      <c r="AO13" s="212"/>
-      <c r="AP13" s="212"/>
-      <c r="AQ13" s="212"/>
-      <c r="AR13" s="212"/>
-      <c r="AS13" s="212"/>
-      <c r="AT13" s="212"/>
-      <c r="AU13" s="212"/>
-      <c r="AV13" s="212"/>
-      <c r="AW13" s="212"/>
-      <c r="AX13" s="212"/>
-      <c r="AY13" s="212"/>
-      <c r="AZ13" s="212"/>
-      <c r="BA13" s="212"/>
-      <c r="BB13" s="212"/>
-      <c r="BC13" s="195"/>
-      <c r="BD13" s="123"/>
-      <c r="BE13" s="123"/>
-      <c r="BF13" s="123"/>
-      <c r="BG13" s="108"/>
-      <c r="BH13" s="95"/>
-      <c r="BI13" s="108"/>
-      <c r="BJ13" s="234"/>
+      <c r="A13" s="200"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="104"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="67"/>
+      <c r="AM13" s="67"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="67"/>
+      <c r="AP13" s="67"/>
+      <c r="AQ13" s="67"/>
+      <c r="AR13" s="67"/>
+      <c r="AS13" s="67"/>
+      <c r="AT13" s="67"/>
+      <c r="AU13" s="67"/>
+      <c r="AV13" s="67"/>
+      <c r="AW13" s="67"/>
+      <c r="AX13" s="67"/>
+      <c r="AY13" s="67"/>
+      <c r="AZ13" s="67"/>
+      <c r="BA13" s="67"/>
+      <c r="BB13" s="67"/>
+      <c r="BC13" s="151"/>
+      <c r="BD13" s="165"/>
+      <c r="BE13" s="165"/>
+      <c r="BF13" s="165"/>
+      <c r="BG13" s="74"/>
+      <c r="BH13" s="150"/>
+      <c r="BI13" s="74"/>
+      <c r="BJ13" s="75"/>
     </row>
     <row r="14" spans="1:62" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="213" t="s">
+      <c r="A14" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="214"/>
-      <c r="C14" s="220" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="221"/>
-      <c r="E14" s="221"/>
-      <c r="F14" s="221"/>
-      <c r="G14" s="222"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="76"/>
-      <c r="BB14" s="76"/>
-      <c r="BC14" s="230"/>
-      <c r="BD14" s="123"/>
-      <c r="BE14" s="123"/>
-      <c r="BF14" s="123"/>
-      <c r="BG14" s="108"/>
-      <c r="BH14" s="95"/>
-      <c r="BI14" s="108"/>
-      <c r="BJ14" s="234"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="68"/>
+      <c r="AT14" s="68"/>
+      <c r="AU14" s="68"/>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="68"/>
+      <c r="AZ14" s="68"/>
+      <c r="BA14" s="68"/>
+      <c r="BB14" s="68"/>
+      <c r="BC14" s="69"/>
+      <c r="BD14" s="165"/>
+      <c r="BE14" s="165"/>
+      <c r="BF14" s="165"/>
+      <c r="BG14" s="74"/>
+      <c r="BH14" s="150"/>
+      <c r="BI14" s="74"/>
+      <c r="BJ14" s="75"/>
     </row>
     <row r="15" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="215"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="175"/>
-      <c r="R15" s="175"/>
-      <c r="S15" s="175"/>
-      <c r="T15" s="175"/>
-      <c r="U15" s="175"/>
-      <c r="V15" s="175"/>
-      <c r="W15" s="175"/>
-      <c r="X15" s="175"/>
-      <c r="Y15" s="175"/>
-      <c r="Z15" s="175"/>
-      <c r="AA15" s="175"/>
-      <c r="AB15" s="175"/>
-      <c r="AC15" s="175"/>
-      <c r="AD15" s="175"/>
-      <c r="AE15" s="175"/>
-      <c r="AF15" s="175"/>
-      <c r="AG15" s="175"/>
-      <c r="AH15" s="175"/>
-      <c r="AI15" s="175"/>
-      <c r="AJ15" s="175"/>
-      <c r="AK15" s="175"/>
-      <c r="AL15" s="175"/>
-      <c r="AM15" s="175"/>
-      <c r="AN15" s="175"/>
-      <c r="AO15" s="175"/>
-      <c r="AP15" s="175"/>
-      <c r="AQ15" s="175"/>
-      <c r="AR15" s="175"/>
-      <c r="AS15" s="175"/>
-      <c r="AT15" s="175"/>
-      <c r="AU15" s="175"/>
-      <c r="AV15" s="175"/>
-      <c r="AW15" s="175"/>
-      <c r="AX15" s="175"/>
-      <c r="AY15" s="175"/>
-      <c r="AZ15" s="175"/>
-      <c r="BA15" s="175"/>
-      <c r="BB15" s="175"/>
-      <c r="BC15" s="175"/>
-      <c r="BD15" s="123"/>
-      <c r="BE15" s="123"/>
-      <c r="BF15" s="123"/>
-      <c r="BG15" s="108"/>
-      <c r="BH15" s="95"/>
-      <c r="BI15" s="108"/>
-      <c r="BJ15" s="234"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="166"/>
+      <c r="S15" s="166"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="166"/>
+      <c r="W15" s="166"/>
+      <c r="X15" s="166"/>
+      <c r="Y15" s="166"/>
+      <c r="Z15" s="166"/>
+      <c r="AA15" s="166"/>
+      <c r="AB15" s="166"/>
+      <c r="AC15" s="166"/>
+      <c r="AD15" s="166"/>
+      <c r="AE15" s="166"/>
+      <c r="AF15" s="166"/>
+      <c r="AG15" s="166"/>
+      <c r="AH15" s="166"/>
+      <c r="AI15" s="166"/>
+      <c r="AJ15" s="166"/>
+      <c r="AK15" s="166"/>
+      <c r="AL15" s="166"/>
+      <c r="AM15" s="166"/>
+      <c r="AN15" s="166"/>
+      <c r="AO15" s="166"/>
+      <c r="AP15" s="166"/>
+      <c r="AQ15" s="166"/>
+      <c r="AR15" s="166"/>
+      <c r="AS15" s="166"/>
+      <c r="AT15" s="166"/>
+      <c r="AU15" s="166"/>
+      <c r="AV15" s="166"/>
+      <c r="AW15" s="166"/>
+      <c r="AX15" s="166"/>
+      <c r="AY15" s="166"/>
+      <c r="AZ15" s="166"/>
+      <c r="BA15" s="166"/>
+      <c r="BB15" s="166"/>
+      <c r="BC15" s="166"/>
+      <c r="BD15" s="165"/>
+      <c r="BE15" s="165"/>
+      <c r="BF15" s="165"/>
+      <c r="BG15" s="74"/>
+      <c r="BH15" s="150"/>
+      <c r="BI15" s="74"/>
+      <c r="BJ15" s="75"/>
     </row>
     <row r="16" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="215"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="223"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="225"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="175"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="175"/>
-      <c r="Q16" s="175"/>
-      <c r="R16" s="175"/>
-      <c r="S16" s="175"/>
-      <c r="T16" s="175"/>
-      <c r="U16" s="175"/>
-      <c r="V16" s="175"/>
-      <c r="W16" s="175"/>
-      <c r="X16" s="175"/>
-      <c r="Y16" s="175"/>
-      <c r="Z16" s="175"/>
-      <c r="AA16" s="175"/>
-      <c r="AB16" s="175"/>
-      <c r="AC16" s="175"/>
-      <c r="AD16" s="175"/>
-      <c r="AE16" s="175"/>
-      <c r="AF16" s="175"/>
-      <c r="AG16" s="175"/>
-      <c r="AH16" s="175"/>
-      <c r="AI16" s="175"/>
-      <c r="AJ16" s="175"/>
-      <c r="AK16" s="175"/>
-      <c r="AL16" s="175"/>
-      <c r="AM16" s="175"/>
-      <c r="AN16" s="175"/>
-      <c r="AO16" s="175"/>
-      <c r="AP16" s="175"/>
-      <c r="AQ16" s="175"/>
-      <c r="AR16" s="175"/>
-      <c r="AS16" s="175"/>
-      <c r="AT16" s="175"/>
-      <c r="AU16" s="175"/>
-      <c r="AV16" s="175"/>
-      <c r="AW16" s="175"/>
-      <c r="AX16" s="175"/>
-      <c r="AY16" s="175"/>
-      <c r="AZ16" s="175"/>
-      <c r="BA16" s="175"/>
-      <c r="BB16" s="175"/>
-      <c r="BC16" s="175"/>
-      <c r="BD16" s="244" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="166"/>
+      <c r="T16" s="166"/>
+      <c r="U16" s="166"/>
+      <c r="V16" s="166"/>
+      <c r="W16" s="166"/>
+      <c r="X16" s="166"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="166"/>
+      <c r="AA16" s="166"/>
+      <c r="AB16" s="166"/>
+      <c r="AC16" s="166"/>
+      <c r="AD16" s="166"/>
+      <c r="AE16" s="166"/>
+      <c r="AF16" s="166"/>
+      <c r="AG16" s="166"/>
+      <c r="AH16" s="166"/>
+      <c r="AI16" s="166"/>
+      <c r="AJ16" s="166"/>
+      <c r="AK16" s="166"/>
+      <c r="AL16" s="166"/>
+      <c r="AM16" s="166"/>
+      <c r="AN16" s="166"/>
+      <c r="AO16" s="166"/>
+      <c r="AP16" s="166"/>
+      <c r="AQ16" s="166"/>
+      <c r="AR16" s="166"/>
+      <c r="AS16" s="166"/>
+      <c r="AT16" s="166"/>
+      <c r="AU16" s="166"/>
+      <c r="AV16" s="166"/>
+      <c r="AW16" s="166"/>
+      <c r="AX16" s="166"/>
+      <c r="AY16" s="166"/>
+      <c r="AZ16" s="166"/>
+      <c r="BA16" s="166"/>
+      <c r="BB16" s="166"/>
+      <c r="BC16" s="166"/>
+      <c r="BD16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="BE16" s="258"/>
-      <c r="BF16" s="245"/>
-      <c r="BG16" s="244" t="s">
+      <c r="BE16" s="64"/>
+      <c r="BF16" s="44"/>
+      <c r="BG16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="BH16" s="245"/>
-      <c r="BI16" s="244" t="s">
+      <c r="BH16" s="44"/>
+      <c r="BI16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="BJ16" s="248"/>
+      <c r="BJ16" s="47"/>
     </row>
     <row r="17" spans="1:62" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="215"/>
-      <c r="B17" s="216"/>
-      <c r="C17" s="226"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="75"/>
-      <c r="AL17" s="75"/>
-      <c r="AM17" s="75"/>
-      <c r="AN17" s="75"/>
-      <c r="AO17" s="75"/>
-      <c r="AP17" s="75"/>
-      <c r="AQ17" s="75"/>
-      <c r="AR17" s="75"/>
-      <c r="AS17" s="75"/>
-      <c r="AT17" s="75"/>
-      <c r="AU17" s="75"/>
-      <c r="AV17" s="75"/>
-      <c r="AW17" s="75"/>
-      <c r="AX17" s="75"/>
-      <c r="AY17" s="75"/>
-      <c r="AZ17" s="75"/>
-      <c r="BA17" s="75"/>
-      <c r="BB17" s="75"/>
-      <c r="BC17" s="196"/>
-      <c r="BD17" s="246"/>
-      <c r="BE17" s="259"/>
-      <c r="BF17" s="247"/>
-      <c r="BG17" s="246"/>
-      <c r="BH17" s="247"/>
-      <c r="BI17" s="246"/>
-      <c r="BJ17" s="249"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="84"/>
+      <c r="AK17" s="84"/>
+      <c r="AL17" s="84"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="84"/>
+      <c r="AP17" s="84"/>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="84"/>
+      <c r="AS17" s="84"/>
+      <c r="AT17" s="84"/>
+      <c r="AU17" s="84"/>
+      <c r="AV17" s="84"/>
+      <c r="AW17" s="84"/>
+      <c r="AX17" s="84"/>
+      <c r="AY17" s="84"/>
+      <c r="AZ17" s="84"/>
+      <c r="BA17" s="84"/>
+      <c r="BB17" s="84"/>
+      <c r="BC17" s="152"/>
+      <c r="BD17" s="45"/>
+      <c r="BE17" s="65"/>
+      <c r="BF17" s="46"/>
+      <c r="BG17" s="45"/>
+      <c r="BH17" s="46"/>
+      <c r="BI17" s="45"/>
+      <c r="BJ17" s="48"/>
     </row>
     <row r="18" spans="1:62" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="215"/>
-      <c r="B18" s="216"/>
-      <c r="C18" s="124" t="s">
+      <c r="A18" s="111"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="229" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
@@ -5911,24 +5912,24 @@
       <c r="BA18" s="5"/>
       <c r="BB18" s="4"/>
       <c r="BC18" s="6"/>
-      <c r="BD18" s="250"/>
-      <c r="BE18" s="251"/>
-      <c r="BF18" s="252"/>
-      <c r="BG18" s="253"/>
-      <c r="BH18" s="255"/>
-      <c r="BI18" s="260"/>
-      <c r="BJ18" s="261"/>
+      <c r="BD18" s="49"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="52"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="57"/>
+      <c r="BJ18" s="58"/>
     </row>
     <row r="19" spans="1:62" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="215"/>
-      <c r="B19" s="216"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="123" t="s">
+      <c r="A19" s="111"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
@@ -5977,24 +5978,24 @@
       <c r="BA19" s="5"/>
       <c r="BB19" s="4"/>
       <c r="BC19" s="6"/>
-      <c r="BD19" s="253"/>
-      <c r="BE19" s="254"/>
-      <c r="BF19" s="255"/>
-      <c r="BG19" s="256"/>
-      <c r="BH19" s="257"/>
-      <c r="BI19" s="262"/>
-      <c r="BJ19" s="263"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="53"/>
+      <c r="BF19" s="54"/>
+      <c r="BG19" s="55"/>
+      <c r="BH19" s="56"/>
+      <c r="BI19" s="59"/>
+      <c r="BJ19" s="60"/>
     </row>
     <row r="20" spans="1:62" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="215"/>
-      <c r="B20" s="216"/>
-      <c r="C20" s="123" t="s">
+      <c r="A20" s="111"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
@@ -6043,2195 +6044,2195 @@
       <c r="BA20" s="5"/>
       <c r="BB20" s="4"/>
       <c r="BC20" s="6"/>
-      <c r="BD20" s="253"/>
-      <c r="BE20" s="254"/>
-      <c r="BF20" s="255"/>
-      <c r="BG20" s="239"/>
-      <c r="BH20" s="240"/>
-      <c r="BI20" s="262"/>
-      <c r="BJ20" s="263"/>
+      <c r="BD20" s="52"/>
+      <c r="BE20" s="53"/>
+      <c r="BF20" s="54"/>
+      <c r="BG20" s="86"/>
+      <c r="BH20" s="87"/>
+      <c r="BI20" s="59"/>
+      <c r="BJ20" s="60"/>
     </row>
     <row r="21" spans="1:62" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="217"/>
-      <c r="B21" s="218"/>
-      <c r="C21" s="219" t="s">
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="241"/>
-      <c r="AG21" s="241"/>
-      <c r="AH21" s="241"/>
-      <c r="AI21" s="241"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="11"/>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="11"/>
-      <c r="AY21" s="11"/>
-      <c r="AZ21" s="11"/>
-      <c r="BA21" s="11"/>
-      <c r="BB21" s="11"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="197"/>
-      <c r="BE21" s="198"/>
-      <c r="BF21" s="199"/>
-      <c r="BG21" s="190"/>
-      <c r="BH21" s="191"/>
-      <c r="BI21" s="242"/>
-      <c r="BJ21" s="243"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="261"/>
+      <c r="I21" s="262"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="262"/>
+      <c r="L21" s="262"/>
+      <c r="M21" s="262"/>
+      <c r="N21" s="262"/>
+      <c r="O21" s="262"/>
+      <c r="P21" s="262"/>
+      <c r="Q21" s="262"/>
+      <c r="R21" s="262"/>
+      <c r="S21" s="262"/>
+      <c r="T21" s="262"/>
+      <c r="U21" s="262"/>
+      <c r="V21" s="262"/>
+      <c r="W21" s="262"/>
+      <c r="X21" s="262"/>
+      <c r="Y21" s="262"/>
+      <c r="Z21" s="262"/>
+      <c r="AA21" s="262"/>
+      <c r="AB21" s="262"/>
+      <c r="AC21" s="262"/>
+      <c r="AD21" s="262"/>
+      <c r="AE21" s="262"/>
+      <c r="AF21" s="262"/>
+      <c r="AG21" s="262"/>
+      <c r="AH21" s="262"/>
+      <c r="AI21" s="262"/>
+      <c r="AJ21" s="262"/>
+      <c r="AK21" s="262"/>
+      <c r="AL21" s="262"/>
+      <c r="AM21" s="262"/>
+      <c r="AN21" s="262"/>
+      <c r="AO21" s="262"/>
+      <c r="AP21" s="262"/>
+      <c r="AQ21" s="262"/>
+      <c r="AR21" s="262"/>
+      <c r="AS21" s="262"/>
+      <c r="AT21" s="262"/>
+      <c r="AU21" s="262"/>
+      <c r="AV21" s="262"/>
+      <c r="AW21" s="262"/>
+      <c r="AX21" s="262"/>
+      <c r="AY21" s="262"/>
+      <c r="AZ21" s="262"/>
+      <c r="BA21" s="262"/>
+      <c r="BB21" s="262"/>
+      <c r="BC21" s="263"/>
+      <c r="BD21" s="153"/>
+      <c r="BE21" s="154"/>
+      <c r="BF21" s="155"/>
+      <c r="BG21" s="147"/>
+      <c r="BH21" s="148"/>
+      <c r="BI21" s="88"/>
+      <c r="BJ21" s="89"/>
     </row>
     <row r="22" spans="1:62" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="122"/>
-      <c r="C22" s="77" t="s">
+      <c r="B22" s="228"/>
+      <c r="C22" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="120" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="226" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120" t="s">
+      <c r="H22" s="226"/>
+      <c r="I22" s="226"/>
+      <c r="J22" s="226"/>
+      <c r="K22" s="226"/>
+      <c r="L22" s="226"/>
+      <c r="M22" s="226"/>
+      <c r="N22" s="226"/>
+      <c r="O22" s="226" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120"/>
-      <c r="U22" s="120"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="82" t="s">
+      <c r="P22" s="226"/>
+      <c r="Q22" s="226"/>
+      <c r="R22" s="226"/>
+      <c r="S22" s="226"/>
+      <c r="T22" s="226"/>
+      <c r="U22" s="226"/>
+      <c r="V22" s="226"/>
+      <c r="W22" s="226"/>
+      <c r="X22" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
-      <c r="AH22" s="82"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="82" t="s">
+      <c r="Y22" s="83"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="83"/>
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="83"/>
+      <c r="AJ22" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="AK22" s="82"/>
-      <c r="AL22" s="82"/>
-      <c r="AM22" s="82"/>
-      <c r="AN22" s="82"/>
-      <c r="AO22" s="82"/>
-      <c r="AP22" s="82"/>
-      <c r="AQ22" s="82"/>
-      <c r="AR22" s="82"/>
-      <c r="AS22" s="77" t="s">
+      <c r="AK22" s="83"/>
+      <c r="AL22" s="83"/>
+      <c r="AM22" s="83"/>
+      <c r="AN22" s="83"/>
+      <c r="AO22" s="83"/>
+      <c r="AP22" s="83"/>
+      <c r="AQ22" s="83"/>
+      <c r="AR22" s="83"/>
+      <c r="AS22" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="78"/>
-      <c r="AZ22" s="78"/>
-      <c r="BA22" s="78"/>
-      <c r="BB22" s="78"/>
-      <c r="BC22" s="79"/>
-      <c r="BD22" s="77" t="s">
+      <c r="AT22" s="81"/>
+      <c r="AU22" s="81"/>
+      <c r="AV22" s="81"/>
+      <c r="AW22" s="81"/>
+      <c r="AX22" s="81"/>
+      <c r="AY22" s="81"/>
+      <c r="AZ22" s="81"/>
+      <c r="BA22" s="81"/>
+      <c r="BB22" s="81"/>
+      <c r="BC22" s="82"/>
+      <c r="BD22" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="BE22" s="78"/>
-      <c r="BF22" s="79"/>
-      <c r="BG22" s="82" t="s">
+      <c r="BE22" s="81"/>
+      <c r="BF22" s="82"/>
+      <c r="BG22" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="BH22" s="82"/>
-      <c r="BI22" s="82" t="s">
+      <c r="BH22" s="83"/>
+      <c r="BI22" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="BJ22" s="200"/>
+      <c r="BJ22" s="156"/>
     </row>
     <row r="23" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114">
+      <c r="A23" s="105">
         <v>1</v>
       </c>
-      <c r="B23" s="115"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="63"/>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
-      <c r="AQ23" s="62"/>
-      <c r="AR23" s="63"/>
-      <c r="AS23" s="45"/>
-      <c r="AT23" s="60"/>
-      <c r="AU23" s="60"/>
-      <c r="AV23" s="60"/>
-      <c r="AW23" s="60"/>
-      <c r="AX23" s="60"/>
-      <c r="AY23" s="60"/>
-      <c r="AZ23" s="60"/>
-      <c r="BA23" s="60"/>
-      <c r="BB23" s="60"/>
-      <c r="BC23" s="46"/>
-      <c r="BD23" s="66"/>
-      <c r="BE23" s="67"/>
-      <c r="BF23" s="68"/>
-      <c r="BG23" s="45"/>
-      <c r="BH23" s="46"/>
-      <c r="BI23" s="55"/>
-      <c r="BJ23" s="56"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="203"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="203"/>
+      <c r="M23" s="203"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="98"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="94"/>
+      <c r="AK23" s="98"/>
+      <c r="AL23" s="98"/>
+      <c r="AM23" s="98"/>
+      <c r="AN23" s="98"/>
+      <c r="AO23" s="98"/>
+      <c r="AP23" s="98"/>
+      <c r="AQ23" s="98"/>
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="90"/>
+      <c r="AT23" s="203"/>
+      <c r="AU23" s="203"/>
+      <c r="AV23" s="203"/>
+      <c r="AW23" s="203"/>
+      <c r="AX23" s="203"/>
+      <c r="AY23" s="203"/>
+      <c r="AZ23" s="203"/>
+      <c r="BA23" s="203"/>
+      <c r="BB23" s="203"/>
+      <c r="BC23" s="91"/>
+      <c r="BD23" s="218"/>
+      <c r="BE23" s="219"/>
+      <c r="BF23" s="220"/>
+      <c r="BG23" s="90"/>
+      <c r="BH23" s="91"/>
+      <c r="BI23" s="94"/>
+      <c r="BJ23" s="95"/>
     </row>
     <row r="24" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="64"/>
-      <c r="AH24" s="64"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="57"/>
-      <c r="AK24" s="64"/>
-      <c r="AL24" s="64"/>
-      <c r="AM24" s="64"/>
-      <c r="AN24" s="64"/>
-      <c r="AO24" s="64"/>
-      <c r="AP24" s="64"/>
-      <c r="AQ24" s="64"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="47"/>
-      <c r="AT24" s="61"/>
-      <c r="AU24" s="61"/>
-      <c r="AV24" s="61"/>
-      <c r="AW24" s="61"/>
-      <c r="AX24" s="61"/>
-      <c r="AY24" s="61"/>
-      <c r="AZ24" s="61"/>
-      <c r="BA24" s="61"/>
-      <c r="BB24" s="61"/>
-      <c r="BC24" s="48"/>
-      <c r="BD24" s="69"/>
-      <c r="BE24" s="70"/>
-      <c r="BF24" s="71"/>
-      <c r="BG24" s="47"/>
-      <c r="BH24" s="48"/>
-      <c r="BI24" s="57"/>
-      <c r="BJ24" s="58"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="204"/>
+      <c r="I24" s="204"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="204"/>
+      <c r="L24" s="204"/>
+      <c r="M24" s="204"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="100"/>
+      <c r="AI24" s="101"/>
+      <c r="AJ24" s="96"/>
+      <c r="AK24" s="100"/>
+      <c r="AL24" s="100"/>
+      <c r="AM24" s="100"/>
+      <c r="AN24" s="100"/>
+      <c r="AO24" s="100"/>
+      <c r="AP24" s="100"/>
+      <c r="AQ24" s="100"/>
+      <c r="AR24" s="101"/>
+      <c r="AS24" s="92"/>
+      <c r="AT24" s="204"/>
+      <c r="AU24" s="204"/>
+      <c r="AV24" s="204"/>
+      <c r="AW24" s="204"/>
+      <c r="AX24" s="204"/>
+      <c r="AY24" s="204"/>
+      <c r="AZ24" s="204"/>
+      <c r="BA24" s="204"/>
+      <c r="BB24" s="204"/>
+      <c r="BC24" s="93"/>
+      <c r="BD24" s="221"/>
+      <c r="BE24" s="222"/>
+      <c r="BF24" s="223"/>
+      <c r="BG24" s="92"/>
+      <c r="BH24" s="93"/>
+      <c r="BI24" s="96"/>
+      <c r="BJ24" s="97"/>
     </row>
     <row r="25" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114">
+      <c r="A25" s="105">
         <v>2</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="55"/>
-      <c r="AK25" s="62"/>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="62"/>
-      <c r="AN25" s="62"/>
-      <c r="AO25" s="62"/>
-      <c r="AP25" s="62"/>
-      <c r="AQ25" s="62"/>
-      <c r="AR25" s="63"/>
-      <c r="AS25" s="45"/>
-      <c r="AT25" s="60"/>
-      <c r="AU25" s="60"/>
-      <c r="AV25" s="60"/>
-      <c r="AW25" s="60"/>
-      <c r="AX25" s="60"/>
-      <c r="AY25" s="60"/>
-      <c r="AZ25" s="60"/>
-      <c r="BA25" s="60"/>
-      <c r="BB25" s="60"/>
-      <c r="BC25" s="46"/>
-      <c r="BD25" s="66"/>
-      <c r="BE25" s="67"/>
-      <c r="BF25" s="68"/>
-      <c r="BG25" s="45"/>
-      <c r="BH25" s="46"/>
-      <c r="BI25" s="55"/>
-      <c r="BJ25" s="56"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="203"/>
+      <c r="K25" s="203"/>
+      <c r="L25" s="203"/>
+      <c r="M25" s="203"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="94"/>
+      <c r="AK25" s="98"/>
+      <c r="AL25" s="98"/>
+      <c r="AM25" s="98"/>
+      <c r="AN25" s="98"/>
+      <c r="AO25" s="98"/>
+      <c r="AP25" s="98"/>
+      <c r="AQ25" s="98"/>
+      <c r="AR25" s="99"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="203"/>
+      <c r="AU25" s="203"/>
+      <c r="AV25" s="203"/>
+      <c r="AW25" s="203"/>
+      <c r="AX25" s="203"/>
+      <c r="AY25" s="203"/>
+      <c r="AZ25" s="203"/>
+      <c r="BA25" s="203"/>
+      <c r="BB25" s="203"/>
+      <c r="BC25" s="91"/>
+      <c r="BD25" s="218"/>
+      <c r="BE25" s="219"/>
+      <c r="BF25" s="220"/>
+      <c r="BG25" s="90"/>
+      <c r="BH25" s="91"/>
+      <c r="BI25" s="94"/>
+      <c r="BJ25" s="95"/>
     </row>
     <row r="26" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="116"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="64"/>
-      <c r="AL26" s="64"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="64"/>
-      <c r="AO26" s="64"/>
-      <c r="AP26" s="64"/>
-      <c r="AQ26" s="64"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="47"/>
-      <c r="AT26" s="61"/>
-      <c r="AU26" s="61"/>
-      <c r="AV26" s="61"/>
-      <c r="AW26" s="61"/>
-      <c r="AX26" s="61"/>
-      <c r="AY26" s="61"/>
-      <c r="AZ26" s="61"/>
-      <c r="BA26" s="61"/>
-      <c r="BB26" s="61"/>
-      <c r="BC26" s="48"/>
-      <c r="BD26" s="69"/>
-      <c r="BE26" s="70"/>
-      <c r="BF26" s="71"/>
-      <c r="BG26" s="47"/>
-      <c r="BH26" s="48"/>
-      <c r="BI26" s="57"/>
-      <c r="BJ26" s="58"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="100"/>
+      <c r="AI26" s="101"/>
+      <c r="AJ26" s="96"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="100"/>
+      <c r="AM26" s="100"/>
+      <c r="AN26" s="100"/>
+      <c r="AO26" s="100"/>
+      <c r="AP26" s="100"/>
+      <c r="AQ26" s="100"/>
+      <c r="AR26" s="101"/>
+      <c r="AS26" s="92"/>
+      <c r="AT26" s="204"/>
+      <c r="AU26" s="204"/>
+      <c r="AV26" s="204"/>
+      <c r="AW26" s="204"/>
+      <c r="AX26" s="204"/>
+      <c r="AY26" s="204"/>
+      <c r="AZ26" s="204"/>
+      <c r="BA26" s="204"/>
+      <c r="BB26" s="204"/>
+      <c r="BC26" s="93"/>
+      <c r="BD26" s="221"/>
+      <c r="BE26" s="222"/>
+      <c r="BF26" s="223"/>
+      <c r="BG26" s="92"/>
+      <c r="BH26" s="93"/>
+      <c r="BI26" s="96"/>
+      <c r="BJ26" s="97"/>
     </row>
     <row r="27" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="114">
+      <c r="A27" s="105">
         <v>3</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="62"/>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62"/>
-      <c r="AQ27" s="62"/>
-      <c r="AR27" s="63"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="60"/>
-      <c r="AU27" s="60"/>
-      <c r="AV27" s="60"/>
-      <c r="AW27" s="60"/>
-      <c r="AX27" s="60"/>
-      <c r="AY27" s="60"/>
-      <c r="AZ27" s="60"/>
-      <c r="BA27" s="60"/>
-      <c r="BB27" s="60"/>
-      <c r="BC27" s="46"/>
-      <c r="BD27" s="66"/>
-      <c r="BE27" s="67"/>
-      <c r="BF27" s="68"/>
-      <c r="BG27" s="45"/>
-      <c r="BH27" s="46"/>
-      <c r="BI27" s="55"/>
-      <c r="BJ27" s="56"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="203"/>
+      <c r="K27" s="203"/>
+      <c r="L27" s="203"/>
+      <c r="M27" s="203"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="94"/>
+      <c r="AK27" s="98"/>
+      <c r="AL27" s="98"/>
+      <c r="AM27" s="98"/>
+      <c r="AN27" s="98"/>
+      <c r="AO27" s="98"/>
+      <c r="AP27" s="98"/>
+      <c r="AQ27" s="98"/>
+      <c r="AR27" s="99"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="203"/>
+      <c r="AU27" s="203"/>
+      <c r="AV27" s="203"/>
+      <c r="AW27" s="203"/>
+      <c r="AX27" s="203"/>
+      <c r="AY27" s="203"/>
+      <c r="AZ27" s="203"/>
+      <c r="BA27" s="203"/>
+      <c r="BB27" s="203"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="218"/>
+      <c r="BE27" s="219"/>
+      <c r="BF27" s="220"/>
+      <c r="BG27" s="90"/>
+      <c r="BH27" s="91"/>
+      <c r="BI27" s="94"/>
+      <c r="BJ27" s="95"/>
     </row>
     <row r="28" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="116"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="64"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="64"/>
-      <c r="AO28" s="64"/>
-      <c r="AP28" s="64"/>
-      <c r="AQ28" s="64"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="47"/>
-      <c r="AT28" s="61"/>
-      <c r="AU28" s="61"/>
-      <c r="AV28" s="61"/>
-      <c r="AW28" s="61"/>
-      <c r="AX28" s="61"/>
-      <c r="AY28" s="61"/>
-      <c r="AZ28" s="61"/>
-      <c r="BA28" s="61"/>
-      <c r="BB28" s="61"/>
-      <c r="BC28" s="48"/>
-      <c r="BD28" s="69"/>
-      <c r="BE28" s="70"/>
-      <c r="BF28" s="71"/>
-      <c r="BG28" s="47"/>
-      <c r="BH28" s="48"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="58"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="204"/>
+      <c r="L28" s="204"/>
+      <c r="M28" s="204"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
+      <c r="AI28" s="101"/>
+      <c r="AJ28" s="96"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="100"/>
+      <c r="AM28" s="100"/>
+      <c r="AN28" s="100"/>
+      <c r="AO28" s="100"/>
+      <c r="AP28" s="100"/>
+      <c r="AQ28" s="100"/>
+      <c r="AR28" s="101"/>
+      <c r="AS28" s="92"/>
+      <c r="AT28" s="204"/>
+      <c r="AU28" s="204"/>
+      <c r="AV28" s="204"/>
+      <c r="AW28" s="204"/>
+      <c r="AX28" s="204"/>
+      <c r="AY28" s="204"/>
+      <c r="AZ28" s="204"/>
+      <c r="BA28" s="204"/>
+      <c r="BB28" s="204"/>
+      <c r="BC28" s="93"/>
+      <c r="BD28" s="221"/>
+      <c r="BE28" s="222"/>
+      <c r="BF28" s="223"/>
+      <c r="BG28" s="92"/>
+      <c r="BH28" s="93"/>
+      <c r="BI28" s="96"/>
+      <c r="BJ28" s="97"/>
     </row>
     <row r="29" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="114">
+      <c r="A29" s="105">
         <v>4</v>
       </c>
-      <c r="B29" s="115"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="62"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="62"/>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="62"/>
-      <c r="AQ29" s="62"/>
-      <c r="AR29" s="63"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="60"/>
-      <c r="AU29" s="60"/>
-      <c r="AV29" s="60"/>
-      <c r="AW29" s="60"/>
-      <c r="AX29" s="60"/>
-      <c r="AY29" s="60"/>
-      <c r="AZ29" s="60"/>
-      <c r="BA29" s="60"/>
-      <c r="BB29" s="60"/>
-      <c r="BC29" s="46"/>
-      <c r="BD29" s="66"/>
-      <c r="BE29" s="67"/>
-      <c r="BF29" s="68"/>
-      <c r="BG29" s="45"/>
-      <c r="BH29" s="46"/>
-      <c r="BI29" s="55"/>
-      <c r="BJ29" s="56"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="203"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="203"/>
+      <c r="K29" s="203"/>
+      <c r="L29" s="203"/>
+      <c r="M29" s="203"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="99"/>
+      <c r="AJ29" s="94"/>
+      <c r="AK29" s="98"/>
+      <c r="AL29" s="98"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="98"/>
+      <c r="AO29" s="98"/>
+      <c r="AP29" s="98"/>
+      <c r="AQ29" s="98"/>
+      <c r="AR29" s="99"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="203"/>
+      <c r="AU29" s="203"/>
+      <c r="AV29" s="203"/>
+      <c r="AW29" s="203"/>
+      <c r="AX29" s="203"/>
+      <c r="AY29" s="203"/>
+      <c r="AZ29" s="203"/>
+      <c r="BA29" s="203"/>
+      <c r="BB29" s="203"/>
+      <c r="BC29" s="91"/>
+      <c r="BD29" s="218"/>
+      <c r="BE29" s="219"/>
+      <c r="BF29" s="220"/>
+      <c r="BG29" s="90"/>
+      <c r="BH29" s="91"/>
+      <c r="BI29" s="94"/>
+      <c r="BJ29" s="95"/>
     </row>
     <row r="30" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="64"/>
-      <c r="AC30" s="64"/>
-      <c r="AD30" s="64"/>
-      <c r="AE30" s="64"/>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="64"/>
-      <c r="AH30" s="64"/>
-      <c r="AI30" s="65"/>
-      <c r="AJ30" s="57"/>
-      <c r="AK30" s="64"/>
-      <c r="AL30" s="64"/>
-      <c r="AM30" s="64"/>
-      <c r="AN30" s="64"/>
-      <c r="AO30" s="64"/>
-      <c r="AP30" s="64"/>
-      <c r="AQ30" s="64"/>
-      <c r="AR30" s="65"/>
-      <c r="AS30" s="47"/>
-      <c r="AT30" s="61"/>
-      <c r="AU30" s="61"/>
-      <c r="AV30" s="61"/>
-      <c r="AW30" s="61"/>
-      <c r="AX30" s="61"/>
-      <c r="AY30" s="61"/>
-      <c r="AZ30" s="61"/>
-      <c r="BA30" s="61"/>
-      <c r="BB30" s="61"/>
-      <c r="BC30" s="48"/>
-      <c r="BD30" s="69"/>
-      <c r="BE30" s="70"/>
-      <c r="BF30" s="71"/>
-      <c r="BG30" s="47"/>
-      <c r="BH30" s="48"/>
-      <c r="BI30" s="57"/>
-      <c r="BJ30" s="58"/>
+      <c r="A30" s="107"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="204"/>
+      <c r="L30" s="204"/>
+      <c r="M30" s="204"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="100"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="100"/>
+      <c r="AI30" s="101"/>
+      <c r="AJ30" s="96"/>
+      <c r="AK30" s="100"/>
+      <c r="AL30" s="100"/>
+      <c r="AM30" s="100"/>
+      <c r="AN30" s="100"/>
+      <c r="AO30" s="100"/>
+      <c r="AP30" s="100"/>
+      <c r="AQ30" s="100"/>
+      <c r="AR30" s="101"/>
+      <c r="AS30" s="92"/>
+      <c r="AT30" s="204"/>
+      <c r="AU30" s="204"/>
+      <c r="AV30" s="204"/>
+      <c r="AW30" s="204"/>
+      <c r="AX30" s="204"/>
+      <c r="AY30" s="204"/>
+      <c r="AZ30" s="204"/>
+      <c r="BA30" s="204"/>
+      <c r="BB30" s="204"/>
+      <c r="BC30" s="93"/>
+      <c r="BD30" s="221"/>
+      <c r="BE30" s="222"/>
+      <c r="BF30" s="223"/>
+      <c r="BG30" s="92"/>
+      <c r="BH30" s="93"/>
+      <c r="BI30" s="96"/>
+      <c r="BJ30" s="97"/>
     </row>
     <row r="31" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="114">
+      <c r="A31" s="105">
         <v>5</v>
       </c>
-      <c r="B31" s="115"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="62"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="62"/>
-      <c r="AN31" s="62"/>
-      <c r="AO31" s="62"/>
-      <c r="AP31" s="62"/>
-      <c r="AQ31" s="62"/>
-      <c r="AR31" s="63"/>
-      <c r="AS31" s="45"/>
-      <c r="AT31" s="60"/>
-      <c r="AU31" s="60"/>
-      <c r="AV31" s="60"/>
-      <c r="AW31" s="60"/>
-      <c r="AX31" s="60"/>
-      <c r="AY31" s="60"/>
-      <c r="AZ31" s="60"/>
-      <c r="BA31" s="60"/>
-      <c r="BB31" s="60"/>
-      <c r="BC31" s="46"/>
-      <c r="BD31" s="66"/>
-      <c r="BE31" s="67"/>
-      <c r="BF31" s="68"/>
-      <c r="BG31" s="45"/>
-      <c r="BH31" s="46"/>
-      <c r="BI31" s="55"/>
-      <c r="BJ31" s="56"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="203"/>
+      <c r="K31" s="203"/>
+      <c r="L31" s="203"/>
+      <c r="M31" s="203"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="99"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="98"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="99"/>
+      <c r="AJ31" s="94"/>
+      <c r="AK31" s="98"/>
+      <c r="AL31" s="98"/>
+      <c r="AM31" s="98"/>
+      <c r="AN31" s="98"/>
+      <c r="AO31" s="98"/>
+      <c r="AP31" s="98"/>
+      <c r="AQ31" s="98"/>
+      <c r="AR31" s="99"/>
+      <c r="AS31" s="90"/>
+      <c r="AT31" s="203"/>
+      <c r="AU31" s="203"/>
+      <c r="AV31" s="203"/>
+      <c r="AW31" s="203"/>
+      <c r="AX31" s="203"/>
+      <c r="AY31" s="203"/>
+      <c r="AZ31" s="203"/>
+      <c r="BA31" s="203"/>
+      <c r="BB31" s="203"/>
+      <c r="BC31" s="91"/>
+      <c r="BD31" s="218"/>
+      <c r="BE31" s="219"/>
+      <c r="BF31" s="220"/>
+      <c r="BG31" s="90"/>
+      <c r="BH31" s="91"/>
+      <c r="BI31" s="94"/>
+      <c r="BJ31" s="95"/>
     </row>
     <row r="32" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="65"/>
-      <c r="AJ32" s="57"/>
-      <c r="AK32" s="64"/>
-      <c r="AL32" s="64"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="64"/>
-      <c r="AO32" s="64"/>
-      <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="65"/>
-      <c r="AS32" s="47"/>
-      <c r="AT32" s="61"/>
-      <c r="AU32" s="61"/>
-      <c r="AV32" s="61"/>
-      <c r="AW32" s="61"/>
-      <c r="AX32" s="61"/>
-      <c r="AY32" s="61"/>
-      <c r="AZ32" s="61"/>
-      <c r="BA32" s="61"/>
-      <c r="BB32" s="61"/>
-      <c r="BC32" s="48"/>
-      <c r="BD32" s="69"/>
-      <c r="BE32" s="70"/>
-      <c r="BF32" s="71"/>
-      <c r="BG32" s="47"/>
-      <c r="BH32" s="48"/>
-      <c r="BI32" s="57"/>
-      <c r="BJ32" s="58"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="204"/>
+      <c r="I32" s="204"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="204"/>
+      <c r="L32" s="204"/>
+      <c r="M32" s="204"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="100"/>
+      <c r="AI32" s="101"/>
+      <c r="AJ32" s="96"/>
+      <c r="AK32" s="100"/>
+      <c r="AL32" s="100"/>
+      <c r="AM32" s="100"/>
+      <c r="AN32" s="100"/>
+      <c r="AO32" s="100"/>
+      <c r="AP32" s="100"/>
+      <c r="AQ32" s="100"/>
+      <c r="AR32" s="101"/>
+      <c r="AS32" s="92"/>
+      <c r="AT32" s="204"/>
+      <c r="AU32" s="204"/>
+      <c r="AV32" s="204"/>
+      <c r="AW32" s="204"/>
+      <c r="AX32" s="204"/>
+      <c r="AY32" s="204"/>
+      <c r="AZ32" s="204"/>
+      <c r="BA32" s="204"/>
+      <c r="BB32" s="204"/>
+      <c r="BC32" s="93"/>
+      <c r="BD32" s="221"/>
+      <c r="BE32" s="222"/>
+      <c r="BF32" s="223"/>
+      <c r="BG32" s="92"/>
+      <c r="BH32" s="93"/>
+      <c r="BI32" s="96"/>
+      <c r="BJ32" s="97"/>
     </row>
     <row r="33" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="114">
+      <c r="A33" s="105">
         <v>6</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="63"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="62"/>
-      <c r="AL33" s="62"/>
-      <c r="AM33" s="62"/>
-      <c r="AN33" s="62"/>
-      <c r="AO33" s="62"/>
-      <c r="AP33" s="62"/>
-      <c r="AQ33" s="62"/>
-      <c r="AR33" s="63"/>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="60"/>
-      <c r="AU33" s="60"/>
-      <c r="AV33" s="60"/>
-      <c r="AW33" s="60"/>
-      <c r="AX33" s="60"/>
-      <c r="AY33" s="60"/>
-      <c r="AZ33" s="60"/>
-      <c r="BA33" s="60"/>
-      <c r="BB33" s="60"/>
-      <c r="BC33" s="46"/>
-      <c r="BD33" s="66"/>
-      <c r="BE33" s="67"/>
-      <c r="BF33" s="68"/>
-      <c r="BG33" s="45"/>
-      <c r="BH33" s="46"/>
-      <c r="BI33" s="55"/>
-      <c r="BJ33" s="56"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="203"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="203"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="99"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="98"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="98"/>
+      <c r="AH33" s="98"/>
+      <c r="AI33" s="99"/>
+      <c r="AJ33" s="94"/>
+      <c r="AK33" s="98"/>
+      <c r="AL33" s="98"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="98"/>
+      <c r="AO33" s="98"/>
+      <c r="AP33" s="98"/>
+      <c r="AQ33" s="98"/>
+      <c r="AR33" s="99"/>
+      <c r="AS33" s="90"/>
+      <c r="AT33" s="203"/>
+      <c r="AU33" s="203"/>
+      <c r="AV33" s="203"/>
+      <c r="AW33" s="203"/>
+      <c r="AX33" s="203"/>
+      <c r="AY33" s="203"/>
+      <c r="AZ33" s="203"/>
+      <c r="BA33" s="203"/>
+      <c r="BB33" s="203"/>
+      <c r="BC33" s="91"/>
+      <c r="BD33" s="218"/>
+      <c r="BE33" s="219"/>
+      <c r="BF33" s="220"/>
+      <c r="BG33" s="90"/>
+      <c r="BH33" s="91"/>
+      <c r="BI33" s="94"/>
+      <c r="BJ33" s="95"/>
     </row>
     <row r="34" spans="1:62" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="118"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="65"/>
-      <c r="AJ34" s="57"/>
-      <c r="AK34" s="64"/>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="64"/>
-      <c r="AO34" s="64"/>
-      <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="65"/>
-      <c r="AS34" s="47"/>
-      <c r="AT34" s="61"/>
-      <c r="AU34" s="61"/>
-      <c r="AV34" s="61"/>
-      <c r="AW34" s="61"/>
-      <c r="AX34" s="61"/>
-      <c r="AY34" s="61"/>
-      <c r="AZ34" s="61"/>
-      <c r="BA34" s="61"/>
-      <c r="BB34" s="61"/>
-      <c r="BC34" s="48"/>
-      <c r="BD34" s="69"/>
-      <c r="BE34" s="70"/>
-      <c r="BF34" s="71"/>
-      <c r="BG34" s="47"/>
-      <c r="BH34" s="48"/>
-      <c r="BI34" s="57"/>
-      <c r="BJ34" s="58"/>
+      <c r="A34" s="224"/>
+      <c r="B34" s="225"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="204"/>
+      <c r="I34" s="204"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="204"/>
+      <c r="L34" s="204"/>
+      <c r="M34" s="204"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="100"/>
+      <c r="S34" s="100"/>
+      <c r="T34" s="100"/>
+      <c r="U34" s="100"/>
+      <c r="V34" s="100"/>
+      <c r="W34" s="101"/>
+      <c r="X34" s="96"/>
+      <c r="Y34" s="100"/>
+      <c r="Z34" s="100"/>
+      <c r="AA34" s="100"/>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="100"/>
+      <c r="AE34" s="100"/>
+      <c r="AF34" s="100"/>
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="100"/>
+      <c r="AI34" s="101"/>
+      <c r="AJ34" s="96"/>
+      <c r="AK34" s="100"/>
+      <c r="AL34" s="100"/>
+      <c r="AM34" s="100"/>
+      <c r="AN34" s="100"/>
+      <c r="AO34" s="100"/>
+      <c r="AP34" s="100"/>
+      <c r="AQ34" s="100"/>
+      <c r="AR34" s="101"/>
+      <c r="AS34" s="92"/>
+      <c r="AT34" s="204"/>
+      <c r="AU34" s="204"/>
+      <c r="AV34" s="204"/>
+      <c r="AW34" s="204"/>
+      <c r="AX34" s="204"/>
+      <c r="AY34" s="204"/>
+      <c r="AZ34" s="204"/>
+      <c r="BA34" s="204"/>
+      <c r="BB34" s="204"/>
+      <c r="BC34" s="93"/>
+      <c r="BD34" s="221"/>
+      <c r="BE34" s="222"/>
+      <c r="BF34" s="223"/>
+      <c r="BG34" s="92"/>
+      <c r="BH34" s="93"/>
+      <c r="BI34" s="96"/>
+      <c r="BJ34" s="97"/>
     </row>
     <row r="35" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="77" t="s">
+      <c r="B35" s="213"/>
+      <c r="C35" s="213"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="77" t="s">
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="77" t="s">
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="R35" s="78"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="78"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="98" t="s">
+      <c r="R35" s="81"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="81"/>
+      <c r="V35" s="81"/>
+      <c r="W35" s="81"/>
+      <c r="X35" s="81"/>
+      <c r="Y35" s="252" t="s">
         <v>90</v>
       </c>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="99"/>
-      <c r="AK35" s="99"/>
-      <c r="AL35" s="99"/>
-      <c r="AM35" s="99"/>
-      <c r="AN35" s="99"/>
-      <c r="AO35" s="99"/>
-      <c r="AP35" s="99"/>
-      <c r="AQ35" s="99"/>
-      <c r="AR35" s="99"/>
-      <c r="AS35" s="99" t="s">
+      <c r="Z35" s="233"/>
+      <c r="AA35" s="233"/>
+      <c r="AB35" s="233"/>
+      <c r="AC35" s="233"/>
+      <c r="AD35" s="233"/>
+      <c r="AE35" s="233"/>
+      <c r="AF35" s="233"/>
+      <c r="AG35" s="233"/>
+      <c r="AH35" s="233"/>
+      <c r="AI35" s="233"/>
+      <c r="AJ35" s="233"/>
+      <c r="AK35" s="233"/>
+      <c r="AL35" s="233"/>
+      <c r="AM35" s="233"/>
+      <c r="AN35" s="233"/>
+      <c r="AO35" s="233"/>
+      <c r="AP35" s="233"/>
+      <c r="AQ35" s="233"/>
+      <c r="AR35" s="233"/>
+      <c r="AS35" s="233" t="s">
         <v>93</v>
       </c>
-      <c r="AT35" s="99"/>
-      <c r="AU35" s="99"/>
-      <c r="AV35" s="99"/>
-      <c r="AW35" s="99"/>
-      <c r="AX35" s="99"/>
-      <c r="AY35" s="99"/>
-      <c r="AZ35" s="99"/>
-      <c r="BA35" s="99"/>
-      <c r="BB35" s="99"/>
-      <c r="BC35" s="99"/>
-      <c r="BD35" s="99"/>
-      <c r="BE35" s="99" t="s">
+      <c r="AT35" s="233"/>
+      <c r="AU35" s="233"/>
+      <c r="AV35" s="233"/>
+      <c r="AW35" s="233"/>
+      <c r="AX35" s="233"/>
+      <c r="AY35" s="233"/>
+      <c r="AZ35" s="233"/>
+      <c r="BA35" s="233"/>
+      <c r="BB35" s="233"/>
+      <c r="BC35" s="233"/>
+      <c r="BD35" s="233"/>
+      <c r="BE35" s="233" t="s">
         <v>101</v>
       </c>
-      <c r="BF35" s="99"/>
-      <c r="BG35" s="99"/>
-      <c r="BH35" s="99"/>
-      <c r="BI35" s="99"/>
-      <c r="BJ35" s="111"/>
+      <c r="BF35" s="233"/>
+      <c r="BG35" s="233"/>
+      <c r="BH35" s="233"/>
+      <c r="BI35" s="233"/>
+      <c r="BJ35" s="238"/>
     </row>
     <row r="36" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="128"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="94" t="s">
+      <c r="A36" s="214"/>
+      <c r="B36" s="215"/>
+      <c r="C36" s="215"/>
+      <c r="D36" s="215"/>
+      <c r="E36" s="246"/>
+      <c r="F36" s="247"/>
+      <c r="G36" s="247"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="246"/>
+      <c r="J36" s="247"/>
+      <c r="K36" s="247"/>
+      <c r="L36" s="247"/>
+      <c r="M36" s="247"/>
+      <c r="N36" s="247"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="246"/>
+      <c r="R36" s="247"/>
+      <c r="S36" s="247"/>
+      <c r="T36" s="247"/>
+      <c r="U36" s="247"/>
+      <c r="V36" s="247"/>
+      <c r="W36" s="247"/>
+      <c r="X36" s="247"/>
+      <c r="Y36" s="251" t="s">
         <v>97</v>
       </c>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="59"/>
-      <c r="AH36" s="59"/>
-      <c r="AI36" s="59"/>
-      <c r="AJ36" s="59"/>
-      <c r="AK36" s="59"/>
-      <c r="AL36" s="59"/>
-      <c r="AM36" s="59"/>
-      <c r="AN36" s="59"/>
-      <c r="AO36" s="59"/>
-      <c r="AP36" s="59"/>
-      <c r="AQ36" s="59"/>
-      <c r="AR36" s="59"/>
-      <c r="AS36" s="35"/>
-      <c r="AT36" s="35"/>
-      <c r="AU36" s="59"/>
-      <c r="AV36" s="59"/>
-      <c r="AW36" s="59"/>
-      <c r="AX36" s="59"/>
-      <c r="AY36" s="59"/>
-      <c r="AZ36" s="59"/>
-      <c r="BA36" s="59"/>
-      <c r="BB36" s="59"/>
-      <c r="BC36" s="59"/>
-      <c r="BD36" s="59"/>
-      <c r="BE36" s="35"/>
-      <c r="BF36" s="59"/>
-      <c r="BG36" s="59"/>
-      <c r="BH36" s="59"/>
-      <c r="BI36" s="59"/>
-      <c r="BJ36" s="109"/>
+      <c r="Z36" s="235"/>
+      <c r="AA36" s="235"/>
+      <c r="AB36" s="235"/>
+      <c r="AC36" s="235"/>
+      <c r="AD36" s="235"/>
+      <c r="AE36" s="235"/>
+      <c r="AF36" s="235"/>
+      <c r="AG36" s="235"/>
+      <c r="AH36" s="235"/>
+      <c r="AI36" s="235"/>
+      <c r="AJ36" s="235"/>
+      <c r="AK36" s="235"/>
+      <c r="AL36" s="235"/>
+      <c r="AM36" s="235"/>
+      <c r="AN36" s="235"/>
+      <c r="AO36" s="235"/>
+      <c r="AP36" s="235"/>
+      <c r="AQ36" s="235"/>
+      <c r="AR36" s="235"/>
+      <c r="AS36" s="31"/>
+      <c r="AT36" s="31"/>
+      <c r="AU36" s="235"/>
+      <c r="AV36" s="235"/>
+      <c r="AW36" s="235"/>
+      <c r="AX36" s="235"/>
+      <c r="AY36" s="235"/>
+      <c r="AZ36" s="235"/>
+      <c r="BA36" s="235"/>
+      <c r="BB36" s="235"/>
+      <c r="BC36" s="235"/>
+      <c r="BD36" s="235"/>
+      <c r="BE36" s="31"/>
+      <c r="BF36" s="235"/>
+      <c r="BG36" s="235"/>
+      <c r="BH36" s="235"/>
+      <c r="BI36" s="235"/>
+      <c r="BJ36" s="236"/>
     </row>
     <row r="37" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="130"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="40" t="s">
+      <c r="A37" s="216"/>
+      <c r="B37" s="217"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="217"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="258"/>
+      <c r="G37" s="258"/>
+      <c r="H37" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="53" t="s">
+      <c r="I37" s="257"/>
+      <c r="J37" s="258"/>
+      <c r="K37" s="258"/>
+      <c r="L37" s="258"/>
+      <c r="M37" s="258"/>
+      <c r="N37" s="258"/>
+      <c r="O37" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="90" t="s">
+      <c r="P37" s="260"/>
+      <c r="Q37" s="248" t="s">
         <v>29</v>
       </c>
-      <c r="R37" s="91"/>
-      <c r="S37" s="91"/>
-      <c r="T37" s="91"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="92" t="s">
+      <c r="R37" s="249"/>
+      <c r="S37" s="249"/>
+      <c r="T37" s="249"/>
+      <c r="U37" s="249"/>
+      <c r="V37" s="249"/>
+      <c r="W37" s="249"/>
+      <c r="X37" s="249"/>
+      <c r="Y37" s="250" t="s">
         <v>92</v>
       </c>
-      <c r="Z37" s="93"/>
-      <c r="AA37" s="93"/>
-      <c r="AB37" s="93"/>
-      <c r="AC37" s="93"/>
-      <c r="AD37" s="93"/>
-      <c r="AE37" s="93"/>
-      <c r="AF37" s="93"/>
-      <c r="AG37" s="93"/>
-      <c r="AH37" s="93"/>
-      <c r="AI37" s="93"/>
-      <c r="AJ37" s="93"/>
-      <c r="AK37" s="93"/>
-      <c r="AL37" s="93"/>
-      <c r="AM37" s="93"/>
-      <c r="AN37" s="93"/>
-      <c r="AO37" s="93"/>
-      <c r="AP37" s="93"/>
-      <c r="AQ37" s="93"/>
-      <c r="AR37" s="93"/>
-      <c r="AS37" s="36"/>
-      <c r="AT37" s="36"/>
-      <c r="AU37" s="93"/>
-      <c r="AV37" s="93"/>
-      <c r="AW37" s="93"/>
-      <c r="AX37" s="93"/>
-      <c r="AY37" s="93"/>
-      <c r="AZ37" s="93"/>
-      <c r="BA37" s="93"/>
-      <c r="BB37" s="93"/>
-      <c r="BC37" s="93"/>
-      <c r="BD37" s="93"/>
-      <c r="BE37" s="36"/>
-      <c r="BF37" s="93"/>
-      <c r="BG37" s="93"/>
-      <c r="BH37" s="93"/>
-      <c r="BI37" s="93"/>
-      <c r="BJ37" s="110"/>
+      <c r="Z37" s="234"/>
+      <c r="AA37" s="234"/>
+      <c r="AB37" s="234"/>
+      <c r="AC37" s="234"/>
+      <c r="AD37" s="234"/>
+      <c r="AE37" s="234"/>
+      <c r="AF37" s="234"/>
+      <c r="AG37" s="234"/>
+      <c r="AH37" s="234"/>
+      <c r="AI37" s="234"/>
+      <c r="AJ37" s="234"/>
+      <c r="AK37" s="234"/>
+      <c r="AL37" s="234"/>
+      <c r="AM37" s="234"/>
+      <c r="AN37" s="234"/>
+      <c r="AO37" s="234"/>
+      <c r="AP37" s="234"/>
+      <c r="AQ37" s="234"/>
+      <c r="AR37" s="234"/>
+      <c r="AS37" s="32"/>
+      <c r="AT37" s="32"/>
+      <c r="AU37" s="234"/>
+      <c r="AV37" s="234"/>
+      <c r="AW37" s="234"/>
+      <c r="AX37" s="234"/>
+      <c r="AY37" s="234"/>
+      <c r="AZ37" s="234"/>
+      <c r="BA37" s="234"/>
+      <c r="BB37" s="234"/>
+      <c r="BC37" s="234"/>
+      <c r="BD37" s="234"/>
+      <c r="BE37" s="32"/>
+      <c r="BF37" s="234"/>
+      <c r="BG37" s="234"/>
+      <c r="BH37" s="234"/>
+      <c r="BI37" s="234"/>
+      <c r="BJ37" s="237"/>
     </row>
     <row r="38" spans="1:62" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="29"/>
-      <c r="AL38" s="29"/>
-      <c r="AM38" s="29"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AQ38" s="29"/>
-      <c r="AR38" s="29"/>
-      <c r="AS38" s="29"/>
-      <c r="AT38" s="29"/>
-      <c r="AU38" s="29"/>
-      <c r="AV38" s="29"/>
-      <c r="AW38" s="29"/>
-      <c r="AX38" s="29"/>
-      <c r="AY38" s="29"/>
-      <c r="AZ38" s="29"/>
-      <c r="BA38" s="29"/>
-      <c r="BB38" s="29"/>
-      <c r="BC38" s="29"/>
-      <c r="BD38" s="29"/>
-      <c r="BG38" s="27"/>
-      <c r="BH38" s="27"/>
-      <c r="BI38" s="27"/>
-      <c r="BJ38" s="27"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="25"/>
+      <c r="AJ38" s="25"/>
+      <c r="AK38" s="25"/>
+      <c r="AL38" s="25"/>
+      <c r="AM38" s="25"/>
+      <c r="AN38" s="25"/>
+      <c r="AO38" s="25"/>
+      <c r="AP38" s="25"/>
+      <c r="AQ38" s="25"/>
+      <c r="AR38" s="25"/>
+      <c r="AS38" s="25"/>
+      <c r="AT38" s="25"/>
+      <c r="AU38" s="25"/>
+      <c r="AV38" s="25"/>
+      <c r="AW38" s="25"/>
+      <c r="AX38" s="25"/>
+      <c r="AY38" s="25"/>
+      <c r="AZ38" s="25"/>
+      <c r="BA38" s="25"/>
+      <c r="BB38" s="25"/>
+      <c r="BC38" s="25"/>
+      <c r="BD38" s="25"/>
+      <c r="BG38" s="23"/>
+      <c r="BH38" s="23"/>
+      <c r="BI38" s="23"/>
+      <c r="BJ38" s="23"/>
     </row>
     <row r="39" spans="1:62" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176" t="s">
+      <c r="A39" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="177"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
-      <c r="E39" s="177"/>
-      <c r="F39" s="177"/>
-      <c r="G39" s="177"/>
-      <c r="H39" s="177"/>
-      <c r="I39" s="177"/>
-      <c r="J39" s="177"/>
-      <c r="K39" s="177"/>
-      <c r="L39" s="177"/>
-      <c r="M39" s="177"/>
-      <c r="N39" s="177"/>
-      <c r="O39" s="177"/>
-      <c r="P39" s="177"/>
-      <c r="Q39" s="177"/>
-      <c r="R39" s="177"/>
-      <c r="S39" s="177"/>
-      <c r="T39" s="177"/>
-      <c r="U39" s="177"/>
-      <c r="V39" s="177"/>
-      <c r="W39" s="177"/>
-      <c r="X39" s="177"/>
-      <c r="Y39" s="177"/>
-      <c r="Z39" s="177"/>
-      <c r="AA39" s="177"/>
-      <c r="AB39" s="177"/>
-      <c r="AC39" s="177"/>
-      <c r="AD39" s="177"/>
-      <c r="AE39" s="177"/>
-      <c r="AF39" s="177"/>
-      <c r="AG39" s="177"/>
-      <c r="AH39" s="177"/>
-      <c r="AI39" s="177"/>
-      <c r="AJ39" s="177"/>
-      <c r="AK39" s="177"/>
-      <c r="AL39" s="177"/>
-      <c r="AM39" s="177"/>
-      <c r="AN39" s="177"/>
-      <c r="AO39" s="177"/>
-      <c r="AP39" s="177"/>
-      <c r="AQ39" s="177"/>
-      <c r="AR39" s="177"/>
-      <c r="AS39" s="177"/>
-      <c r="AT39" s="177"/>
-      <c r="AU39" s="177"/>
-      <c r="AV39" s="177"/>
-      <c r="AW39" s="177"/>
-      <c r="AX39" s="177"/>
-      <c r="AY39" s="177"/>
-      <c r="AZ39" s="177"/>
-      <c r="BA39" s="177"/>
-      <c r="BB39" s="177"/>
-      <c r="BC39" s="177"/>
-      <c r="BD39" s="177"/>
-      <c r="BE39" s="177"/>
-      <c r="BF39" s="177"/>
-      <c r="BG39" s="177"/>
-      <c r="BH39" s="177"/>
-      <c r="BI39" s="177"/>
-      <c r="BJ39" s="178"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="132"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="132"/>
+      <c r="P39" s="132"/>
+      <c r="Q39" s="132"/>
+      <c r="R39" s="132"/>
+      <c r="S39" s="132"/>
+      <c r="T39" s="132"/>
+      <c r="U39" s="132"/>
+      <c r="V39" s="132"/>
+      <c r="W39" s="132"/>
+      <c r="X39" s="132"/>
+      <c r="Y39" s="132"/>
+      <c r="Z39" s="132"/>
+      <c r="AA39" s="132"/>
+      <c r="AB39" s="132"/>
+      <c r="AC39" s="132"/>
+      <c r="AD39" s="132"/>
+      <c r="AE39" s="132"/>
+      <c r="AF39" s="132"/>
+      <c r="AG39" s="132"/>
+      <c r="AH39" s="132"/>
+      <c r="AI39" s="132"/>
+      <c r="AJ39" s="132"/>
+      <c r="AK39" s="132"/>
+      <c r="AL39" s="132"/>
+      <c r="AM39" s="132"/>
+      <c r="AN39" s="132"/>
+      <c r="AO39" s="132"/>
+      <c r="AP39" s="132"/>
+      <c r="AQ39" s="132"/>
+      <c r="AR39" s="132"/>
+      <c r="AS39" s="132"/>
+      <c r="AT39" s="132"/>
+      <c r="AU39" s="132"/>
+      <c r="AV39" s="132"/>
+      <c r="AW39" s="132"/>
+      <c r="AX39" s="132"/>
+      <c r="AY39" s="132"/>
+      <c r="AZ39" s="132"/>
+      <c r="BA39" s="132"/>
+      <c r="BB39" s="132"/>
+      <c r="BC39" s="132"/>
+      <c r="BD39" s="132"/>
+      <c r="BE39" s="132"/>
+      <c r="BF39" s="132"/>
+      <c r="BG39" s="132"/>
+      <c r="BH39" s="132"/>
+      <c r="BI39" s="132"/>
+      <c r="BJ39" s="133"/>
     </row>
     <row r="40" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="211" t="s">
+      <c r="A40" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="189"/>
-      <c r="C40" s="189"/>
-      <c r="D40" s="189"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="189"/>
-      <c r="K40" s="95" t="s">
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="96"/>
-      <c r="U40" s="96"/>
-      <c r="V40" s="96"/>
-      <c r="W40" s="96"/>
-      <c r="X40" s="96"/>
-      <c r="Y40" s="96"/>
-      <c r="Z40" s="96"/>
-      <c r="AA40" s="97"/>
-      <c r="AB40" s="100" t="s">
+      <c r="L40" s="144"/>
+      <c r="M40" s="144"/>
+      <c r="N40" s="144"/>
+      <c r="O40" s="144"/>
+      <c r="P40" s="144"/>
+      <c r="Q40" s="144"/>
+      <c r="R40" s="144"/>
+      <c r="S40" s="144"/>
+      <c r="T40" s="144"/>
+      <c r="U40" s="144"/>
+      <c r="V40" s="144"/>
+      <c r="W40" s="144"/>
+      <c r="X40" s="144"/>
+      <c r="Y40" s="144"/>
+      <c r="Z40" s="144"/>
+      <c r="AA40" s="145"/>
+      <c r="AB40" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="AC40" s="100"/>
-      <c r="AD40" s="100"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="238" t="s">
+      <c r="AC40" s="253"/>
+      <c r="AD40" s="253"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AG40" s="238"/>
-      <c r="AH40" s="238"/>
-      <c r="AI40" s="238"/>
-      <c r="AJ40" s="238"/>
-      <c r="AK40" s="238"/>
-      <c r="AL40" s="238"/>
-      <c r="AM40" s="238"/>
-      <c r="AN40" s="238"/>
-      <c r="AO40" s="238"/>
-      <c r="AP40" s="238"/>
-      <c r="AQ40" s="238"/>
-      <c r="AR40" s="238"/>
-      <c r="AS40" s="238"/>
-      <c r="AT40" s="105" t="s">
+      <c r="AG40" s="85"/>
+      <c r="AH40" s="85"/>
+      <c r="AI40" s="85"/>
+      <c r="AJ40" s="85"/>
+      <c r="AK40" s="85"/>
+      <c r="AL40" s="85"/>
+      <c r="AM40" s="85"/>
+      <c r="AN40" s="85"/>
+      <c r="AO40" s="85"/>
+      <c r="AP40" s="85"/>
+      <c r="AQ40" s="85"/>
+      <c r="AR40" s="85"/>
+      <c r="AS40" s="85"/>
+      <c r="AT40" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="AU40" s="106"/>
-      <c r="AV40" s="106"/>
-      <c r="AW40" s="106"/>
-      <c r="AX40" s="106"/>
-      <c r="AY40" s="106"/>
-      <c r="AZ40" s="106"/>
-      <c r="BA40" s="106"/>
-      <c r="BB40" s="106"/>
-      <c r="BC40" s="106"/>
-      <c r="BD40" s="106"/>
-      <c r="BE40" s="106"/>
-      <c r="BF40" s="106"/>
-      <c r="BG40" s="106"/>
-      <c r="BH40" s="106"/>
-      <c r="BI40" s="107"/>
-      <c r="BJ40" s="30" t="s">
+      <c r="AU40" s="128"/>
+      <c r="AV40" s="128"/>
+      <c r="AW40" s="128"/>
+      <c r="AX40" s="128"/>
+      <c r="AY40" s="128"/>
+      <c r="AZ40" s="128"/>
+      <c r="BA40" s="128"/>
+      <c r="BB40" s="128"/>
+      <c r="BC40" s="128"/>
+      <c r="BD40" s="128"/>
+      <c r="BE40" s="128"/>
+      <c r="BF40" s="128"/>
+      <c r="BG40" s="128"/>
+      <c r="BH40" s="128"/>
+      <c r="BI40" s="129"/>
+      <c r="BJ40" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="96"/>
-      <c r="V41" s="96"/>
-      <c r="W41" s="96"/>
-      <c r="X41" s="96"/>
-      <c r="Y41" s="96"/>
-      <c r="Z41" s="96"/>
-      <c r="AA41" s="97"/>
-      <c r="AB41" s="180"/>
-      <c r="AC41" s="180"/>
-      <c r="AD41" s="180"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="104" t="s">
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="144"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="144"/>
+      <c r="N41" s="144"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="144"/>
+      <c r="Q41" s="144"/>
+      <c r="R41" s="144"/>
+      <c r="S41" s="144"/>
+      <c r="T41" s="144"/>
+      <c r="U41" s="144"/>
+      <c r="V41" s="144"/>
+      <c r="W41" s="144"/>
+      <c r="X41" s="144"/>
+      <c r="Y41" s="144"/>
+      <c r="Z41" s="144"/>
+      <c r="AA41" s="145"/>
+      <c r="AB41" s="135"/>
+      <c r="AC41" s="135"/>
+      <c r="AD41" s="135"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="AG41" s="104"/>
-      <c r="AH41" s="104"/>
-      <c r="AI41" s="104"/>
-      <c r="AJ41" s="104"/>
-      <c r="AK41" s="104"/>
-      <c r="AL41" s="104"/>
-      <c r="AM41" s="104"/>
-      <c r="AN41" s="104"/>
-      <c r="AO41" s="104"/>
-      <c r="AP41" s="104"/>
-      <c r="AQ41" s="104"/>
-      <c r="AR41" s="104"/>
-      <c r="AS41" s="104"/>
-      <c r="AT41" s="103" t="s">
+      <c r="AG41" s="142"/>
+      <c r="AH41" s="142"/>
+      <c r="AI41" s="142"/>
+      <c r="AJ41" s="142"/>
+      <c r="AK41" s="142"/>
+      <c r="AL41" s="142"/>
+      <c r="AM41" s="142"/>
+      <c r="AN41" s="142"/>
+      <c r="AO41" s="142"/>
+      <c r="AP41" s="142"/>
+      <c r="AQ41" s="142"/>
+      <c r="AR41" s="142"/>
+      <c r="AS41" s="142"/>
+      <c r="AT41" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="AU41" s="103"/>
-      <c r="AV41" s="19" t="s">
+      <c r="AU41" s="232"/>
+      <c r="AV41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AW41" s="20"/>
-      <c r="AX41" s="20"/>
-      <c r="AY41" s="20"/>
-      <c r="AZ41" s="20"/>
-      <c r="BA41" s="20"/>
-      <c r="BB41" s="20"/>
-      <c r="BC41" s="20"/>
-      <c r="BD41" s="21"/>
-      <c r="BE41" s="22"/>
-      <c r="BF41" s="22"/>
-      <c r="BG41" s="22"/>
-      <c r="BH41" s="22"/>
-      <c r="BI41" s="23"/>
-      <c r="BJ41" s="264"/>
+      <c r="AW41" s="16"/>
+      <c r="AX41" s="16"/>
+      <c r="AY41" s="16"/>
+      <c r="AZ41" s="16"/>
+      <c r="BA41" s="16"/>
+      <c r="BB41" s="16"/>
+      <c r="BC41" s="16"/>
+      <c r="BD41" s="17"/>
+      <c r="BE41" s="18"/>
+      <c r="BF41" s="18"/>
+      <c r="BG41" s="18"/>
+      <c r="BH41" s="18"/>
+      <c r="BI41" s="19"/>
+      <c r="BJ41" s="41"/>
     </row>
     <row r="42" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="181" t="s">
+      <c r="A42" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="182"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="182"/>
-      <c r="F42" s="182"/>
-      <c r="G42" s="182"/>
-      <c r="H42" s="182"/>
-      <c r="I42" s="182"/>
-      <c r="J42" s="183"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="189"/>
-      <c r="M42" s="179" t="s">
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="179"/>
-      <c r="O42" s="179"/>
-      <c r="P42" s="179"/>
-      <c r="Q42" s="179"/>
-      <c r="R42" s="179"/>
-      <c r="S42" s="179"/>
-      <c r="T42" s="179"/>
-      <c r="U42" s="179"/>
-      <c r="V42" s="179"/>
-      <c r="W42" s="179"/>
-      <c r="X42" s="179"/>
-      <c r="Y42" s="179"/>
-      <c r="Z42" s="179"/>
-      <c r="AA42" s="179"/>
-      <c r="AB42" s="108"/>
-      <c r="AC42" s="108"/>
-      <c r="AD42" s="108"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="235" t="s">
+      <c r="N42" s="134"/>
+      <c r="O42" s="134"/>
+      <c r="P42" s="134"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="134"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="134"/>
+      <c r="U42" s="134"/>
+      <c r="V42" s="134"/>
+      <c r="W42" s="134"/>
+      <c r="X42" s="134"/>
+      <c r="Y42" s="134"/>
+      <c r="Z42" s="134"/>
+      <c r="AA42" s="134"/>
+      <c r="AB42" s="74"/>
+      <c r="AC42" s="74"/>
+      <c r="AD42" s="74"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="AG42" s="236"/>
-      <c r="AH42" s="236"/>
-      <c r="AI42" s="236"/>
-      <c r="AJ42" s="236"/>
-      <c r="AK42" s="236"/>
-      <c r="AL42" s="236"/>
-      <c r="AM42" s="236"/>
-      <c r="AN42" s="236"/>
-      <c r="AO42" s="236"/>
-      <c r="AP42" s="236"/>
-      <c r="AQ42" s="236"/>
-      <c r="AR42" s="236"/>
-      <c r="AS42" s="237"/>
-      <c r="AT42" s="103" t="s">
+      <c r="AG42" s="78"/>
+      <c r="AH42" s="78"/>
+      <c r="AI42" s="78"/>
+      <c r="AJ42" s="78"/>
+      <c r="AK42" s="78"/>
+      <c r="AL42" s="78"/>
+      <c r="AM42" s="78"/>
+      <c r="AN42" s="78"/>
+      <c r="AO42" s="78"/>
+      <c r="AP42" s="78"/>
+      <c r="AQ42" s="78"/>
+      <c r="AR42" s="78"/>
+      <c r="AS42" s="79"/>
+      <c r="AT42" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="AU42" s="103"/>
-      <c r="AV42" s="19" t="s">
+      <c r="AU42" s="232"/>
+      <c r="AV42" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AW42" s="20"/>
-      <c r="AX42" s="20"/>
-      <c r="AY42" s="20"/>
-      <c r="AZ42" s="20"/>
-      <c r="BA42" s="20"/>
-      <c r="BB42" s="20"/>
-      <c r="BC42" s="20"/>
-      <c r="BD42" s="21"/>
-      <c r="BE42" s="22"/>
-      <c r="BF42" s="22"/>
-      <c r="BG42" s="22"/>
-      <c r="BH42" s="22"/>
-      <c r="BI42" s="23"/>
-      <c r="BJ42" s="265"/>
+      <c r="AW42" s="16"/>
+      <c r="AX42" s="16"/>
+      <c r="AY42" s="16"/>
+      <c r="AZ42" s="16"/>
+      <c r="BA42" s="16"/>
+      <c r="BB42" s="16"/>
+      <c r="BC42" s="16"/>
+      <c r="BD42" s="17"/>
+      <c r="BE42" s="18"/>
+      <c r="BF42" s="18"/>
+      <c r="BG42" s="18"/>
+      <c r="BH42" s="18"/>
+      <c r="BI42" s="19"/>
+      <c r="BJ42" s="42"/>
     </row>
     <row r="43" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="181"/>
-      <c r="B43" s="182"/>
-      <c r="C43" s="182"/>
-      <c r="D43" s="182"/>
-      <c r="E43" s="182"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="182"/>
-      <c r="H43" s="182"/>
-      <c r="I43" s="182"/>
-      <c r="J43" s="183"/>
-      <c r="K43" s="108" t="s">
+      <c r="A43" s="136"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="L43" s="108"/>
-      <c r="M43" s="84" t="s">
+      <c r="L43" s="74"/>
+      <c r="M43" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="84"/>
-      <c r="R43" s="84"/>
-      <c r="S43" s="84"/>
-      <c r="T43" s="84"/>
-      <c r="U43" s="84"/>
-      <c r="V43" s="84"/>
-      <c r="W43" s="84"/>
-      <c r="X43" s="84"/>
-      <c r="Y43" s="84"/>
-      <c r="Z43" s="84"/>
-      <c r="AA43" s="84"/>
-      <c r="AB43" s="108"/>
-      <c r="AC43" s="108"/>
-      <c r="AD43" s="108"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="235" t="s">
+      <c r="N43" s="130"/>
+      <c r="O43" s="130"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="130"/>
+      <c r="R43" s="130"/>
+      <c r="S43" s="130"/>
+      <c r="T43" s="130"/>
+      <c r="U43" s="130"/>
+      <c r="V43" s="130"/>
+      <c r="W43" s="130"/>
+      <c r="X43" s="130"/>
+      <c r="Y43" s="130"/>
+      <c r="Z43" s="130"/>
+      <c r="AA43" s="130"/>
+      <c r="AB43" s="74"/>
+      <c r="AC43" s="74"/>
+      <c r="AD43" s="74"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="AG43" s="236"/>
-      <c r="AH43" s="236"/>
-      <c r="AI43" s="236"/>
-      <c r="AJ43" s="236"/>
-      <c r="AK43" s="236"/>
-      <c r="AL43" s="236"/>
-      <c r="AM43" s="236"/>
-      <c r="AN43" s="236"/>
-      <c r="AO43" s="236"/>
-      <c r="AP43" s="236"/>
-      <c r="AQ43" s="236"/>
-      <c r="AR43" s="236"/>
-      <c r="AS43" s="237"/>
-      <c r="AT43" s="103" t="s">
+      <c r="AG43" s="78"/>
+      <c r="AH43" s="78"/>
+      <c r="AI43" s="78"/>
+      <c r="AJ43" s="78"/>
+      <c r="AK43" s="78"/>
+      <c r="AL43" s="78"/>
+      <c r="AM43" s="78"/>
+      <c r="AN43" s="78"/>
+      <c r="AO43" s="78"/>
+      <c r="AP43" s="78"/>
+      <c r="AQ43" s="78"/>
+      <c r="AR43" s="78"/>
+      <c r="AS43" s="79"/>
+      <c r="AT43" s="232" t="s">
         <v>50</v>
       </c>
-      <c r="AU43" s="103"/>
-      <c r="AV43" s="19" t="s">
+      <c r="AU43" s="232"/>
+      <c r="AV43" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AW43" s="20"/>
-      <c r="AX43" s="20"/>
-      <c r="AY43" s="20"/>
-      <c r="AZ43" s="20"/>
-      <c r="BA43" s="20"/>
-      <c r="BB43" s="20"/>
-      <c r="BC43" s="20"/>
-      <c r="BD43" s="21"/>
-      <c r="BE43" s="22"/>
-      <c r="BF43" s="22"/>
-      <c r="BG43" s="22"/>
-      <c r="BH43" s="22"/>
-      <c r="BI43" s="23"/>
-      <c r="BJ43" s="265"/>
+      <c r="AW43" s="16"/>
+      <c r="AX43" s="16"/>
+      <c r="AY43" s="16"/>
+      <c r="AZ43" s="16"/>
+      <c r="BA43" s="16"/>
+      <c r="BB43" s="16"/>
+      <c r="BC43" s="16"/>
+      <c r="BD43" s="17"/>
+      <c r="BE43" s="18"/>
+      <c r="BF43" s="18"/>
+      <c r="BG43" s="18"/>
+      <c r="BH43" s="18"/>
+      <c r="BI43" s="19"/>
+      <c r="BJ43" s="42"/>
     </row>
     <row r="44" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="184"/>
-      <c r="B44" s="185"/>
-      <c r="C44" s="185"/>
-      <c r="D44" s="185"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="185"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="186"/>
-      <c r="K44" s="108" t="s">
+      <c r="A44" s="139"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="141"/>
+      <c r="K44" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="108"/>
-      <c r="M44" s="188" t="s">
+      <c r="L44" s="74"/>
+      <c r="M44" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="N44" s="188"/>
-      <c r="O44" s="188"/>
-      <c r="P44" s="188"/>
-      <c r="Q44" s="188"/>
-      <c r="R44" s="188"/>
-      <c r="S44" s="188"/>
-      <c r="T44" s="188"/>
-      <c r="U44" s="188"/>
-      <c r="V44" s="188"/>
-      <c r="W44" s="188"/>
-      <c r="X44" s="188"/>
-      <c r="Y44" s="188"/>
-      <c r="Z44" s="188"/>
-      <c r="AA44" s="188"/>
-      <c r="AB44" s="108"/>
-      <c r="AC44" s="108"/>
-      <c r="AD44" s="108"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="235" t="s">
+      <c r="N44" s="146"/>
+      <c r="O44" s="146"/>
+      <c r="P44" s="146"/>
+      <c r="Q44" s="146"/>
+      <c r="R44" s="146"/>
+      <c r="S44" s="146"/>
+      <c r="T44" s="146"/>
+      <c r="U44" s="146"/>
+      <c r="V44" s="146"/>
+      <c r="W44" s="146"/>
+      <c r="X44" s="146"/>
+      <c r="Y44" s="146"/>
+      <c r="Z44" s="146"/>
+      <c r="AA44" s="146"/>
+      <c r="AB44" s="74"/>
+      <c r="AC44" s="74"/>
+      <c r="AD44" s="74"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="AG44" s="236"/>
-      <c r="AH44" s="236"/>
-      <c r="AI44" s="236"/>
-      <c r="AJ44" s="236"/>
-      <c r="AK44" s="236"/>
-      <c r="AL44" s="236"/>
-      <c r="AM44" s="236"/>
-      <c r="AN44" s="236"/>
-      <c r="AO44" s="236"/>
-      <c r="AP44" s="236"/>
-      <c r="AQ44" s="236"/>
-      <c r="AR44" s="236"/>
-      <c r="AS44" s="237"/>
-      <c r="AT44" s="103"/>
-      <c r="AU44" s="103"/>
-      <c r="AV44" s="19" t="s">
+      <c r="AG44" s="78"/>
+      <c r="AH44" s="78"/>
+      <c r="AI44" s="78"/>
+      <c r="AJ44" s="78"/>
+      <c r="AK44" s="78"/>
+      <c r="AL44" s="78"/>
+      <c r="AM44" s="78"/>
+      <c r="AN44" s="78"/>
+      <c r="AO44" s="78"/>
+      <c r="AP44" s="78"/>
+      <c r="AQ44" s="78"/>
+      <c r="AR44" s="78"/>
+      <c r="AS44" s="79"/>
+      <c r="AT44" s="232"/>
+      <c r="AU44" s="232"/>
+      <c r="AV44" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AW44" s="20"/>
-      <c r="AX44" s="20"/>
-      <c r="AY44" s="20"/>
-      <c r="AZ44" s="20"/>
-      <c r="BA44" s="20"/>
-      <c r="BB44" s="20"/>
-      <c r="BC44" s="20"/>
-      <c r="BD44" s="21"/>
-      <c r="BE44" s="22"/>
-      <c r="BF44" s="22"/>
-      <c r="BG44" s="22"/>
-      <c r="BH44" s="22"/>
-      <c r="BI44" s="23"/>
-      <c r="BJ44" s="265"/>
+      <c r="AW44" s="16"/>
+      <c r="AX44" s="16"/>
+      <c r="AY44" s="16"/>
+      <c r="AZ44" s="16"/>
+      <c r="BA44" s="16"/>
+      <c r="BB44" s="16"/>
+      <c r="BC44" s="16"/>
+      <c r="BD44" s="17"/>
+      <c r="BE44" s="18"/>
+      <c r="BF44" s="18"/>
+      <c r="BG44" s="18"/>
+      <c r="BH44" s="18"/>
+      <c r="BI44" s="19"/>
+      <c r="BJ44" s="42"/>
     </row>
     <row r="45" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="83" t="s">
+      <c r="A45" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="108" t="s">
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="L45" s="108"/>
-      <c r="M45" s="84" t="s">
+      <c r="L45" s="74"/>
+      <c r="M45" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
-      <c r="S45" s="84"/>
-      <c r="T45" s="84"/>
-      <c r="U45" s="84"/>
-      <c r="V45" s="84"/>
-      <c r="W45" s="84"/>
-      <c r="X45" s="84"/>
-      <c r="Y45" s="84"/>
-      <c r="Z45" s="84"/>
-      <c r="AA45" s="84"/>
-      <c r="AB45" s="108"/>
-      <c r="AC45" s="108"/>
-      <c r="AD45" s="108"/>
-      <c r="AE45" s="14"/>
-      <c r="AF45" s="235" t="s">
+      <c r="N45" s="130"/>
+      <c r="O45" s="130"/>
+      <c r="P45" s="130"/>
+      <c r="Q45" s="130"/>
+      <c r="R45" s="130"/>
+      <c r="S45" s="130"/>
+      <c r="T45" s="130"/>
+      <c r="U45" s="130"/>
+      <c r="V45" s="130"/>
+      <c r="W45" s="130"/>
+      <c r="X45" s="130"/>
+      <c r="Y45" s="130"/>
+      <c r="Z45" s="130"/>
+      <c r="AA45" s="130"/>
+      <c r="AB45" s="74"/>
+      <c r="AC45" s="74"/>
+      <c r="AD45" s="74"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="AG45" s="236"/>
-      <c r="AH45" s="236"/>
-      <c r="AI45" s="236"/>
-      <c r="AJ45" s="236"/>
-      <c r="AK45" s="236"/>
-      <c r="AL45" s="236"/>
-      <c r="AM45" s="236"/>
-      <c r="AN45" s="236"/>
-      <c r="AO45" s="236"/>
-      <c r="AP45" s="236"/>
-      <c r="AQ45" s="236"/>
-      <c r="AR45" s="236"/>
-      <c r="AS45" s="237"/>
-      <c r="AT45" s="103"/>
-      <c r="AU45" s="103"/>
-      <c r="AV45" s="19" t="s">
+      <c r="AG45" s="78"/>
+      <c r="AH45" s="78"/>
+      <c r="AI45" s="78"/>
+      <c r="AJ45" s="78"/>
+      <c r="AK45" s="78"/>
+      <c r="AL45" s="78"/>
+      <c r="AM45" s="78"/>
+      <c r="AN45" s="78"/>
+      <c r="AO45" s="78"/>
+      <c r="AP45" s="78"/>
+      <c r="AQ45" s="78"/>
+      <c r="AR45" s="78"/>
+      <c r="AS45" s="79"/>
+      <c r="AT45" s="232"/>
+      <c r="AU45" s="232"/>
+      <c r="AV45" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AW45" s="20"/>
-      <c r="AX45" s="20"/>
-      <c r="AY45" s="20"/>
-      <c r="AZ45" s="20"/>
-      <c r="BA45" s="20"/>
-      <c r="BB45" s="20"/>
-      <c r="BC45" s="20"/>
-      <c r="BD45" s="21"/>
-      <c r="BE45" s="22"/>
-      <c r="BF45" s="22"/>
-      <c r="BG45" s="22"/>
-      <c r="BH45" s="22"/>
-      <c r="BI45" s="23"/>
-      <c r="BJ45" s="265"/>
+      <c r="AW45" s="16"/>
+      <c r="AX45" s="16"/>
+      <c r="AY45" s="16"/>
+      <c r="AZ45" s="16"/>
+      <c r="BA45" s="16"/>
+      <c r="BB45" s="16"/>
+      <c r="BC45" s="16"/>
+      <c r="BD45" s="17"/>
+      <c r="BE45" s="18"/>
+      <c r="BF45" s="18"/>
+      <c r="BG45" s="18"/>
+      <c r="BH45" s="18"/>
+      <c r="BI45" s="19"/>
+      <c r="BJ45" s="42"/>
     </row>
     <row r="46" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="83" t="s">
+      <c r="A46" s="188" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="84" t="s">
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="84"/>
-      <c r="U46" s="84"/>
-      <c r="V46" s="84"/>
-      <c r="W46" s="84"/>
-      <c r="X46" s="84"/>
-      <c r="Y46" s="84"/>
-      <c r="Z46" s="84"/>
-      <c r="AA46" s="84"/>
-      <c r="AB46" s="108"/>
-      <c r="AC46" s="108"/>
-      <c r="AD46" s="108"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="104" t="s">
+      <c r="N46" s="130"/>
+      <c r="O46" s="130"/>
+      <c r="P46" s="130"/>
+      <c r="Q46" s="130"/>
+      <c r="R46" s="130"/>
+      <c r="S46" s="130"/>
+      <c r="T46" s="130"/>
+      <c r="U46" s="130"/>
+      <c r="V46" s="130"/>
+      <c r="W46" s="130"/>
+      <c r="X46" s="130"/>
+      <c r="Y46" s="130"/>
+      <c r="Z46" s="130"/>
+      <c r="AA46" s="130"/>
+      <c r="AB46" s="74"/>
+      <c r="AC46" s="74"/>
+      <c r="AD46" s="74"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="AG46" s="104"/>
-      <c r="AH46" s="104"/>
-      <c r="AI46" s="104"/>
-      <c r="AJ46" s="104"/>
-      <c r="AK46" s="104"/>
-      <c r="AL46" s="104"/>
-      <c r="AM46" s="104"/>
-      <c r="AN46" s="104"/>
-      <c r="AO46" s="104"/>
-      <c r="AP46" s="104"/>
-      <c r="AQ46" s="104"/>
-      <c r="AR46" s="104"/>
-      <c r="AS46" s="104"/>
-      <c r="AT46" s="102" t="s">
+      <c r="AG46" s="142"/>
+      <c r="AH46" s="142"/>
+      <c r="AI46" s="142"/>
+      <c r="AJ46" s="142"/>
+      <c r="AK46" s="142"/>
+      <c r="AL46" s="142"/>
+      <c r="AM46" s="142"/>
+      <c r="AN46" s="142"/>
+      <c r="AO46" s="142"/>
+      <c r="AP46" s="142"/>
+      <c r="AQ46" s="142"/>
+      <c r="AR46" s="142"/>
+      <c r="AS46" s="142"/>
+      <c r="AT46" s="231" t="s">
         <v>74</v>
       </c>
-      <c r="AU46" s="102"/>
-      <c r="AV46" s="19" t="s">
+      <c r="AU46" s="231"/>
+      <c r="AV46" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AW46" s="20"/>
-      <c r="AX46" s="20"/>
-      <c r="AY46" s="20"/>
-      <c r="AZ46" s="20"/>
-      <c r="BA46" s="20"/>
-      <c r="BB46" s="20"/>
-      <c r="BC46" s="20"/>
-      <c r="BD46" s="21"/>
-      <c r="BE46" s="22"/>
-      <c r="BF46" s="22"/>
-      <c r="BG46" s="22"/>
-      <c r="BH46" s="22"/>
-      <c r="BI46" s="23"/>
-      <c r="BJ46" s="112"/>
+      <c r="AW46" s="16"/>
+      <c r="AX46" s="16"/>
+      <c r="AY46" s="16"/>
+      <c r="AZ46" s="16"/>
+      <c r="BA46" s="16"/>
+      <c r="BB46" s="16"/>
+      <c r="BC46" s="16"/>
+      <c r="BD46" s="17"/>
+      <c r="BE46" s="18"/>
+      <c r="BF46" s="18"/>
+      <c r="BG46" s="18"/>
+      <c r="BH46" s="18"/>
+      <c r="BI46" s="19"/>
+      <c r="BJ46" s="239"/>
     </row>
     <row r="47" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="83" t="s">
+      <c r="A47" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="108" t="s">
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="130"/>
+      <c r="K47" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="L47" s="108"/>
-      <c r="M47" s="84" t="s">
+      <c r="L47" s="74"/>
+      <c r="M47" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
-      <c r="S47" s="84"/>
-      <c r="T47" s="84"/>
-      <c r="U47" s="84"/>
-      <c r="V47" s="84"/>
-      <c r="W47" s="84"/>
-      <c r="X47" s="84"/>
-      <c r="Y47" s="84"/>
-      <c r="Z47" s="84"/>
-      <c r="AA47" s="84"/>
-      <c r="AB47" s="108"/>
-      <c r="AC47" s="108"/>
-      <c r="AD47" s="108"/>
-      <c r="AE47" s="14"/>
-      <c r="AF47" s="104"/>
-      <c r="AG47" s="104"/>
-      <c r="AH47" s="104"/>
-      <c r="AI47" s="104"/>
-      <c r="AJ47" s="104"/>
-      <c r="AK47" s="104"/>
-      <c r="AL47" s="104"/>
-      <c r="AM47" s="104"/>
-      <c r="AN47" s="104"/>
-      <c r="AO47" s="104"/>
-      <c r="AP47" s="104"/>
-      <c r="AQ47" s="104"/>
-      <c r="AR47" s="104"/>
-      <c r="AS47" s="104"/>
-      <c r="AT47" s="102" t="s">
+      <c r="N47" s="130"/>
+      <c r="O47" s="130"/>
+      <c r="P47" s="130"/>
+      <c r="Q47" s="130"/>
+      <c r="R47" s="130"/>
+      <c r="S47" s="130"/>
+      <c r="T47" s="130"/>
+      <c r="U47" s="130"/>
+      <c r="V47" s="130"/>
+      <c r="W47" s="130"/>
+      <c r="X47" s="130"/>
+      <c r="Y47" s="130"/>
+      <c r="Z47" s="130"/>
+      <c r="AA47" s="130"/>
+      <c r="AB47" s="74"/>
+      <c r="AC47" s="74"/>
+      <c r="AD47" s="74"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="142"/>
+      <c r="AG47" s="142"/>
+      <c r="AH47" s="142"/>
+      <c r="AI47" s="142"/>
+      <c r="AJ47" s="142"/>
+      <c r="AK47" s="142"/>
+      <c r="AL47" s="142"/>
+      <c r="AM47" s="142"/>
+      <c r="AN47" s="142"/>
+      <c r="AO47" s="142"/>
+      <c r="AP47" s="142"/>
+      <c r="AQ47" s="142"/>
+      <c r="AR47" s="142"/>
+      <c r="AS47" s="142"/>
+      <c r="AT47" s="231" t="s">
         <v>74</v>
       </c>
-      <c r="AU47" s="102"/>
-      <c r="AV47" s="19" t="s">
+      <c r="AU47" s="231"/>
+      <c r="AV47" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AW47" s="20"/>
-      <c r="AX47" s="20"/>
-      <c r="AY47" s="20"/>
-      <c r="AZ47" s="20"/>
-      <c r="BA47" s="20"/>
-      <c r="BB47" s="20"/>
-      <c r="BC47" s="20"/>
-      <c r="BD47" s="21"/>
-      <c r="BE47" s="22"/>
-      <c r="BF47" s="22"/>
-      <c r="BG47" s="22"/>
-      <c r="BH47" s="22"/>
-      <c r="BI47" s="23"/>
-      <c r="BJ47" s="113"/>
+      <c r="AW47" s="16"/>
+      <c r="AX47" s="16"/>
+      <c r="AY47" s="16"/>
+      <c r="AZ47" s="16"/>
+      <c r="BA47" s="16"/>
+      <c r="BB47" s="16"/>
+      <c r="BC47" s="16"/>
+      <c r="BD47" s="17"/>
+      <c r="BE47" s="18"/>
+      <c r="BF47" s="18"/>
+      <c r="BG47" s="18"/>
+      <c r="BH47" s="18"/>
+      <c r="BI47" s="19"/>
+      <c r="BJ47" s="240"/>
     </row>
     <row r="48" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="108" t="s">
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="L48" s="108"/>
-      <c r="M48" s="84" t="s">
+      <c r="L48" s="74"/>
+      <c r="M48" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84"/>
-      <c r="R48" s="84"/>
-      <c r="S48" s="84"/>
-      <c r="T48" s="84"/>
-      <c r="U48" s="84"/>
-      <c r="V48" s="84"/>
-      <c r="W48" s="84"/>
-      <c r="X48" s="84"/>
-      <c r="Y48" s="84"/>
-      <c r="Z48" s="84"/>
-      <c r="AA48" s="84"/>
-      <c r="AB48" s="108"/>
-      <c r="AC48" s="108"/>
-      <c r="AD48" s="108"/>
-      <c r="AE48" s="140" t="s">
+      <c r="N48" s="130"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="130"/>
+      <c r="Q48" s="130"/>
+      <c r="R48" s="130"/>
+      <c r="S48" s="130"/>
+      <c r="T48" s="130"/>
+      <c r="U48" s="130"/>
+      <c r="V48" s="130"/>
+      <c r="W48" s="130"/>
+      <c r="X48" s="130"/>
+      <c r="Y48" s="130"/>
+      <c r="Z48" s="130"/>
+      <c r="AA48" s="130"/>
+      <c r="AB48" s="74"/>
+      <c r="AC48" s="74"/>
+      <c r="AD48" s="74"/>
+      <c r="AE48" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="AF48" s="140"/>
-      <c r="AG48" s="26" t="s">
+      <c r="AF48" s="76"/>
+      <c r="AG48" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AH48" s="15"/>
-      <c r="AI48" s="15"/>
-      <c r="AJ48" s="15"/>
-      <c r="AK48" s="15"/>
-      <c r="AL48" s="15"/>
-      <c r="AM48" s="15"/>
-      <c r="AN48" s="15"/>
-      <c r="AO48" s="15"/>
-      <c r="AP48" s="15"/>
-      <c r="AQ48" s="15"/>
-      <c r="AR48" s="15"/>
-      <c r="AS48" s="15"/>
-      <c r="AT48" s="15"/>
-      <c r="AU48" s="15"/>
-      <c r="AV48" s="15"/>
-      <c r="AW48" s="15"/>
-      <c r="AX48" s="15"/>
-      <c r="AY48" s="15"/>
-      <c r="AZ48" s="15"/>
-      <c r="BA48" s="15"/>
-      <c r="BB48" s="15"/>
-      <c r="BC48" s="15"/>
-      <c r="BD48" s="15"/>
-      <c r="BE48" s="15"/>
-      <c r="BF48" s="15"/>
-      <c r="BG48" s="15"/>
-      <c r="BH48" s="15"/>
-      <c r="BI48" s="39"/>
-      <c r="BJ48" s="42"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="11"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="11"/>
+      <c r="AZ48" s="11"/>
+      <c r="BA48" s="11"/>
+      <c r="BB48" s="11"/>
+      <c r="BC48" s="11"/>
+      <c r="BD48" s="11"/>
+      <c r="BE48" s="11"/>
+      <c r="BF48" s="11"/>
+      <c r="BG48" s="11"/>
+      <c r="BH48" s="11"/>
+      <c r="BI48" s="35"/>
+      <c r="BJ48" s="38"/>
     </row>
     <row r="49" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="108" t="s">
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="L49" s="108"/>
-      <c r="M49" s="84" t="s">
+      <c r="L49" s="74"/>
+      <c r="M49" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="84"/>
-      <c r="U49" s="84"/>
-      <c r="V49" s="84"/>
-      <c r="W49" s="84"/>
-      <c r="X49" s="84"/>
-      <c r="Y49" s="84"/>
-      <c r="Z49" s="84"/>
-      <c r="AA49" s="84"/>
-      <c r="AB49" s="108"/>
-      <c r="AC49" s="108"/>
-      <c r="AD49" s="108"/>
-      <c r="AE49" s="140"/>
-      <c r="AF49" s="140"/>
-      <c r="AG49" s="26" t="s">
+      <c r="N49" s="130"/>
+      <c r="O49" s="130"/>
+      <c r="P49" s="130"/>
+      <c r="Q49" s="130"/>
+      <c r="R49" s="130"/>
+      <c r="S49" s="130"/>
+      <c r="T49" s="130"/>
+      <c r="U49" s="130"/>
+      <c r="V49" s="130"/>
+      <c r="W49" s="130"/>
+      <c r="X49" s="130"/>
+      <c r="Y49" s="130"/>
+      <c r="Z49" s="130"/>
+      <c r="AA49" s="130"/>
+      <c r="AB49" s="74"/>
+      <c r="AC49" s="74"/>
+      <c r="AD49" s="74"/>
+      <c r="AE49" s="76"/>
+      <c r="AF49" s="76"/>
+      <c r="AG49" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AH49" s="15"/>
-      <c r="AI49" s="15"/>
-      <c r="AJ49" s="15"/>
-      <c r="AK49" s="15"/>
-      <c r="AL49" s="15"/>
-      <c r="AM49" s="15"/>
-      <c r="AN49" s="15"/>
-      <c r="AO49" s="15"/>
-      <c r="AP49" s="15"/>
-      <c r="AQ49" s="15"/>
-      <c r="AR49" s="15"/>
-      <c r="AS49" s="15"/>
-      <c r="AT49" s="15"/>
-      <c r="AU49" s="15"/>
-      <c r="AV49" s="15"/>
-      <c r="AW49" s="15"/>
-      <c r="AX49" s="15"/>
-      <c r="AY49" s="15"/>
-      <c r="AZ49" s="15"/>
-      <c r="BA49" s="15"/>
-      <c r="BB49" s="15"/>
-      <c r="BC49" s="15"/>
-      <c r="BD49" s="15"/>
-      <c r="BE49" s="15"/>
-      <c r="BF49" s="15"/>
-      <c r="BG49" s="39"/>
-      <c r="BH49" s="15"/>
-      <c r="BI49" s="39"/>
-      <c r="BJ49" s="42"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="11"/>
+      <c r="AP49" s="11"/>
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="11"/>
+      <c r="AS49" s="11"/>
+      <c r="AT49" s="11"/>
+      <c r="AU49" s="11"/>
+      <c r="AV49" s="11"/>
+      <c r="AW49" s="11"/>
+      <c r="AX49" s="11"/>
+      <c r="AY49" s="11"/>
+      <c r="AZ49" s="11"/>
+      <c r="BA49" s="11"/>
+      <c r="BB49" s="11"/>
+      <c r="BC49" s="11"/>
+      <c r="BD49" s="11"/>
+      <c r="BE49" s="11"/>
+      <c r="BF49" s="11"/>
+      <c r="BG49" s="35"/>
+      <c r="BH49" s="11"/>
+      <c r="BI49" s="35"/>
+      <c r="BJ49" s="38"/>
     </row>
     <row r="50" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="188" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="108" t="s">
+      <c r="B50" s="130"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="L50" s="108"/>
-      <c r="M50" s="132" t="s">
+      <c r="L50" s="74"/>
+      <c r="M50" s="207" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="132"/>
-      <c r="O50" s="132"/>
-      <c r="P50" s="132"/>
-      <c r="Q50" s="132"/>
-      <c r="R50" s="132"/>
-      <c r="S50" s="132"/>
-      <c r="T50" s="132"/>
-      <c r="U50" s="132"/>
-      <c r="V50" s="132"/>
-      <c r="W50" s="132"/>
-      <c r="X50" s="132"/>
-      <c r="Y50" s="132"/>
-      <c r="Z50" s="132"/>
-      <c r="AA50" s="132"/>
-      <c r="AB50" s="108"/>
-      <c r="AC50" s="108"/>
-      <c r="AD50" s="108"/>
-      <c r="AE50" s="15"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26" t="s">
+      <c r="N50" s="207"/>
+      <c r="O50" s="207"/>
+      <c r="P50" s="207"/>
+      <c r="Q50" s="207"/>
+      <c r="R50" s="207"/>
+      <c r="S50" s="207"/>
+      <c r="T50" s="207"/>
+      <c r="U50" s="207"/>
+      <c r="V50" s="207"/>
+      <c r="W50" s="207"/>
+      <c r="X50" s="207"/>
+      <c r="Y50" s="207"/>
+      <c r="Z50" s="207"/>
+      <c r="AA50" s="207"/>
+      <c r="AB50" s="74"/>
+      <c r="AC50" s="74"/>
+      <c r="AD50" s="74"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AH50" s="15"/>
-      <c r="AI50" s="15"/>
-      <c r="AJ50" s="15"/>
-      <c r="AK50" s="15"/>
-      <c r="AL50" s="15"/>
-      <c r="AM50" s="15"/>
-      <c r="AN50" s="15"/>
-      <c r="AO50" s="15"/>
-      <c r="AP50" s="15"/>
-      <c r="AQ50" s="15"/>
-      <c r="AR50" s="15"/>
-      <c r="AS50" s="15"/>
-      <c r="AT50" s="15"/>
-      <c r="AU50" s="15"/>
-      <c r="AV50" s="15"/>
-      <c r="AW50" s="15"/>
-      <c r="AX50" s="15"/>
-      <c r="AY50" s="15"/>
-      <c r="AZ50" s="15"/>
-      <c r="BA50" s="39"/>
-      <c r="BB50" s="15"/>
-      <c r="BC50" s="15"/>
-      <c r="BD50" s="15"/>
-      <c r="BE50" s="15"/>
-      <c r="BF50" s="15"/>
-      <c r="BG50" s="15"/>
-      <c r="BH50" s="15"/>
-      <c r="BI50" s="39"/>
-      <c r="BJ50" s="42"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="11"/>
+      <c r="AT50" s="11"/>
+      <c r="AU50" s="11"/>
+      <c r="AV50" s="11"/>
+      <c r="AW50" s="11"/>
+      <c r="AX50" s="11"/>
+      <c r="AY50" s="11"/>
+      <c r="AZ50" s="11"/>
+      <c r="BA50" s="35"/>
+      <c r="BB50" s="11"/>
+      <c r="BC50" s="11"/>
+      <c r="BD50" s="11"/>
+      <c r="BE50" s="11"/>
+      <c r="BF50" s="11"/>
+      <c r="BG50" s="11"/>
+      <c r="BH50" s="11"/>
+      <c r="BI50" s="35"/>
+      <c r="BJ50" s="38"/>
     </row>
     <row r="51" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="133" t="s">
+      <c r="A51" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="134"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="135"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="136" t="s">
+      <c r="B51" s="209"/>
+      <c r="C51" s="209"/>
+      <c r="D51" s="209"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="209"/>
+      <c r="G51" s="209"/>
+      <c r="H51" s="209"/>
+      <c r="I51" s="209"/>
+      <c r="J51" s="209"/>
+      <c r="K51" s="210"/>
+      <c r="L51" s="210"/>
+      <c r="M51" s="211" t="s">
         <v>85</v>
       </c>
-      <c r="N51" s="136"/>
-      <c r="O51" s="136"/>
-      <c r="P51" s="136"/>
-      <c r="Q51" s="136"/>
-      <c r="R51" s="136"/>
-      <c r="S51" s="136"/>
-      <c r="T51" s="136"/>
-      <c r="U51" s="136"/>
-      <c r="V51" s="136"/>
-      <c r="W51" s="136"/>
-      <c r="X51" s="136"/>
-      <c r="Y51" s="136"/>
-      <c r="Z51" s="136"/>
-      <c r="AA51" s="136"/>
-      <c r="AB51" s="135"/>
-      <c r="AC51" s="135"/>
-      <c r="AD51" s="135"/>
-      <c r="AE51" s="24"/>
-      <c r="AF51" s="25"/>
-      <c r="AG51" s="43"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
-      <c r="AJ51" s="24"/>
-      <c r="AK51" s="24"/>
-      <c r="AL51" s="24"/>
-      <c r="AM51" s="24"/>
-      <c r="AN51" s="24"/>
-      <c r="AO51" s="24"/>
-      <c r="AP51" s="24"/>
-      <c r="AQ51" s="24"/>
-      <c r="AR51" s="24"/>
-      <c r="AS51" s="24"/>
-      <c r="AT51" s="24"/>
-      <c r="AU51" s="24"/>
-      <c r="AV51" s="24"/>
-      <c r="AW51" s="24"/>
-      <c r="AX51" s="24"/>
-      <c r="AY51" s="24"/>
-      <c r="AZ51" s="24"/>
-      <c r="BA51" s="24"/>
-      <c r="BB51" s="24"/>
-      <c r="BC51" s="24"/>
-      <c r="BD51" s="24"/>
-      <c r="BE51" s="24"/>
-      <c r="BF51" s="24"/>
-      <c r="BG51" s="43"/>
-      <c r="BH51" s="24"/>
-      <c r="BI51" s="43"/>
-      <c r="BJ51" s="44"/>
+      <c r="N51" s="211"/>
+      <c r="O51" s="211"/>
+      <c r="P51" s="211"/>
+      <c r="Q51" s="211"/>
+      <c r="R51" s="211"/>
+      <c r="S51" s="211"/>
+      <c r="T51" s="211"/>
+      <c r="U51" s="211"/>
+      <c r="V51" s="211"/>
+      <c r="W51" s="211"/>
+      <c r="X51" s="211"/>
+      <c r="Y51" s="211"/>
+      <c r="Z51" s="211"/>
+      <c r="AA51" s="211"/>
+      <c r="AB51" s="210"/>
+      <c r="AC51" s="210"/>
+      <c r="AD51" s="210"/>
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="39"/>
+      <c r="AH51" s="20"/>
+      <c r="AI51" s="20"/>
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="20"/>
+      <c r="AL51" s="20"/>
+      <c r="AM51" s="20"/>
+      <c r="AN51" s="20"/>
+      <c r="AO51" s="20"/>
+      <c r="AP51" s="20"/>
+      <c r="AQ51" s="20"/>
+      <c r="AR51" s="20"/>
+      <c r="AS51" s="20"/>
+      <c r="AT51" s="20"/>
+      <c r="AU51" s="20"/>
+      <c r="AV51" s="20"/>
+      <c r="AW51" s="20"/>
+      <c r="AX51" s="20"/>
+      <c r="AY51" s="20"/>
+      <c r="AZ51" s="20"/>
+      <c r="BA51" s="20"/>
+      <c r="BB51" s="20"/>
+      <c r="BC51" s="20"/>
+      <c r="BD51" s="20"/>
+      <c r="BE51" s="20"/>
+      <c r="BF51" s="20"/>
+      <c r="BG51" s="39"/>
+      <c r="BH51" s="20"/>
+      <c r="BI51" s="39"/>
+      <c r="BJ51" s="40"/>
     </row>
     <row r="52" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
       <c r="AE52" s="1"/>
-      <c r="AF52" s="10"/>
+      <c r="AF52" s="8"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
@@ -8261,41 +8262,233 @@
     </row>
   </sheetData>
   <mergeCells count="285">
-    <mergeCell ref="BG16:BH17"/>
-    <mergeCell ref="BI16:BJ17"/>
-    <mergeCell ref="BD18:BF18"/>
-    <mergeCell ref="BD19:BF19"/>
-    <mergeCell ref="BG18:BH19"/>
-    <mergeCell ref="BI18:BJ20"/>
-    <mergeCell ref="BD20:BF20"/>
-    <mergeCell ref="BH4:BH6"/>
-    <mergeCell ref="BI4:BI6"/>
-    <mergeCell ref="BJ4:BJ6"/>
-    <mergeCell ref="BD16:BF17"/>
-    <mergeCell ref="BA12:BB13"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BC8:BJ11"/>
-    <mergeCell ref="BI12:BJ15"/>
-    <mergeCell ref="AY12:AZ13"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AF42:AS42"/>
-    <mergeCell ref="AF43:AS43"/>
-    <mergeCell ref="AF44:AS44"/>
-    <mergeCell ref="AF45:AS45"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="BD22:BF22"/>
-    <mergeCell ref="AJ22:AR22"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AF40:AS40"/>
-    <mergeCell ref="BG20:BH20"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AO12:AP13"/>
-    <mergeCell ref="AX17:AY17"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="BI21:BJ21"/>
-    <mergeCell ref="BG23:BH24"/>
-    <mergeCell ref="BI23:BJ24"/>
-    <mergeCell ref="X25:AI26"/>
+    <mergeCell ref="BG25:BH26"/>
+    <mergeCell ref="BG27:BH28"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="I36:N37"/>
+    <mergeCell ref="BG29:BH30"/>
+    <mergeCell ref="BG31:BH32"/>
+    <mergeCell ref="BG33:BH34"/>
+    <mergeCell ref="BI25:BJ26"/>
+    <mergeCell ref="BI27:BJ28"/>
+    <mergeCell ref="BI29:BJ30"/>
+    <mergeCell ref="BI31:BJ32"/>
+    <mergeCell ref="BI33:BJ34"/>
+    <mergeCell ref="AC36:AR36"/>
+    <mergeCell ref="G31:N32"/>
+    <mergeCell ref="G33:N34"/>
+    <mergeCell ref="O25:W26"/>
+    <mergeCell ref="O27:W28"/>
+    <mergeCell ref="O29:W30"/>
+    <mergeCell ref="O31:W32"/>
+    <mergeCell ref="O33:W34"/>
+    <mergeCell ref="AS27:BC28"/>
+    <mergeCell ref="AS29:BC30"/>
+    <mergeCell ref="AS31:BC32"/>
+    <mergeCell ref="AS33:BC34"/>
+    <mergeCell ref="BD25:BF26"/>
+    <mergeCell ref="BD27:BF28"/>
+    <mergeCell ref="BD29:BF30"/>
+    <mergeCell ref="BD31:BF32"/>
+    <mergeCell ref="BD33:BF34"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="O23:W24"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="X23:AI24"/>
+    <mergeCell ref="AJ23:AR24"/>
+    <mergeCell ref="G23:N24"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="BG22:BH22"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="AK8:AM11"/>
+    <mergeCell ref="AO8:BB11"/>
+    <mergeCell ref="Q35:X35"/>
+    <mergeCell ref="Q36:X36"/>
+    <mergeCell ref="Q37:X37"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="K40:AA40"/>
+    <mergeCell ref="Y35:AR35"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="AC12:AD13"/>
+    <mergeCell ref="AE12:AF13"/>
+    <mergeCell ref="AG12:AH13"/>
+    <mergeCell ref="AI12:AJ13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AZ14:BA14"/>
+    <mergeCell ref="AX14:AY14"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="AF46:AS47"/>
+    <mergeCell ref="AS35:BD35"/>
+    <mergeCell ref="AT40:BI40"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AT42:AU42"/>
+    <mergeCell ref="AT43:AU43"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="AC37:AR37"/>
+    <mergeCell ref="AU36:BD37"/>
+    <mergeCell ref="BF36:BJ37"/>
+    <mergeCell ref="BE35:BJ35"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="BJ46:BJ47"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="O22:W22"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H21:BC21"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:P35"/>
+    <mergeCell ref="AS23:BC24"/>
+    <mergeCell ref="BD23:BF24"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="C27:F28"/>
+    <mergeCell ref="C29:F30"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="G25:N26"/>
+    <mergeCell ref="G27:N28"/>
+    <mergeCell ref="G29:N30"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="X27:AI28"/>
+    <mergeCell ref="X29:AI30"/>
+    <mergeCell ref="X31:AI32"/>
+    <mergeCell ref="X33:AI34"/>
+    <mergeCell ref="AJ25:AR26"/>
+    <mergeCell ref="AJ27:AR28"/>
+    <mergeCell ref="AJ29:AR30"/>
+    <mergeCell ref="AJ31:AR32"/>
+    <mergeCell ref="AJ33:AR34"/>
+    <mergeCell ref="AS25:BC26"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:AA50"/>
+    <mergeCell ref="AB50:AD50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:AA51"/>
+    <mergeCell ref="AB51:AD51"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:AA49"/>
+    <mergeCell ref="AB49:AD49"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:AA48"/>
+    <mergeCell ref="I9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="S9:Z11"/>
+    <mergeCell ref="AA9:AA11"/>
+    <mergeCell ref="AB9:AI11"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="AB47:AD47"/>
+    <mergeCell ref="M47:AA47"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="M46:AA46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="E8:H11"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="A12:G13"/>
+    <mergeCell ref="I7:R8"/>
+    <mergeCell ref="A8:D11"/>
+    <mergeCell ref="X22:AI22"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="A3:AK4"/>
+    <mergeCell ref="AK5:BC7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="AE5:AJ5"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="S7:AA8"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="I6:P6"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="AE6:AJ6"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AJ17:AK17"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:BC16"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="BE2:BJ2"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:AA45"/>
+    <mergeCell ref="A39:BJ39"/>
+    <mergeCell ref="M42:AA42"/>
+    <mergeCell ref="M43:AA43"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="A42:J44"/>
+    <mergeCell ref="AF41:AS41"/>
+    <mergeCell ref="A41:AA41"/>
+    <mergeCell ref="M44:AA44"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="AZ17:BA17"/>
+    <mergeCell ref="BG21:BH21"/>
+    <mergeCell ref="BG12:BH15"/>
+    <mergeCell ref="BC12:BC13"/>
+    <mergeCell ref="BB17:BC17"/>
+    <mergeCell ref="BD21:BF21"/>
+    <mergeCell ref="BI22:BJ22"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BE4:BF6"/>
+    <mergeCell ref="AB7:AJ8"/>
+    <mergeCell ref="BD12:BF15"/>
+    <mergeCell ref="BG4:BG6"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="AD17:AE17"/>
     <mergeCell ref="V17:W17"/>
@@ -8320,232 +8513,40 @@
     <mergeCell ref="AV17:AW17"/>
     <mergeCell ref="Z17:AA17"/>
     <mergeCell ref="AW12:AX13"/>
-    <mergeCell ref="BE2:BJ2"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:AA45"/>
-    <mergeCell ref="A39:BJ39"/>
-    <mergeCell ref="M42:AA42"/>
-    <mergeCell ref="M43:AA43"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="A42:J44"/>
-    <mergeCell ref="AF41:AS41"/>
-    <mergeCell ref="A41:AA41"/>
-    <mergeCell ref="M44:AA44"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="AZ17:BA17"/>
-    <mergeCell ref="BG21:BH21"/>
-    <mergeCell ref="BG12:BH15"/>
-    <mergeCell ref="BC12:BC13"/>
-    <mergeCell ref="BB17:BC17"/>
-    <mergeCell ref="BD21:BF21"/>
-    <mergeCell ref="BI22:BJ22"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BE4:BF6"/>
-    <mergeCell ref="AB7:AJ8"/>
-    <mergeCell ref="BD12:BF15"/>
-    <mergeCell ref="BG4:BG6"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AJ17:AK17"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:BC16"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="A3:AK4"/>
-    <mergeCell ref="AK5:BC7"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="AE5:AJ5"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="S7:AA8"/>
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="I6:P6"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="AE6:AJ6"/>
-    <mergeCell ref="I9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="S9:Z11"/>
-    <mergeCell ref="AA9:AA11"/>
-    <mergeCell ref="AB9:AI11"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="AB46:AD46"/>
-    <mergeCell ref="AB47:AD47"/>
-    <mergeCell ref="M47:AA47"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="M46:AA46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="E8:H11"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="A12:G13"/>
-    <mergeCell ref="I7:R8"/>
-    <mergeCell ref="A8:D11"/>
-    <mergeCell ref="X22:AI22"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:AA50"/>
-    <mergeCell ref="AB50:AD50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:AA51"/>
-    <mergeCell ref="AB51:AD51"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:AA49"/>
-    <mergeCell ref="AB49:AD49"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:AA48"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:P35"/>
-    <mergeCell ref="AS23:BC24"/>
-    <mergeCell ref="BD23:BF24"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="C27:F28"/>
-    <mergeCell ref="C29:F30"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="C33:F34"/>
-    <mergeCell ref="G25:N26"/>
-    <mergeCell ref="G27:N28"/>
-    <mergeCell ref="G29:N30"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="X27:AI28"/>
-    <mergeCell ref="X29:AI30"/>
-    <mergeCell ref="X31:AI32"/>
-    <mergeCell ref="X33:AI34"/>
-    <mergeCell ref="AJ25:AR26"/>
-    <mergeCell ref="AJ27:AR28"/>
-    <mergeCell ref="AJ29:AR30"/>
-    <mergeCell ref="AJ31:AR32"/>
-    <mergeCell ref="AJ33:AR34"/>
-    <mergeCell ref="AS25:BC26"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="O22:W22"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="AF46:AS47"/>
-    <mergeCell ref="AS35:BD35"/>
-    <mergeCell ref="AT40:BI40"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AT42:AU42"/>
-    <mergeCell ref="AT43:AU43"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="AC37:AR37"/>
-    <mergeCell ref="AU36:BD37"/>
-    <mergeCell ref="BF36:BJ37"/>
-    <mergeCell ref="BE35:BJ35"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="BJ46:BJ47"/>
-    <mergeCell ref="BG22:BH22"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="AK8:AM11"/>
-    <mergeCell ref="AO8:BB11"/>
-    <mergeCell ref="Q35:X35"/>
-    <mergeCell ref="Q36:X36"/>
-    <mergeCell ref="Q37:X37"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="K40:AA40"/>
-    <mergeCell ref="Y35:AR35"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="I5:P5"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="AC12:AD13"/>
-    <mergeCell ref="AE12:AF13"/>
-    <mergeCell ref="AG12:AH13"/>
-    <mergeCell ref="AI12:AJ13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AZ14:BA14"/>
-    <mergeCell ref="AX14:AY14"/>
-    <mergeCell ref="AS33:BC34"/>
-    <mergeCell ref="BD25:BF26"/>
-    <mergeCell ref="BD27:BF28"/>
-    <mergeCell ref="BD29:BF30"/>
-    <mergeCell ref="BD31:BF32"/>
-    <mergeCell ref="BD33:BF34"/>
-    <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="C23:F24"/>
-    <mergeCell ref="O23:W24"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="X23:AI24"/>
-    <mergeCell ref="AJ23:AR24"/>
-    <mergeCell ref="G23:N24"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="BG25:BH26"/>
-    <mergeCell ref="BG27:BH28"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="I36:N37"/>
-    <mergeCell ref="BG29:BH30"/>
-    <mergeCell ref="BG31:BH32"/>
-    <mergeCell ref="BG33:BH34"/>
-    <mergeCell ref="BI25:BJ26"/>
-    <mergeCell ref="BI27:BJ28"/>
-    <mergeCell ref="BI29:BJ30"/>
-    <mergeCell ref="BI31:BJ32"/>
-    <mergeCell ref="BI33:BJ34"/>
-    <mergeCell ref="AC36:AR36"/>
-    <mergeCell ref="G31:N32"/>
-    <mergeCell ref="G33:N34"/>
-    <mergeCell ref="O25:W26"/>
-    <mergeCell ref="O27:W28"/>
-    <mergeCell ref="O29:W30"/>
-    <mergeCell ref="O31:W32"/>
-    <mergeCell ref="O33:W34"/>
-    <mergeCell ref="AS27:BC28"/>
-    <mergeCell ref="AS29:BC30"/>
-    <mergeCell ref="AS31:BC32"/>
+    <mergeCell ref="BA12:BB13"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BC8:BJ11"/>
+    <mergeCell ref="BI12:BJ15"/>
+    <mergeCell ref="AY12:AZ13"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AF42:AS42"/>
+    <mergeCell ref="AF43:AS43"/>
+    <mergeCell ref="AF44:AS44"/>
+    <mergeCell ref="AF45:AS45"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="BD22:BF22"/>
+    <mergeCell ref="AJ22:AR22"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AF40:AS40"/>
+    <mergeCell ref="BG20:BH20"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AO12:AP13"/>
+    <mergeCell ref="AX17:AY17"/>
+    <mergeCell ref="BI21:BJ21"/>
+    <mergeCell ref="BG23:BH24"/>
+    <mergeCell ref="BI23:BJ24"/>
+    <mergeCell ref="X25:AI26"/>
+    <mergeCell ref="BG16:BH17"/>
+    <mergeCell ref="BI16:BJ17"/>
+    <mergeCell ref="BD18:BF18"/>
+    <mergeCell ref="BD19:BF19"/>
+    <mergeCell ref="BG18:BH19"/>
+    <mergeCell ref="BI18:BJ20"/>
+    <mergeCell ref="BD20:BF20"/>
+    <mergeCell ref="BH4:BH6"/>
+    <mergeCell ref="BI4:BI6"/>
+    <mergeCell ref="BJ4:BJ6"/>
+    <mergeCell ref="BD16:BF17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="3.937007874015748E-2" top="0" bottom="0" header="0.19685039370078741" footer="0.19685039370078741"/>
